--- a/Code/Results/Cases/Case_1_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_38/res_bus/vm_pu.xlsx
@@ -421,7 +421,7 @@
         <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9146968293847449</v>
+        <v>0.9146968293847452</v>
       </c>
       <c r="D2">
         <v>1.023147479296632</v>
@@ -430,7 +430,7 @@
         <v>0.9319948269992284</v>
       </c>
       <c r="F2">
-        <v>0.8863786648731898</v>
+        <v>0.8863786648731895</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -445,10 +445,10 @@
         <v>1.034293483668361</v>
       </c>
       <c r="L2">
-        <v>0.9444905726461756</v>
+        <v>0.9444905726461758</v>
       </c>
       <c r="M2">
-        <v>0.8996861205214323</v>
+        <v>0.899686120521432</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9290810173281528</v>
+        <v>0.9290810173281547</v>
       </c>
       <c r="D3">
         <v>1.026504933030315</v>
       </c>
       <c r="E3">
-        <v>0.9441338791561454</v>
+        <v>0.9441338791561472</v>
       </c>
       <c r="F3">
-        <v>0.9045904054176841</v>
+        <v>0.9045904054176861</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.041906538267717</v>
       </c>
       <c r="J3">
-        <v>0.9517112525789529</v>
+        <v>0.9517112525789547</v>
       </c>
       <c r="K3">
-        <v>1.036809548569432</v>
+        <v>1.036809548569433</v>
       </c>
       <c r="L3">
-        <v>0.9555352660033634</v>
+        <v>0.955535266003365</v>
       </c>
       <c r="M3">
-        <v>0.9166095226099515</v>
+        <v>0.9166095226099537</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9378012955719736</v>
+        <v>0.9378012955719726</v>
       </c>
       <c r="D4">
         <v>1.028577499097406</v>
       </c>
       <c r="E4">
-        <v>0.9515048848402804</v>
+        <v>0.9515048848402797</v>
       </c>
       <c r="F4">
-        <v>0.9155981098436394</v>
+        <v>0.9155981098436385</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.043232888379223</v>
       </c>
       <c r="J4">
-        <v>0.9589419501354033</v>
+        <v>0.9589419501354026</v>
       </c>
       <c r="K4">
         <v>1.03834283217411</v>
       </c>
       <c r="L4">
-        <v>0.9622261236750074</v>
+        <v>0.9622261236750067</v>
       </c>
       <c r="M4">
-        <v>0.926834561765948</v>
+        <v>0.9268345617659474</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,7 +535,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9413435160307398</v>
+        <v>0.9413435160307397</v>
       </c>
       <c r="D5">
         <v>1.029426949266794</v>
@@ -544,7 +544,7 @@
         <v>0.9545014753582727</v>
       </c>
       <c r="F5">
-        <v>0.9200635398568432</v>
+        <v>0.9200635398568429</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,7 +553,7 @@
         <v>1.04376855110459</v>
       </c>
       <c r="J5">
-        <v>0.9618765036890853</v>
+        <v>0.9618765036890854</v>
       </c>
       <c r="K5">
         <v>1.038966697988473</v>
@@ -562,7 +562,7 @@
         <v>0.9649426145965874</v>
       </c>
       <c r="M5">
-        <v>0.930981320356435</v>
+        <v>0.9309813203564349</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9419314363509319</v>
+        <v>0.9419314363509314</v>
       </c>
       <c r="D6">
         <v>1.029568346729875</v>
       </c>
       <c r="E6">
-        <v>0.9549989691412606</v>
+        <v>0.9549989691412598</v>
       </c>
       <c r="F6">
-        <v>0.9208043881892607</v>
+        <v>0.9208043881892597</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043857258873673</v>
+        <v>1.043857258873672</v>
       </c>
       <c r="J6">
-        <v>0.9623634110530527</v>
+        <v>0.9623634110530521</v>
       </c>
       <c r="K6">
         <v>1.03907028235615</v>
       </c>
       <c r="L6">
-        <v>0.965393398598671</v>
+        <v>0.9653933985986705</v>
       </c>
       <c r="M6">
-        <v>0.9316692241289297</v>
+        <v>0.9316692241289288</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9378490936464149</v>
+        <v>0.9378490936464164</v>
       </c>
       <c r="D7">
         <v>1.028588932937181</v>
       </c>
       <c r="E7">
-        <v>0.9515453109801939</v>
+        <v>0.9515453109801953</v>
       </c>
       <c r="F7">
-        <v>0.9156583869761861</v>
+        <v>0.9156583869761876</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.043240129627371</v>
       </c>
       <c r="J7">
-        <v>0.9589815589156133</v>
+        <v>0.9589815589156147</v>
       </c>
       <c r="K7">
         <v>1.038351247431298</v>
       </c>
       <c r="L7">
-        <v>0.9622627851991129</v>
+        <v>0.9622627851991142</v>
       </c>
       <c r="M7">
-        <v>0.9268905422055717</v>
+        <v>0.9268905422055731</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9196909641395983</v>
+        <v>0.9196909641395988</v>
       </c>
       <c r="D8">
         <v>1.024304222520444</v>
       </c>
       <c r="E8">
-        <v>0.9362066365491599</v>
+        <v>0.9362066365491608</v>
       </c>
       <c r="F8">
-        <v>0.8927102468866808</v>
+        <v>0.8927102468866815</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.040468902024474</v>
       </c>
       <c r="J8">
-        <v>0.9439161845907607</v>
+        <v>0.9439161845907611</v>
       </c>
       <c r="K8">
         <v>1.03516474164905</v>
       </c>
       <c r="L8">
-        <v>0.9483261675113074</v>
+        <v>0.9483261675113083</v>
       </c>
       <c r="M8">
-        <v>0.9055704884719439</v>
+        <v>0.9055704884719447</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8821721511503227</v>
+        <v>0.8821721511503233</v>
       </c>
       <c r="D9">
         <v>1.015865117372744</v>
       </c>
       <c r="E9">
-        <v>0.904643465978179</v>
+        <v>0.9046434659781795</v>
       </c>
       <c r="F9">
-        <v>0.8448609711368242</v>
+        <v>0.8448609711368251</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.034687963677972</v>
       </c>
       <c r="J9">
-        <v>0.9127017959036565</v>
+        <v>0.9127017959036571</v>
       </c>
       <c r="K9">
         <v>1.028705933383088</v>
       </c>
       <c r="L9">
-        <v>0.9194995533255347</v>
+        <v>0.9194995533255349</v>
       </c>
       <c r="M9">
-        <v>0.8610971807292986</v>
+        <v>0.8610971807292993</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8512673417417628</v>
+        <v>0.8512673417417624</v>
       </c>
       <c r="D10">
         <v>1.009384690574923</v>
       </c>
       <c r="E10">
-        <v>0.878792058269849</v>
+        <v>0.8787920582698486</v>
       </c>
       <c r="F10">
-        <v>0.8047963475531962</v>
+        <v>0.8047963475531954</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.029961583577196</v>
       </c>
       <c r="J10">
-        <v>0.8869384331612334</v>
+        <v>0.8869384331612329</v>
       </c>
       <c r="K10">
-        <v>1.023586543970159</v>
+        <v>1.023586543970158</v>
       </c>
       <c r="L10">
-        <v>0.8957588364007434</v>
+        <v>0.8957588364007431</v>
       </c>
       <c r="M10">
-        <v>0.8238860506689575</v>
+        <v>0.8238860506689568</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8355741930413219</v>
+        <v>0.835574193041321</v>
       </c>
       <c r="D11">
         <v>1.006271239669787</v>
       </c>
       <c r="E11">
-        <v>0.865721605075796</v>
+        <v>0.8657216050757953</v>
       </c>
       <c r="F11">
-        <v>0.7841398958402995</v>
+        <v>0.7841398958402984</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027597112916679</v>
+        <v>1.027597112916678</v>
       </c>
       <c r="J11">
-        <v>0.8738460677753819</v>
+        <v>0.8738460677753812</v>
       </c>
       <c r="K11">
-        <v>1.021075850791446</v>
+        <v>1.021075850791445</v>
       </c>
       <c r="L11">
-        <v>0.8837139523976477</v>
+        <v>0.8837139523976472</v>
       </c>
       <c r="M11">
-        <v>0.8047259249837908</v>
+        <v>0.8047259249837894</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -807,10 +807,10 @@
         <v>1.005052157890547</v>
       </c>
       <c r="E12">
-        <v>0.8604673271653694</v>
+        <v>0.8604673271653697</v>
       </c>
       <c r="F12">
-        <v>0.77574549791092</v>
+        <v>0.7757454979109204</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.026653530806221</v>
       </c>
       <c r="J12">
-        <v>0.8685701557947526</v>
+        <v>0.8685701557947529</v>
       </c>
       <c r="K12">
         <v>1.020083202410448</v>
       </c>
       <c r="L12">
-        <v>0.8788641922288677</v>
+        <v>0.8788641922288679</v>
       </c>
       <c r="M12">
-        <v>0.7969464754815079</v>
+        <v>0.7969464754815082</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8306338439911117</v>
+        <v>0.8306338439911132</v>
       </c>
       <c r="D13">
         <v>1.005316880165378</v>
       </c>
       <c r="E13">
-        <v>0.8616152818689606</v>
+        <v>0.8616152818689622</v>
       </c>
       <c r="F13">
-        <v>0.7775842695364864</v>
+        <v>0.7775842695364876</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.026859308269562</v>
       </c>
       <c r="J13">
-        <v>0.8697234744026701</v>
+        <v>0.8697234744026714</v>
       </c>
       <c r="K13">
         <v>1.020299227002501</v>
       </c>
       <c r="L13">
-        <v>0.8799241482932469</v>
+        <v>0.8799241482932481</v>
       </c>
       <c r="M13">
-        <v>0.7986501645148938</v>
+        <v>0.798650164514895</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.83506286468447</v>
+        <v>0.8350628646844708</v>
       </c>
       <c r="D14">
         <v>1.006171883055894</v>
       </c>
       <c r="E14">
-        <v>0.8652964092992752</v>
+        <v>0.865296409299276</v>
       </c>
       <c r="F14">
-        <v>0.7834626324370809</v>
+        <v>0.7834626324370821</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.027520594167434</v>
       </c>
       <c r="J14">
-        <v>0.8734193978695404</v>
+        <v>0.8734193978695409</v>
       </c>
       <c r="K14">
         <v>1.020995155223351</v>
       </c>
       <c r="L14">
-        <v>0.8833216572647872</v>
+        <v>0.8833216572647878</v>
       </c>
       <c r="M14">
-        <v>0.8040981150571289</v>
+        <v>0.8040981150571299</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,7 +915,7 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8377202963295863</v>
+        <v>0.8377202963295866</v>
       </c>
       <c r="D15">
         <v>1.006689703441216</v>
@@ -924,7 +924,7 @@
         <v>0.8675066735740703</v>
       </c>
       <c r="F15">
-        <v>0.7869793926294183</v>
+        <v>0.7869793926294185</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,7 +933,7 @@
         <v>1.027918651981159</v>
       </c>
       <c r="J15">
-        <v>0.8756367970521246</v>
+        <v>0.8756367970521247</v>
       </c>
       <c r="K15">
         <v>1.021415322154325</v>
@@ -942,7 +942,7 @@
         <v>0.8853605787710056</v>
       </c>
       <c r="M15">
-        <v>0.807358376364652</v>
+        <v>0.8073583763646521</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8522497296512885</v>
+        <v>0.8522497296512881</v>
       </c>
       <c r="D16">
         <v>1.009583665519729</v>
       </c>
       <c r="E16">
-        <v>0.8796115796386904</v>
+        <v>0.87961157963869</v>
       </c>
       <c r="F16">
-        <v>0.8060816339710861</v>
+        <v>0.8060816339710856</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.030110551389259</v>
       </c>
       <c r="J16">
-        <v>0.8877578320944669</v>
+        <v>0.8877578320944667</v>
       </c>
       <c r="K16">
         <v>1.023745837432317</v>
       </c>
       <c r="L16">
-        <v>0.896513135571365</v>
+        <v>0.8965131355713646</v>
       </c>
       <c r="M16">
-        <v>0.8250789243637293</v>
+        <v>0.8250789243637288</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8606675809289011</v>
+        <v>0.8606675809289007</v>
       </c>
       <c r="D17">
         <v>1.011307906348615</v>
       </c>
       <c r="E17">
-        <v>0.8866400282923745</v>
+        <v>0.8866400282923741</v>
       </c>
       <c r="F17">
-        <v>0.8170607428190555</v>
+        <v>0.8170607428190556</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.031391020154041</v>
       </c>
       <c r="J17">
-        <v>0.894778046315884</v>
+        <v>0.8947780463158839</v>
       </c>
       <c r="K17">
         <v>1.025120530014323</v>
       </c>
       <c r="L17">
-        <v>0.9029777361215575</v>
+        <v>0.9029777361215572</v>
       </c>
       <c r="M17">
-        <v>0.8352714132896558</v>
+        <v>0.8352714132896557</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8653673730797453</v>
+        <v>0.8653673730797458</v>
       </c>
       <c r="D18">
         <v>1.012285401966683</v>
       </c>
       <c r="E18">
-        <v>0.8905688207904691</v>
+        <v>0.8905688207904692</v>
       </c>
       <c r="F18">
-        <v>0.8231652671347373</v>
+        <v>0.8231652671347368</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.032108755669588</v>
       </c>
       <c r="J18">
-        <v>0.89869664214734</v>
+        <v>0.8986966421473401</v>
       </c>
       <c r="K18">
-        <v>1.025895390212855</v>
+        <v>1.025895390212856</v>
       </c>
       <c r="L18">
-        <v>0.9065878228171121</v>
+        <v>0.9065878228171123</v>
       </c>
       <c r="M18">
-        <v>0.8409405021057298</v>
+        <v>0.8409405021057295</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8669373183519293</v>
+        <v>0.8669373183519314</v>
       </c>
       <c r="D19">
-        <v>1.012614266725756</v>
+        <v>1.012614266725755</v>
       </c>
       <c r="E19">
-        <v>0.8918819575027906</v>
+        <v>0.8918819575027926</v>
       </c>
       <c r="F19">
-        <v>0.8252006493043642</v>
+        <v>0.8252006493043663</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.032348916000718</v>
       </c>
       <c r="J19">
-        <v>0.9000054772035072</v>
+        <v>0.9000054772035091</v>
       </c>
       <c r="K19">
         <v>1.026155361628717</v>
       </c>
       <c r="L19">
-        <v>0.9077938688696562</v>
+        <v>0.9077938688696581</v>
       </c>
       <c r="M19">
-        <v>0.8428309717566825</v>
+        <v>0.8428309717566843</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8597869409101153</v>
+        <v>0.8597869409101162</v>
       </c>
       <c r="D20">
         <v>1.011125918929204</v>
       </c>
       <c r="E20">
-        <v>0.8859042299829684</v>
+        <v>0.8859042299829691</v>
       </c>
       <c r="F20">
-        <v>0.8159149317886634</v>
+        <v>0.8159149317886644</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.031256745599192</v>
       </c>
       <c r="J20">
-        <v>0.8940437120703155</v>
+        <v>0.8940437120703162</v>
       </c>
       <c r="K20">
         <v>1.024975913541424</v>
       </c>
       <c r="L20">
-        <v>0.9023013441011012</v>
+        <v>0.9023013441011022</v>
       </c>
       <c r="M20">
-        <v>0.8342074777092913</v>
+        <v>0.8342074777092922</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8337739365041323</v>
+        <v>0.8337739365041321</v>
       </c>
       <c r="D21">
         <v>1.005922023254936</v>
       </c>
       <c r="E21">
-        <v>0.8642247928208593</v>
+        <v>0.8642247928208588</v>
       </c>
       <c r="F21">
-        <v>0.78175416239675</v>
+        <v>0.7817541623967493</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.027327867484397</v>
       </c>
       <c r="J21">
-        <v>0.872343850886431</v>
+        <v>0.8723438508864305</v>
       </c>
       <c r="K21">
         <v>1.020792063000763</v>
       </c>
       <c r="L21">
-        <v>0.8823328307022241</v>
+        <v>0.8823328307022237</v>
       </c>
       <c r="M21">
-        <v>0.8025145191242193</v>
+        <v>0.8025145191242189</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.814391472841672</v>
+        <v>0.8143914728416702</v>
       </c>
       <c r="D22">
         <v>1.002268697275932</v>
       </c>
       <c r="E22">
-        <v>0.8481443630281911</v>
+        <v>0.8481443630281896</v>
       </c>
       <c r="F22">
-        <v>0.7558256950254501</v>
+        <v>0.7558256950254482</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.024459084517428</v>
       </c>
       <c r="J22">
-        <v>0.8561667030353182</v>
+        <v>0.8561667030353166</v>
       </c>
       <c r="K22">
         <v>1.017795344407136</v>
       </c>
       <c r="L22">
-        <v>0.8674723750540958</v>
+        <v>0.8674723750540945</v>
       </c>
       <c r="M22">
-        <v>0.7785052655534042</v>
+        <v>0.7785052655534025</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8250361171658608</v>
+        <v>0.8250361171658598</v>
       </c>
       <c r="D23">
         <v>1.004250750496086</v>
       </c>
       <c r="E23">
-        <v>0.8569675479070888</v>
+        <v>0.856967547907088</v>
       </c>
       <c r="F23">
-        <v>0.770122553164842</v>
+        <v>0.7701225531648405</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.026027536622442</v>
       </c>
       <c r="J23">
-        <v>0.8650518036102876</v>
+        <v>0.8650518036102864</v>
       </c>
       <c r="K23">
         <v>1.019427595822915</v>
       </c>
       <c r="L23">
-        <v>0.8756313788840866</v>
+        <v>0.8756313788840856</v>
       </c>
       <c r="M23">
-        <v>0.7917380074180911</v>
+        <v>0.7917380074180894</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8601855043184095</v>
+        <v>0.8601855043184087</v>
       </c>
       <c r="D24">
         <v>1.011208237362174</v>
       </c>
       <c r="E24">
-        <v>0.886237225707055</v>
+        <v>0.8862372257070541</v>
       </c>
       <c r="F24">
-        <v>0.816433585249686</v>
+        <v>0.816433585249685</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.031317507399727</v>
       </c>
       <c r="J24">
-        <v>0.8943760626317149</v>
+        <v>0.8943760626317139</v>
       </c>
       <c r="K24">
         <v>1.025041341823848</v>
       </c>
       <c r="L24">
-        <v>0.902607465675331</v>
+        <v>0.9026074656753301</v>
       </c>
       <c r="M24">
-        <v>0.8346890641785049</v>
+        <v>0.8346890641785037</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8927006045171384</v>
+        <v>0.8927006045171377</v>
       </c>
       <c r="D25">
         <v>1.018173012415105</v>
       </c>
       <c r="E25">
-        <v>0.9134818662156786</v>
+        <v>0.9134818662156781</v>
       </c>
       <c r="F25">
-        <v>0.8583611204298408</v>
+        <v>0.8583611204298397</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.036310556323955</v>
       </c>
       <c r="J25">
-        <v>0.9214699528124842</v>
+        <v>0.9214699528124836</v>
       </c>
       <c r="K25">
         <v>1.030495617083236</v>
       </c>
       <c r="L25">
-        <v>0.9275902410409911</v>
+        <v>0.9275902410409906</v>
       </c>
       <c r="M25">
-        <v>0.8736441663096763</v>
+        <v>0.8736441663096752</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_38/res_bus/vm_pu.xlsx
@@ -421,7 +421,7 @@
         <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9146968293847452</v>
+        <v>0.9146968293847449</v>
       </c>
       <c r="D2">
         <v>1.023147479296632</v>
@@ -430,7 +430,7 @@
         <v>0.9319948269992284</v>
       </c>
       <c r="F2">
-        <v>0.8863786648731895</v>
+        <v>0.8863786648731898</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -445,10 +445,10 @@
         <v>1.034293483668361</v>
       </c>
       <c r="L2">
-        <v>0.9444905726461758</v>
+        <v>0.9444905726461756</v>
       </c>
       <c r="M2">
-        <v>0.899686120521432</v>
+        <v>0.8996861205214323</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9290810173281547</v>
+        <v>0.9290810173281528</v>
       </c>
       <c r="D3">
         <v>1.026504933030315</v>
       </c>
       <c r="E3">
-        <v>0.9441338791561472</v>
+        <v>0.9441338791561454</v>
       </c>
       <c r="F3">
-        <v>0.9045904054176861</v>
+        <v>0.9045904054176841</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.041906538267717</v>
       </c>
       <c r="J3">
-        <v>0.9517112525789547</v>
+        <v>0.9517112525789529</v>
       </c>
       <c r="K3">
-        <v>1.036809548569433</v>
+        <v>1.036809548569432</v>
       </c>
       <c r="L3">
-        <v>0.955535266003365</v>
+        <v>0.9555352660033634</v>
       </c>
       <c r="M3">
-        <v>0.9166095226099537</v>
+        <v>0.9166095226099515</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9378012955719726</v>
+        <v>0.9378012955719736</v>
       </c>
       <c r="D4">
         <v>1.028577499097406</v>
       </c>
       <c r="E4">
-        <v>0.9515048848402797</v>
+        <v>0.9515048848402804</v>
       </c>
       <c r="F4">
-        <v>0.9155981098436385</v>
+        <v>0.9155981098436394</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.043232888379223</v>
       </c>
       <c r="J4">
-        <v>0.9589419501354026</v>
+        <v>0.9589419501354033</v>
       </c>
       <c r="K4">
         <v>1.03834283217411</v>
       </c>
       <c r="L4">
-        <v>0.9622261236750067</v>
+        <v>0.9622261236750074</v>
       </c>
       <c r="M4">
-        <v>0.9268345617659474</v>
+        <v>0.926834561765948</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,7 +535,7 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9413435160307397</v>
+        <v>0.9413435160307398</v>
       </c>
       <c r="D5">
         <v>1.029426949266794</v>
@@ -544,7 +544,7 @@
         <v>0.9545014753582727</v>
       </c>
       <c r="F5">
-        <v>0.9200635398568429</v>
+        <v>0.9200635398568432</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,7 +553,7 @@
         <v>1.04376855110459</v>
       </c>
       <c r="J5">
-        <v>0.9618765036890854</v>
+        <v>0.9618765036890853</v>
       </c>
       <c r="K5">
         <v>1.038966697988473</v>
@@ -562,7 +562,7 @@
         <v>0.9649426145965874</v>
       </c>
       <c r="M5">
-        <v>0.9309813203564349</v>
+        <v>0.930981320356435</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9419314363509314</v>
+        <v>0.9419314363509319</v>
       </c>
       <c r="D6">
         <v>1.029568346729875</v>
       </c>
       <c r="E6">
-        <v>0.9549989691412598</v>
+        <v>0.9549989691412606</v>
       </c>
       <c r="F6">
-        <v>0.9208043881892597</v>
+        <v>0.9208043881892607</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043857258873672</v>
+        <v>1.043857258873673</v>
       </c>
       <c r="J6">
-        <v>0.9623634110530521</v>
+        <v>0.9623634110530527</v>
       </c>
       <c r="K6">
         <v>1.03907028235615</v>
       </c>
       <c r="L6">
-        <v>0.9653933985986705</v>
+        <v>0.965393398598671</v>
       </c>
       <c r="M6">
-        <v>0.9316692241289288</v>
+        <v>0.9316692241289297</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9378490936464164</v>
+        <v>0.9378490936464149</v>
       </c>
       <c r="D7">
         <v>1.028588932937181</v>
       </c>
       <c r="E7">
-        <v>0.9515453109801953</v>
+        <v>0.9515453109801939</v>
       </c>
       <c r="F7">
-        <v>0.9156583869761876</v>
+        <v>0.9156583869761861</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.043240129627371</v>
       </c>
       <c r="J7">
-        <v>0.9589815589156147</v>
+        <v>0.9589815589156133</v>
       </c>
       <c r="K7">
         <v>1.038351247431298</v>
       </c>
       <c r="L7">
-        <v>0.9622627851991142</v>
+        <v>0.9622627851991129</v>
       </c>
       <c r="M7">
-        <v>0.9268905422055731</v>
+        <v>0.9268905422055717</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9196909641395988</v>
+        <v>0.9196909641395983</v>
       </c>
       <c r="D8">
         <v>1.024304222520444</v>
       </c>
       <c r="E8">
-        <v>0.9362066365491608</v>
+        <v>0.9362066365491599</v>
       </c>
       <c r="F8">
-        <v>0.8927102468866815</v>
+        <v>0.8927102468866808</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.040468902024474</v>
       </c>
       <c r="J8">
-        <v>0.9439161845907611</v>
+        <v>0.9439161845907607</v>
       </c>
       <c r="K8">
         <v>1.03516474164905</v>
       </c>
       <c r="L8">
-        <v>0.9483261675113083</v>
+        <v>0.9483261675113074</v>
       </c>
       <c r="M8">
-        <v>0.9055704884719447</v>
+        <v>0.9055704884719439</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8821721511503233</v>
+        <v>0.8821721511503227</v>
       </c>
       <c r="D9">
         <v>1.015865117372744</v>
       </c>
       <c r="E9">
-        <v>0.9046434659781795</v>
+        <v>0.904643465978179</v>
       </c>
       <c r="F9">
-        <v>0.8448609711368251</v>
+        <v>0.8448609711368242</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.034687963677972</v>
       </c>
       <c r="J9">
-        <v>0.9127017959036571</v>
+        <v>0.9127017959036565</v>
       </c>
       <c r="K9">
         <v>1.028705933383088</v>
       </c>
       <c r="L9">
-        <v>0.9194995533255349</v>
+        <v>0.9194995533255347</v>
       </c>
       <c r="M9">
-        <v>0.8610971807292993</v>
+        <v>0.8610971807292986</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8512673417417624</v>
+        <v>0.8512673417417628</v>
       </c>
       <c r="D10">
         <v>1.009384690574923</v>
       </c>
       <c r="E10">
-        <v>0.8787920582698486</v>
+        <v>0.878792058269849</v>
       </c>
       <c r="F10">
-        <v>0.8047963475531954</v>
+        <v>0.8047963475531962</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.029961583577196</v>
       </c>
       <c r="J10">
-        <v>0.8869384331612329</v>
+        <v>0.8869384331612334</v>
       </c>
       <c r="K10">
-        <v>1.023586543970158</v>
+        <v>1.023586543970159</v>
       </c>
       <c r="L10">
-        <v>0.8957588364007431</v>
+        <v>0.8957588364007434</v>
       </c>
       <c r="M10">
-        <v>0.8238860506689568</v>
+        <v>0.8238860506689575</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.835574193041321</v>
+        <v>0.8355741930413219</v>
       </c>
       <c r="D11">
         <v>1.006271239669787</v>
       </c>
       <c r="E11">
-        <v>0.8657216050757953</v>
+        <v>0.865721605075796</v>
       </c>
       <c r="F11">
-        <v>0.7841398958402984</v>
+        <v>0.7841398958402995</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027597112916678</v>
+        <v>1.027597112916679</v>
       </c>
       <c r="J11">
-        <v>0.8738460677753812</v>
+        <v>0.8738460677753819</v>
       </c>
       <c r="K11">
-        <v>1.021075850791445</v>
+        <v>1.021075850791446</v>
       </c>
       <c r="L11">
-        <v>0.8837139523976472</v>
+        <v>0.8837139523976477</v>
       </c>
       <c r="M11">
-        <v>0.8047259249837894</v>
+        <v>0.8047259249837908</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -807,10 +807,10 @@
         <v>1.005052157890547</v>
       </c>
       <c r="E12">
-        <v>0.8604673271653697</v>
+        <v>0.8604673271653694</v>
       </c>
       <c r="F12">
-        <v>0.7757454979109204</v>
+        <v>0.77574549791092</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.026653530806221</v>
       </c>
       <c r="J12">
-        <v>0.8685701557947529</v>
+        <v>0.8685701557947526</v>
       </c>
       <c r="K12">
         <v>1.020083202410448</v>
       </c>
       <c r="L12">
-        <v>0.8788641922288679</v>
+        <v>0.8788641922288677</v>
       </c>
       <c r="M12">
-        <v>0.7969464754815082</v>
+        <v>0.7969464754815079</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8306338439911132</v>
+        <v>0.8306338439911117</v>
       </c>
       <c r="D13">
         <v>1.005316880165378</v>
       </c>
       <c r="E13">
-        <v>0.8616152818689622</v>
+        <v>0.8616152818689606</v>
       </c>
       <c r="F13">
-        <v>0.7775842695364876</v>
+        <v>0.7775842695364864</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.026859308269562</v>
       </c>
       <c r="J13">
-        <v>0.8697234744026714</v>
+        <v>0.8697234744026701</v>
       </c>
       <c r="K13">
         <v>1.020299227002501</v>
       </c>
       <c r="L13">
-        <v>0.8799241482932481</v>
+        <v>0.8799241482932469</v>
       </c>
       <c r="M13">
-        <v>0.798650164514895</v>
+        <v>0.7986501645148938</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8350628646844708</v>
+        <v>0.83506286468447</v>
       </c>
       <c r="D14">
         <v>1.006171883055894</v>
       </c>
       <c r="E14">
-        <v>0.865296409299276</v>
+        <v>0.8652964092992752</v>
       </c>
       <c r="F14">
-        <v>0.7834626324370821</v>
+        <v>0.7834626324370809</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.027520594167434</v>
       </c>
       <c r="J14">
-        <v>0.8734193978695409</v>
+        <v>0.8734193978695404</v>
       </c>
       <c r="K14">
         <v>1.020995155223351</v>
       </c>
       <c r="L14">
-        <v>0.8833216572647878</v>
+        <v>0.8833216572647872</v>
       </c>
       <c r="M14">
-        <v>0.8040981150571299</v>
+        <v>0.8040981150571289</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,7 +915,7 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8377202963295866</v>
+        <v>0.8377202963295863</v>
       </c>
       <c r="D15">
         <v>1.006689703441216</v>
@@ -924,7 +924,7 @@
         <v>0.8675066735740703</v>
       </c>
       <c r="F15">
-        <v>0.7869793926294185</v>
+        <v>0.7869793926294183</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,7 +933,7 @@
         <v>1.027918651981159</v>
       </c>
       <c r="J15">
-        <v>0.8756367970521247</v>
+        <v>0.8756367970521246</v>
       </c>
       <c r="K15">
         <v>1.021415322154325</v>
@@ -942,7 +942,7 @@
         <v>0.8853605787710056</v>
       </c>
       <c r="M15">
-        <v>0.8073583763646521</v>
+        <v>0.807358376364652</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8522497296512881</v>
+        <v>0.8522497296512885</v>
       </c>
       <c r="D16">
         <v>1.009583665519729</v>
       </c>
       <c r="E16">
-        <v>0.87961157963869</v>
+        <v>0.8796115796386904</v>
       </c>
       <c r="F16">
-        <v>0.8060816339710856</v>
+        <v>0.8060816339710861</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.030110551389259</v>
       </c>
       <c r="J16">
-        <v>0.8877578320944667</v>
+        <v>0.8877578320944669</v>
       </c>
       <c r="K16">
         <v>1.023745837432317</v>
       </c>
       <c r="L16">
-        <v>0.8965131355713646</v>
+        <v>0.896513135571365</v>
       </c>
       <c r="M16">
-        <v>0.8250789243637288</v>
+        <v>0.8250789243637293</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8606675809289007</v>
+        <v>0.8606675809289011</v>
       </c>
       <c r="D17">
         <v>1.011307906348615</v>
       </c>
       <c r="E17">
-        <v>0.8866400282923741</v>
+        <v>0.8866400282923745</v>
       </c>
       <c r="F17">
-        <v>0.8170607428190556</v>
+        <v>0.8170607428190555</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.031391020154041</v>
       </c>
       <c r="J17">
-        <v>0.8947780463158839</v>
+        <v>0.894778046315884</v>
       </c>
       <c r="K17">
         <v>1.025120530014323</v>
       </c>
       <c r="L17">
-        <v>0.9029777361215572</v>
+        <v>0.9029777361215575</v>
       </c>
       <c r="M17">
-        <v>0.8352714132896557</v>
+        <v>0.8352714132896558</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8653673730797458</v>
+        <v>0.8653673730797453</v>
       </c>
       <c r="D18">
         <v>1.012285401966683</v>
       </c>
       <c r="E18">
-        <v>0.8905688207904692</v>
+        <v>0.8905688207904691</v>
       </c>
       <c r="F18">
-        <v>0.8231652671347368</v>
+        <v>0.8231652671347373</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.032108755669588</v>
       </c>
       <c r="J18">
-        <v>0.8986966421473401</v>
+        <v>0.89869664214734</v>
       </c>
       <c r="K18">
-        <v>1.025895390212856</v>
+        <v>1.025895390212855</v>
       </c>
       <c r="L18">
-        <v>0.9065878228171123</v>
+        <v>0.9065878228171121</v>
       </c>
       <c r="M18">
-        <v>0.8409405021057295</v>
+        <v>0.8409405021057298</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8669373183519314</v>
+        <v>0.8669373183519293</v>
       </c>
       <c r="D19">
-        <v>1.012614266725755</v>
+        <v>1.012614266725756</v>
       </c>
       <c r="E19">
-        <v>0.8918819575027926</v>
+        <v>0.8918819575027906</v>
       </c>
       <c r="F19">
-        <v>0.8252006493043663</v>
+        <v>0.8252006493043642</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.032348916000718</v>
       </c>
       <c r="J19">
-        <v>0.9000054772035091</v>
+        <v>0.9000054772035072</v>
       </c>
       <c r="K19">
         <v>1.026155361628717</v>
       </c>
       <c r="L19">
-        <v>0.9077938688696581</v>
+        <v>0.9077938688696562</v>
       </c>
       <c r="M19">
-        <v>0.8428309717566843</v>
+        <v>0.8428309717566825</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8597869409101162</v>
+        <v>0.8597869409101153</v>
       </c>
       <c r="D20">
         <v>1.011125918929204</v>
       </c>
       <c r="E20">
-        <v>0.8859042299829691</v>
+        <v>0.8859042299829684</v>
       </c>
       <c r="F20">
-        <v>0.8159149317886644</v>
+        <v>0.8159149317886634</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.031256745599192</v>
       </c>
       <c r="J20">
-        <v>0.8940437120703162</v>
+        <v>0.8940437120703155</v>
       </c>
       <c r="K20">
         <v>1.024975913541424</v>
       </c>
       <c r="L20">
-        <v>0.9023013441011022</v>
+        <v>0.9023013441011012</v>
       </c>
       <c r="M20">
-        <v>0.8342074777092922</v>
+        <v>0.8342074777092913</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8337739365041321</v>
+        <v>0.8337739365041323</v>
       </c>
       <c r="D21">
         <v>1.005922023254936</v>
       </c>
       <c r="E21">
-        <v>0.8642247928208588</v>
+        <v>0.8642247928208593</v>
       </c>
       <c r="F21">
-        <v>0.7817541623967493</v>
+        <v>0.78175416239675</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.027327867484397</v>
       </c>
       <c r="J21">
-        <v>0.8723438508864305</v>
+        <v>0.872343850886431</v>
       </c>
       <c r="K21">
         <v>1.020792063000763</v>
       </c>
       <c r="L21">
-        <v>0.8823328307022237</v>
+        <v>0.8823328307022241</v>
       </c>
       <c r="M21">
-        <v>0.8025145191242189</v>
+        <v>0.8025145191242193</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8143914728416702</v>
+        <v>0.814391472841672</v>
       </c>
       <c r="D22">
         <v>1.002268697275932</v>
       </c>
       <c r="E22">
-        <v>0.8481443630281896</v>
+        <v>0.8481443630281911</v>
       </c>
       <c r="F22">
-        <v>0.7558256950254482</v>
+        <v>0.7558256950254501</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.024459084517428</v>
       </c>
       <c r="J22">
-        <v>0.8561667030353166</v>
+        <v>0.8561667030353182</v>
       </c>
       <c r="K22">
         <v>1.017795344407136</v>
       </c>
       <c r="L22">
-        <v>0.8674723750540945</v>
+        <v>0.8674723750540958</v>
       </c>
       <c r="M22">
-        <v>0.7785052655534025</v>
+        <v>0.7785052655534042</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8250361171658598</v>
+        <v>0.8250361171658608</v>
       </c>
       <c r="D23">
         <v>1.004250750496086</v>
       </c>
       <c r="E23">
-        <v>0.856967547907088</v>
+        <v>0.8569675479070888</v>
       </c>
       <c r="F23">
-        <v>0.7701225531648405</v>
+        <v>0.770122553164842</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.026027536622442</v>
       </c>
       <c r="J23">
-        <v>0.8650518036102864</v>
+        <v>0.8650518036102876</v>
       </c>
       <c r="K23">
         <v>1.019427595822915</v>
       </c>
       <c r="L23">
-        <v>0.8756313788840856</v>
+        <v>0.8756313788840866</v>
       </c>
       <c r="M23">
-        <v>0.7917380074180894</v>
+        <v>0.7917380074180911</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8601855043184087</v>
+        <v>0.8601855043184095</v>
       </c>
       <c r="D24">
         <v>1.011208237362174</v>
       </c>
       <c r="E24">
-        <v>0.8862372257070541</v>
+        <v>0.886237225707055</v>
       </c>
       <c r="F24">
-        <v>0.816433585249685</v>
+        <v>0.816433585249686</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.031317507399727</v>
       </c>
       <c r="J24">
-        <v>0.8943760626317139</v>
+        <v>0.8943760626317149</v>
       </c>
       <c r="K24">
         <v>1.025041341823848</v>
       </c>
       <c r="L24">
-        <v>0.9026074656753301</v>
+        <v>0.902607465675331</v>
       </c>
       <c r="M24">
-        <v>0.8346890641785037</v>
+        <v>0.8346890641785049</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8927006045171377</v>
+        <v>0.8927006045171384</v>
       </c>
       <c r="D25">
         <v>1.018173012415105</v>
       </c>
       <c r="E25">
-        <v>0.9134818662156781</v>
+        <v>0.9134818662156786</v>
       </c>
       <c r="F25">
-        <v>0.8583611204298397</v>
+        <v>0.8583611204298408</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.036310556323955</v>
       </c>
       <c r="J25">
-        <v>0.9214699528124836</v>
+        <v>0.9214699528124842</v>
       </c>
       <c r="K25">
         <v>1.030495617083236</v>
       </c>
       <c r="L25">
-        <v>0.9275902410409906</v>
+        <v>0.9275902410409911</v>
       </c>
       <c r="M25">
-        <v>0.8736441663096752</v>
+        <v>0.8736441663096763</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_38/res_bus/vm_pu.xlsx
@@ -418,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9146968293847449</v>
+        <v>0.9148091022950868</v>
       </c>
       <c r="D2">
-        <v>1.023147479296632</v>
+        <v>1.023160408696588</v>
       </c>
       <c r="E2">
-        <v>0.9319948269992284</v>
+        <v>0.9320935535910597</v>
       </c>
       <c r="F2">
-        <v>0.8863786648731898</v>
+        <v>0.8864987282919903</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039701446711827</v>
+        <v>1.039716751955491</v>
       </c>
       <c r="J2">
-        <v>0.9397670116974834</v>
+        <v>0.9398749801102212</v>
       </c>
       <c r="K2">
-        <v>1.034293483668361</v>
+        <v>1.034306243020335</v>
       </c>
       <c r="L2">
-        <v>0.9444905726461756</v>
+        <v>0.9445876534627585</v>
       </c>
       <c r="M2">
-        <v>0.8996861205214323</v>
+        <v>0.8998039041105436</v>
+      </c>
+      <c r="N2">
+        <v>0.9602798635674485</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9290810173281528</v>
+        <v>0.9291733609893222</v>
       </c>
       <c r="D3">
-        <v>1.026504933030315</v>
+        <v>1.026515564672314</v>
       </c>
       <c r="E3">
-        <v>0.9441338791561454</v>
+        <v>0.9442153120040095</v>
       </c>
       <c r="F3">
-        <v>0.9045904054176841</v>
+        <v>0.9046882552980124</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041906538267717</v>
+        <v>1.041919191681862</v>
       </c>
       <c r="J3">
-        <v>0.9517112525789529</v>
+        <v>0.9518005141642514</v>
       </c>
       <c r="K3">
-        <v>1.036809548569432</v>
+        <v>1.036820052758678</v>
       </c>
       <c r="L3">
-        <v>0.9555352660033634</v>
+        <v>0.9556154945924717</v>
       </c>
       <c r="M3">
-        <v>0.9166095226099515</v>
+        <v>0.9167057581857869</v>
+      </c>
+      <c r="N3">
+        <v>0.9685815278217605</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9378012955719736</v>
+        <v>0.9378822689930285</v>
       </c>
       <c r="D4">
-        <v>1.028577499097406</v>
+        <v>1.028586820750803</v>
       </c>
       <c r="E4">
-        <v>0.9515048848402804</v>
+        <v>0.9515764135489365</v>
       </c>
       <c r="F4">
-        <v>0.9155981098436394</v>
+        <v>0.9156834722001598</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043232888379223</v>
+        <v>1.043244021445861</v>
       </c>
       <c r="J4">
-        <v>0.9589419501354033</v>
+        <v>0.9590204555656217</v>
       </c>
       <c r="K4">
-        <v>1.03834283217411</v>
+        <v>1.038352048897837</v>
       </c>
       <c r="L4">
-        <v>0.9622261236750074</v>
+        <v>0.9622966749225952</v>
       </c>
       <c r="M4">
-        <v>0.926834561765948</v>
+        <v>0.926918638296667</v>
+      </c>
+      <c r="N4">
+        <v>0.9736042792354394</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9413435160307398</v>
+        <v>0.9414200082698158</v>
       </c>
       <c r="D5">
-        <v>1.029426949266794</v>
+        <v>1.029435754935482</v>
       </c>
       <c r="E5">
-        <v>0.9545014753582727</v>
+        <v>0.9545690934155217</v>
       </c>
       <c r="F5">
-        <v>0.9200635398568432</v>
+        <v>0.9201440170140045</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04376855110459</v>
+        <v>1.043779083578934</v>
       </c>
       <c r="J5">
-        <v>0.9618765036890853</v>
+        <v>0.9619507527312469</v>
       </c>
       <c r="K5">
-        <v>1.038966697988473</v>
+        <v>1.038975407200719</v>
       </c>
       <c r="L5">
-        <v>0.9649426145965874</v>
+        <v>0.965009339229056</v>
       </c>
       <c r="M5">
-        <v>0.930981320356435</v>
+        <v>0.9310606309554129</v>
+      </c>
+      <c r="N5">
+        <v>0.9756419567969526</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9419314363509319</v>
+        <v>0.9420071921214694</v>
       </c>
       <c r="D6">
-        <v>1.029568346729875</v>
+        <v>1.029577067617</v>
       </c>
       <c r="E6">
-        <v>0.9549989691412606</v>
+        <v>0.9550659441085301</v>
       </c>
       <c r="F6">
-        <v>0.9208043881892607</v>
+        <v>0.9208840644210625</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043857258873673</v>
+        <v>1.043867692569024</v>
       </c>
       <c r="J6">
-        <v>0.9623634110530527</v>
+        <v>0.9624369596252061</v>
       </c>
       <c r="K6">
-        <v>1.03907028235615</v>
+        <v>1.039078908156259</v>
       </c>
       <c r="L6">
-        <v>0.965393398598671</v>
+        <v>0.9654594936543749</v>
       </c>
       <c r="M6">
-        <v>0.9316692241289297</v>
+        <v>0.9317477528538012</v>
+      </c>
+      <c r="N6">
+        <v>0.9759800033834155</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9378490936464149</v>
+        <v>0.9379300060891288</v>
       </c>
       <c r="D7">
-        <v>1.028588932937181</v>
+        <v>1.028598247567968</v>
       </c>
       <c r="E7">
-        <v>0.9515453109801939</v>
+        <v>0.9516167865013716</v>
       </c>
       <c r="F7">
-        <v>0.9156583869761861</v>
+        <v>0.9157436827198954</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043240129627371</v>
+        <v>1.043251254526568</v>
       </c>
       <c r="J7">
-        <v>0.9589815589156133</v>
+        <v>0.9590600064924466</v>
       </c>
       <c r="K7">
-        <v>1.038351247431298</v>
+        <v>1.038360457249309</v>
       </c>
       <c r="L7">
-        <v>0.9622627851991129</v>
+        <v>0.9623332844234662</v>
       </c>
       <c r="M7">
-        <v>0.9268905422055717</v>
+        <v>0.9269745537850419</v>
+      </c>
+      <c r="N7">
+        <v>0.9736317858121182</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9196909641395983</v>
+        <v>0.9197961393371895</v>
       </c>
       <c r="D8">
-        <v>1.024304222520444</v>
+        <v>1.024316333439235</v>
       </c>
       <c r="E8">
-        <v>0.9362066365491599</v>
+        <v>0.9362992137837743</v>
       </c>
       <c r="F8">
-        <v>0.8927102468866808</v>
+        <v>0.8928223508372892</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040468902024474</v>
+        <v>1.040483264780499</v>
       </c>
       <c r="J8">
-        <v>0.9439161845907607</v>
+        <v>0.9440175114424822</v>
       </c>
       <c r="K8">
-        <v>1.03516474164905</v>
+        <v>1.035176698105414</v>
       </c>
       <c r="L8">
-        <v>0.9483261675113074</v>
+        <v>0.9484172623488081</v>
       </c>
       <c r="M8">
-        <v>0.9055704884719439</v>
+        <v>0.9056805627426956</v>
+      </c>
+      <c r="N8">
+        <v>0.963164220251408</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8821721511503227</v>
+        <v>0.8823363706929297</v>
       </c>
       <c r="D9">
-        <v>1.015865117372744</v>
+        <v>1.015884032724673</v>
       </c>
       <c r="E9">
-        <v>0.904643465978179</v>
+        <v>0.9047868701686826</v>
       </c>
       <c r="F9">
-        <v>0.8448609711368242</v>
+        <v>0.8450409555442782</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034687963677972</v>
+        <v>1.034710098109435</v>
       </c>
       <c r="J9">
-        <v>0.9127017959036565</v>
+        <v>0.9128577302271199</v>
       </c>
       <c r="K9">
-        <v>1.028705933383088</v>
+        <v>1.028724553985582</v>
       </c>
       <c r="L9">
-        <v>0.9194995533255347</v>
+        <v>0.9196399368428593</v>
       </c>
       <c r="M9">
-        <v>0.8610971807292986</v>
+        <v>0.8612726138885128</v>
+      </c>
+      <c r="N9">
+        <v>0.9414586916241341</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8512673417417628</v>
+        <v>0.8514937758463975</v>
       </c>
       <c r="D10">
-        <v>1.009384690574923</v>
+        <v>1.009410738302186</v>
       </c>
       <c r="E10">
-        <v>0.878792058269849</v>
+        <v>0.8789882570673498</v>
       </c>
       <c r="F10">
-        <v>0.8047963475531962</v>
+        <v>0.8050520242754386</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029961583577196</v>
+        <v>1.029991738999733</v>
       </c>
       <c r="J10">
-        <v>0.8869384331612334</v>
+        <v>0.8871505592409951</v>
       </c>
       <c r="K10">
-        <v>1.023586543970159</v>
+        <v>1.023612132682475</v>
       </c>
       <c r="L10">
-        <v>0.8957588364007434</v>
+        <v>0.8959500471038804</v>
       </c>
       <c r="M10">
-        <v>0.8238860506689575</v>
+        <v>0.8241334580067017</v>
+      </c>
+      <c r="N10">
+        <v>0.9235489705217055</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8355741930413219</v>
+        <v>0.8358394570973565</v>
       </c>
       <c r="D11">
-        <v>1.006271239669787</v>
+        <v>1.006301708186066</v>
       </c>
       <c r="E11">
-        <v>0.865721605075796</v>
+        <v>0.8659504126685594</v>
       </c>
       <c r="F11">
-        <v>0.7841398958402995</v>
+        <v>0.784444958280617</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027597112916679</v>
+        <v>1.027632194778726</v>
       </c>
       <c r="J11">
-        <v>0.8738460677753819</v>
+        <v>0.8740927240663393</v>
       </c>
       <c r="K11">
-        <v>1.021075850791446</v>
+        <v>1.0211057540404</v>
       </c>
       <c r="L11">
-        <v>0.8837139523976477</v>
+        <v>0.8839364205817773</v>
       </c>
       <c r="M11">
-        <v>0.8047259249837908</v>
+        <v>0.8050198731483474</v>
+      </c>
+      <c r="N11">
+        <v>0.9144569581254717</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8292518458094447</v>
+        <v>0.8295346258657542</v>
       </c>
       <c r="D12">
-        <v>1.005052157890547</v>
+        <v>1.005084612228266</v>
       </c>
       <c r="E12">
-        <v>0.8604673271653694</v>
+        <v>0.8607107702757391</v>
       </c>
       <c r="F12">
-        <v>0.77574549791092</v>
+        <v>0.7760733606286812</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026653530806221</v>
+        <v>1.026690817180029</v>
       </c>
       <c r="J12">
-        <v>0.8685701557947526</v>
+        <v>0.8688322787394666</v>
       </c>
       <c r="K12">
-        <v>1.020083202410448</v>
+        <v>1.020115043143015</v>
       </c>
       <c r="L12">
-        <v>0.8788641922288677</v>
+        <v>0.8791006634431868</v>
       </c>
       <c r="M12">
-        <v>0.7969464754815079</v>
+        <v>0.7972618156473633</v>
+      </c>
+      <c r="N12">
+        <v>0.9107958268596505</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8306338439911117</v>
+        <v>0.8309126905308276</v>
       </c>
       <c r="D13">
-        <v>1.005316880165378</v>
+        <v>1.005348889005922</v>
       </c>
       <c r="E13">
-        <v>0.8616152818689606</v>
+        <v>0.8618554420552272</v>
       </c>
       <c r="F13">
-        <v>0.7775842695364864</v>
+        <v>0.7779069843130437</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026859308269562</v>
+        <v>1.026896100486134</v>
       </c>
       <c r="J13">
-        <v>0.8697234744026701</v>
+        <v>0.86998212942745</v>
       </c>
       <c r="K13">
-        <v>1.020299227002501</v>
+        <v>1.020330633106393</v>
       </c>
       <c r="L13">
-        <v>0.8799241482932469</v>
+        <v>0.880157479699721</v>
       </c>
       <c r="M13">
-        <v>0.7986501645148938</v>
+        <v>0.7989606795722455</v>
+      </c>
+      <c r="N13">
+        <v>0.911595998762597</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.83506286468447</v>
+        <v>0.8353295011368235</v>
       </c>
       <c r="D14">
-        <v>1.006171883055894</v>
+        <v>1.006202507351548</v>
       </c>
       <c r="E14">
-        <v>0.8652964092992752</v>
+        <v>0.8655263651737832</v>
       </c>
       <c r="F14">
-        <v>0.7834626324370809</v>
+        <v>0.7837694697383952</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027520594167434</v>
+        <v>1.027555849135615</v>
       </c>
       <c r="J14">
-        <v>0.8734193978695404</v>
+        <v>0.8736672682716158</v>
       </c>
       <c r="K14">
-        <v>1.020995155223351</v>
+        <v>1.021025210470655</v>
       </c>
       <c r="L14">
-        <v>0.8833216572647872</v>
+        <v>0.8835452246370804</v>
       </c>
       <c r="M14">
-        <v>0.8040981150571289</v>
+        <v>0.8043937304898326</v>
+      </c>
+      <c r="N14">
+        <v>0.9141608124543741</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8377202963295863</v>
+        <v>0.8379798805225214</v>
       </c>
       <c r="D15">
-        <v>1.006689703441216</v>
+        <v>1.006719526900442</v>
       </c>
       <c r="E15">
-        <v>0.8675066735740703</v>
+        <v>0.8677307258953609</v>
       </c>
       <c r="F15">
-        <v>0.7869793926294183</v>
+        <v>0.7872771306413745</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027918651981159</v>
+        <v>1.027953016710642</v>
       </c>
       <c r="J15">
-        <v>0.8756367970521246</v>
+        <v>0.8758784242569141</v>
       </c>
       <c r="K15">
-        <v>1.021415322154325</v>
+        <v>1.021444595980512</v>
       </c>
       <c r="L15">
-        <v>0.8853605787710056</v>
+        <v>0.8855784939773799</v>
       </c>
       <c r="M15">
-        <v>0.807358376364652</v>
+        <v>0.8076454403611361</v>
+      </c>
+      <c r="N15">
+        <v>0.91569999654769</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8522497296512885</v>
+        <v>0.8524739235184098</v>
       </c>
       <c r="D16">
-        <v>1.009583665519729</v>
+        <v>1.009609457426774</v>
       </c>
       <c r="E16">
-        <v>0.8796115796386904</v>
+        <v>0.8798058896552503</v>
       </c>
       <c r="F16">
-        <v>0.8060816339710861</v>
+        <v>0.8063345111021931</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030110551389259</v>
+        <v>1.030140420819126</v>
       </c>
       <c r="J16">
-        <v>0.8877578320944669</v>
+        <v>0.8879679546293244</v>
       </c>
       <c r="K16">
-        <v>1.023745837432317</v>
+        <v>1.023771176396559</v>
       </c>
       <c r="L16">
-        <v>0.896513135571365</v>
+        <v>0.8967025329813303</v>
       </c>
       <c r="M16">
-        <v>0.8250789243637293</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8253236842528786</v>
+      </c>
+      <c r="N16">
+        <v>0.9241182734185686</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8606675809289011</v>
+        <v>0.8608733699714971</v>
       </c>
       <c r="D17">
-        <v>1.011307906348615</v>
+        <v>1.011331593506808</v>
       </c>
       <c r="E17">
-        <v>0.8866400282923745</v>
+        <v>0.8868187877624644</v>
       </c>
       <c r="F17">
-        <v>0.8170607428190555</v>
+        <v>0.8172908278376189</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031391020154041</v>
+        <v>1.031418532246968</v>
       </c>
       <c r="J17">
-        <v>0.894778046315884</v>
+        <v>0.8949716564522643</v>
       </c>
       <c r="K17">
-        <v>1.025120530014323</v>
+        <v>1.025143813770882</v>
       </c>
       <c r="L17">
-        <v>0.9029777361215575</v>
+        <v>0.9031521913360154</v>
       </c>
       <c r="M17">
-        <v>0.8352714132896558</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8354945801670518</v>
+      </c>
+      <c r="N17">
+        <v>0.9289968341346527</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8653673730797453</v>
+        <v>0.8655634558359281</v>
       </c>
       <c r="D18">
-        <v>1.012285401966683</v>
+        <v>1.01230797703025</v>
       </c>
       <c r="E18">
-        <v>0.8905688207904691</v>
+        <v>0.8907393546313053</v>
       </c>
       <c r="F18">
-        <v>0.8231652671347373</v>
+        <v>0.8233834823938121</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032108755669588</v>
+        <v>1.03213501884946</v>
       </c>
       <c r="J18">
-        <v>0.89869664214734</v>
+        <v>0.8988815045712226</v>
       </c>
       <c r="K18">
-        <v>1.025895390212855</v>
+        <v>1.025917587706543</v>
       </c>
       <c r="L18">
-        <v>0.9065878228171121</v>
+        <v>0.9067543640873048</v>
       </c>
       <c r="M18">
-        <v>0.8409405021057298</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8411523946530526</v>
+      </c>
+      <c r="N18">
+        <v>0.9317206950831871</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8669373183519293</v>
+        <v>0.8671302425092622</v>
       </c>
       <c r="D19">
-        <v>1.012614266725756</v>
+        <v>1.01263647959759</v>
       </c>
       <c r="E19">
-        <v>0.8918819575027906</v>
+        <v>0.8920498107857199</v>
       </c>
       <c r="F19">
-        <v>0.8252006493043642</v>
+        <v>0.8254150244155176</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032348916000718</v>
+        <v>1.032374771891295</v>
       </c>
       <c r="J19">
-        <v>0.9000054772035072</v>
+        <v>0.9001874867746164</v>
       </c>
       <c r="K19">
-        <v>1.026155361628717</v>
+        <v>1.026177205284815</v>
       </c>
       <c r="L19">
-        <v>0.9077938688696562</v>
+        <v>0.907957829542179</v>
       </c>
       <c r="M19">
-        <v>0.8428309717566825</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8430392123523324</v>
+      </c>
+      <c r="N19">
+        <v>0.9326305770069862</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8597869409101153</v>
+        <v>0.8599945921783838</v>
       </c>
       <c r="D20">
-        <v>1.011125918929204</v>
+        <v>1.011149819289802</v>
       </c>
       <c r="E20">
-        <v>0.8859042299829684</v>
+        <v>0.8860845656238284</v>
       </c>
       <c r="F20">
-        <v>0.8159149317886634</v>
+        <v>0.8161473060093923</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031256745599192</v>
+        <v>1.031284496849052</v>
       </c>
       <c r="J20">
-        <v>0.8940437120703155</v>
+        <v>0.8942389973202355</v>
       </c>
       <c r="K20">
-        <v>1.024975913541424</v>
+        <v>1.024999405518911</v>
       </c>
       <c r="L20">
-        <v>0.9023013441011012</v>
+        <v>0.9024773149361062</v>
       </c>
       <c r="M20">
-        <v>0.8342074777092913</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8344328166152966</v>
+      </c>
+      <c r="N20">
+        <v>0.928486441980912</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8337739365041323</v>
+        <v>0.834044065920338</v>
       </c>
       <c r="D21">
-        <v>1.005922023254936</v>
+        <v>1.005953043888829</v>
       </c>
       <c r="E21">
-        <v>0.8642247928208593</v>
+        <v>0.8644576700235</v>
       </c>
       <c r="F21">
-        <v>0.78175416239675</v>
+        <v>0.7820655259117965</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027327867484397</v>
+        <v>1.027363562738469</v>
       </c>
       <c r="J21">
-        <v>0.872343850886431</v>
+        <v>0.8725948095988267</v>
       </c>
       <c r="K21">
-        <v>1.020792063000763</v>
+        <v>1.020822504957579</v>
       </c>
       <c r="L21">
-        <v>0.8823328307022241</v>
+        <v>0.8825591940854367</v>
       </c>
       <c r="M21">
-        <v>0.8025145191242193</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8028143848084192</v>
+      </c>
+      <c r="N21">
+        <v>0.9134143395483793</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.814391472841672</v>
+        <v>0.8147208541427828</v>
       </c>
       <c r="D22">
-        <v>1.002268697275932</v>
+        <v>1.002306410061939</v>
       </c>
       <c r="E22">
-        <v>0.8481443630281911</v>
+        <v>0.8484265497605996</v>
       </c>
       <c r="F22">
-        <v>0.7558256950254501</v>
+        <v>0.7562157356240905</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024459084517428</v>
+        <v>1.024502188636753</v>
       </c>
       <c r="J22">
-        <v>0.8561667030353182</v>
+        <v>0.8564697008756293</v>
       </c>
       <c r="K22">
-        <v>1.017795344407136</v>
+        <v>1.017832314566522</v>
       </c>
       <c r="L22">
-        <v>0.8674723750540958</v>
+        <v>0.867745853957967</v>
       </c>
       <c r="M22">
-        <v>0.7785052655534042</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7788786793576676</v>
+      </c>
+      <c r="N22">
+        <v>0.902196592618531</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8250361171658608</v>
+        <v>0.8253312851962076</v>
       </c>
       <c r="D23">
-        <v>1.004250750496086</v>
+        <v>1.004284606156335</v>
       </c>
       <c r="E23">
-        <v>0.8569675479070888</v>
+        <v>0.857221316530478</v>
       </c>
       <c r="F23">
-        <v>0.770122553164842</v>
+        <v>0.7704667321983159</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026027536622442</v>
+        <v>1.026066375973664</v>
       </c>
       <c r="J23">
-        <v>0.8650518036102876</v>
+        <v>0.8653248289634629</v>
       </c>
       <c r="K23">
-        <v>1.019427595822915</v>
+        <v>1.019460803613471</v>
       </c>
       <c r="L23">
-        <v>0.8756313788840866</v>
+        <v>0.8758777211076814</v>
       </c>
       <c r="M23">
-        <v>0.7917380074180911</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7920686227017579</v>
+      </c>
+      <c r="N23">
+        <v>0.9083553676433496</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8601855043184095</v>
+        <v>0.8603923110246963</v>
       </c>
       <c r="D24">
-        <v>1.011208237362174</v>
+        <v>1.011232041037161</v>
       </c>
       <c r="E24">
-        <v>0.886237225707055</v>
+        <v>0.8864168465964524</v>
       </c>
       <c r="F24">
-        <v>0.816433585249686</v>
+        <v>0.816664920790889</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031317507399727</v>
+        <v>1.03134515020451</v>
       </c>
       <c r="J24">
-        <v>0.8943760626317149</v>
+        <v>0.8945705883047516</v>
       </c>
       <c r="K24">
-        <v>1.025041341823848</v>
+        <v>1.025064739375895</v>
       </c>
       <c r="L24">
-        <v>0.902607465675331</v>
+        <v>0.9027827492489812</v>
       </c>
       <c r="M24">
-        <v>0.8346890641785049</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8349134176625365</v>
+      </c>
+      <c r="N24">
+        <v>0.928717436977702</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8927006045171384</v>
+        <v>0.8928467849502452</v>
       </c>
       <c r="D25">
-        <v>1.018173012415105</v>
+        <v>1.018189850893729</v>
       </c>
       <c r="E25">
-        <v>0.9134818662156786</v>
+        <v>0.9136098203490576</v>
       </c>
       <c r="F25">
-        <v>0.8583611204298408</v>
+        <v>0.8585199603807768</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036310556323955</v>
+        <v>1.036330333101018</v>
       </c>
       <c r="J25">
-        <v>0.9214699528124842</v>
+        <v>0.9216093516824916</v>
       </c>
       <c r="K25">
-        <v>1.030495617083236</v>
+        <v>1.030512205898662</v>
       </c>
       <c r="L25">
-        <v>0.9275902410409911</v>
+        <v>0.9277156847001835</v>
       </c>
       <c r="M25">
-        <v>0.8736441663096763</v>
+        <v>0.8737993312807643</v>
+      </c>
+      <c r="N25">
+        <v>0.9475565021526701</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_38/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9148091022950868</v>
+        <v>0.9790732240288718</v>
       </c>
       <c r="D2">
-        <v>1.023160408696588</v>
+        <v>1.039274612518464</v>
       </c>
       <c r="E2">
-        <v>0.9320935535910597</v>
+        <v>0.9947195789875395</v>
       </c>
       <c r="F2">
-        <v>0.8864987282919903</v>
+        <v>1.002979665242514</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039716751955491</v>
+        <v>1.051861451742364</v>
       </c>
       <c r="J2">
-        <v>0.9398749801102212</v>
+        <v>1.001898389838439</v>
       </c>
       <c r="K2">
-        <v>1.034306243020335</v>
+        <v>1.050212618343956</v>
       </c>
       <c r="L2">
-        <v>0.9445876534627585</v>
+        <v>1.006252971978393</v>
       </c>
       <c r="M2">
-        <v>0.8998039041105436</v>
+        <v>1.014397644097968</v>
       </c>
       <c r="N2">
-        <v>0.9602798635674485</v>
+        <v>1.003321200471361</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9291733609893222</v>
+        <v>0.9944773680450649</v>
       </c>
       <c r="D3">
-        <v>1.026515564672314</v>
+        <v>1.044244902343878</v>
       </c>
       <c r="E3">
-        <v>0.9442153120040095</v>
+        <v>1.00819831727399</v>
       </c>
       <c r="F3">
-        <v>0.9046882552980124</v>
+        <v>1.016697922146532</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041919191681862</v>
+        <v>1.055370077186796</v>
       </c>
       <c r="J3">
-        <v>0.9518005141642514</v>
+        <v>1.015119726223377</v>
       </c>
       <c r="K3">
-        <v>1.036820052758678</v>
+        <v>1.054341310129516</v>
       </c>
       <c r="L3">
-        <v>0.9556154945924717</v>
+        <v>1.018727362882569</v>
       </c>
       <c r="M3">
-        <v>0.9167057581857869</v>
+        <v>1.02712151654159</v>
       </c>
       <c r="N3">
-        <v>0.9685815278217605</v>
+        <v>1.016561312670474</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9378822689930285</v>
+        <v>1.003878417772891</v>
       </c>
       <c r="D4">
-        <v>1.028586820750803</v>
+        <v>1.047306630057578</v>
       </c>
       <c r="E4">
-        <v>0.9515764135489365</v>
+        <v>1.01643163081581</v>
       </c>
       <c r="F4">
-        <v>0.9156834722001598</v>
+        <v>1.025081401199317</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043244021445861</v>
+        <v>1.057500064850259</v>
       </c>
       <c r="J4">
-        <v>0.9590204555656217</v>
+        <v>1.023183430868992</v>
       </c>
       <c r="K4">
-        <v>1.038352048897837</v>
+        <v>1.056865759169154</v>
       </c>
       <c r="L4">
-        <v>0.9622966749225952</v>
+        <v>1.026335704422993</v>
       </c>
       <c r="M4">
-        <v>0.926918638296667</v>
+        <v>1.034886254192737</v>
       </c>
       <c r="N4">
-        <v>0.9736042792354394</v>
+        <v>1.024636468701606</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9414200082698158</v>
+        <v>1.007709930774499</v>
       </c>
       <c r="D5">
-        <v>1.029435754935482</v>
+        <v>1.048560228132121</v>
       </c>
       <c r="E5">
-        <v>0.9545690934155217</v>
+        <v>1.019788634652955</v>
       </c>
       <c r="F5">
-        <v>0.9201440170140045</v>
+        <v>1.028500455876275</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043779083578934</v>
+        <v>1.058365020892461</v>
       </c>
       <c r="J5">
-        <v>0.9619507527312469</v>
+        <v>1.026468434007736</v>
       </c>
       <c r="K5">
-        <v>1.038975407200719</v>
+        <v>1.057895066299385</v>
       </c>
       <c r="L5">
-        <v>0.965009339229056</v>
+        <v>1.029435189884533</v>
       </c>
       <c r="M5">
-        <v>0.9310606309554129</v>
+        <v>1.038050364653071</v>
       </c>
       <c r="N5">
-        <v>0.9756419567969526</v>
+        <v>1.027926136921603</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9420071921214694</v>
+        <v>1.008346564869583</v>
       </c>
       <c r="D6">
-        <v>1.029577067617</v>
+        <v>1.048768833310018</v>
       </c>
       <c r="E6">
-        <v>0.9550659441085301</v>
+        <v>1.020346500080315</v>
       </c>
       <c r="F6">
-        <v>0.9208840644210625</v>
+        <v>1.029068678659225</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043867692569024</v>
+        <v>1.058508542861864</v>
       </c>
       <c r="J6">
-        <v>0.9624369596252061</v>
+        <v>1.027014170066219</v>
       </c>
       <c r="K6">
-        <v>1.039078908156259</v>
+        <v>1.05806610038532</v>
       </c>
       <c r="L6">
-        <v>0.9654594936543749</v>
+        <v>1.029950103803075</v>
       </c>
       <c r="M6">
-        <v>0.9317477528538012</v>
+        <v>1.038576065652761</v>
       </c>
       <c r="N6">
-        <v>0.9759800033834155</v>
+        <v>1.028472647987885</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9379300060891288</v>
+        <v>1.00393007116824</v>
       </c>
       <c r="D7">
-        <v>1.028598247567968</v>
+        <v>1.047323508472255</v>
       </c>
       <c r="E7">
-        <v>0.9516167865013716</v>
+        <v>1.016476882034304</v>
       </c>
       <c r="F7">
-        <v>0.9157436827198954</v>
+        <v>1.025127485690767</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043251254526568</v>
+        <v>1.057511738550885</v>
       </c>
       <c r="J7">
-        <v>0.9590600064924466</v>
+        <v>1.023227722714674</v>
       </c>
       <c r="K7">
-        <v>1.038360457249309</v>
+        <v>1.056879634585809</v>
       </c>
       <c r="L7">
-        <v>0.9623332844234662</v>
+        <v>1.026377495040447</v>
       </c>
       <c r="M7">
-        <v>0.9269745537850419</v>
+        <v>1.034928912649193</v>
       </c>
       <c r="N7">
-        <v>0.9736317858121182</v>
+        <v>1.024680823446788</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9197961393371895</v>
+        <v>0.9844063489490388</v>
       </c>
       <c r="D8">
-        <v>1.024316333439235</v>
+        <v>1.040988568256461</v>
       </c>
       <c r="E8">
-        <v>0.9362992137837743</v>
+        <v>0.9993842893445493</v>
       </c>
       <c r="F8">
-        <v>0.8928223508372892</v>
+        <v>1.007726368142113</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040483264780499</v>
+        <v>1.053078323912358</v>
       </c>
       <c r="J8">
-        <v>0.9440175114424822</v>
+        <v>1.006476766912758</v>
       </c>
       <c r="K8">
-        <v>1.035176698105414</v>
+        <v>1.051640535454208</v>
       </c>
       <c r="L8">
-        <v>0.9484172623488081</v>
+        <v>1.010572607286305</v>
       </c>
       <c r="M8">
-        <v>0.9056805627426956</v>
+        <v>1.01880268817301</v>
       </c>
       <c r="N8">
-        <v>0.963164220251408</v>
+        <v>1.007906079366273</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8823363706929297</v>
+        <v>0.944792865576818</v>
       </c>
       <c r="D9">
-        <v>1.015884032724673</v>
+        <v>1.028446712531573</v>
       </c>
       <c r="E9">
-        <v>0.9047868701686826</v>
+        <v>0.9647893935486658</v>
       </c>
       <c r="F9">
-        <v>0.8450409555442782</v>
+        <v>0.9725469216919618</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034710098109435</v>
+        <v>1.044011467696491</v>
       </c>
       <c r="J9">
-        <v>0.9128577302271199</v>
+        <v>0.9724579519438862</v>
       </c>
       <c r="K9">
-        <v>1.028724553985582</v>
+        <v>1.041094525842166</v>
       </c>
       <c r="L9">
-        <v>0.9196399368428593</v>
+        <v>0.978480795866559</v>
       </c>
       <c r="M9">
-        <v>0.8612726138885128</v>
+        <v>0.9861016842091206</v>
       </c>
       <c r="N9">
-        <v>0.9414586916241341</v>
+        <v>0.9738389537781329</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8514937758463975</v>
+        <v>0.9131561608081591</v>
       </c>
       <c r="D10">
-        <v>1.009410738302186</v>
+        <v>1.018775807715237</v>
       </c>
       <c r="E10">
-        <v>0.8789882570673498</v>
+        <v>0.9372671660941552</v>
       </c>
       <c r="F10">
-        <v>0.8050520242754386</v>
+        <v>0.944600655537076</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029991738999733</v>
+        <v>1.036771198247875</v>
       </c>
       <c r="J10">
-        <v>0.8871505592409951</v>
+        <v>0.9452958520484478</v>
       </c>
       <c r="K10">
-        <v>1.023612132682475</v>
+        <v>1.032814137045093</v>
       </c>
       <c r="L10">
-        <v>0.8959500471038804</v>
+        <v>0.9528696433687774</v>
       </c>
       <c r="M10">
-        <v>0.8241334580067017</v>
+        <v>0.960047784296559</v>
       </c>
       <c r="N10">
-        <v>0.9235489705217055</v>
+        <v>0.9466382805853062</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8358394570973565</v>
+        <v>0.8975786919690201</v>
       </c>
       <c r="D11">
-        <v>1.006301708186066</v>
+        <v>1.014138662557152</v>
       </c>
       <c r="E11">
-        <v>0.8659504126685594</v>
+        <v>0.9237579098613542</v>
       </c>
       <c r="F11">
-        <v>0.784444958280617</v>
+        <v>0.9308975972891553</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027632194778726</v>
+        <v>1.033223796498619</v>
       </c>
       <c r="J11">
-        <v>0.8740927240663393</v>
+        <v>0.931933770506241</v>
       </c>
       <c r="K11">
-        <v>1.0211057540404</v>
+        <v>1.028798780808549</v>
       </c>
       <c r="L11">
-        <v>0.8839364205817773</v>
+        <v>0.940276646606518</v>
       </c>
       <c r="M11">
-        <v>0.8050198731483474</v>
+        <v>0.9472519731807543</v>
       </c>
       <c r="N11">
-        <v>0.9144569581254717</v>
+        <v>0.9332572233546571</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8295346258657542</v>
+        <v>0.8914217736643781</v>
       </c>
       <c r="D12">
-        <v>1.005084612228266</v>
+        <v>1.012329705144008</v>
       </c>
       <c r="E12">
-        <v>0.8607107702757391</v>
+        <v>0.9184270214380159</v>
       </c>
       <c r="F12">
-        <v>0.7760733606286812</v>
+        <v>0.925492963434611</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026690817180029</v>
+        <v>1.031826530380517</v>
       </c>
       <c r="J12">
-        <v>0.8688322787394666</v>
+        <v>0.9266557257222975</v>
       </c>
       <c r="K12">
-        <v>1.020115043143015</v>
+        <v>1.027224439309747</v>
       </c>
       <c r="L12">
-        <v>0.8791006634431868</v>
+        <v>0.9353037397635323</v>
       </c>
       <c r="M12">
-        <v>0.7972618156473633</v>
+        <v>0.942201780146337</v>
       </c>
       <c r="N12">
-        <v>0.9107958268596505</v>
+        <v>0.9279716831417205</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8309126905308276</v>
+        <v>0.8927611508473358</v>
       </c>
       <c r="D13">
-        <v>1.005348889005922</v>
+        <v>1.012722055916885</v>
       </c>
       <c r="E13">
-        <v>0.8618554420552272</v>
+        <v>0.9195862734430308</v>
       </c>
       <c r="F13">
-        <v>0.7779069843130437</v>
+        <v>0.9266681179478503</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026896100486134</v>
+        <v>1.032130231793793</v>
       </c>
       <c r="J13">
-        <v>0.86998212942745</v>
+        <v>0.9278037370634253</v>
       </c>
       <c r="K13">
-        <v>1.020330633106393</v>
+        <v>1.027566284224518</v>
       </c>
       <c r="L13">
-        <v>0.880157479699721</v>
+        <v>0.936385312045579</v>
       </c>
       <c r="M13">
-        <v>0.7989606795722455</v>
+        <v>0.9433000244658063</v>
       </c>
       <c r="N13">
-        <v>0.911595998762597</v>
+        <v>0.9291213247906315</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8353295011368235</v>
+        <v>0.8970779951497428</v>
       </c>
       <c r="D14">
-        <v>1.006202507351548</v>
+        <v>1.013991041605764</v>
       </c>
       <c r="E14">
-        <v>0.8655263651737832</v>
+        <v>0.9233242006082173</v>
       </c>
       <c r="F14">
-        <v>0.7837694697383952</v>
+        <v>0.930457829612452</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027555849135615</v>
+        <v>1.033110055443132</v>
       </c>
       <c r="J14">
-        <v>0.8736672682716158</v>
+        <v>0.931504470683876</v>
       </c>
       <c r="K14">
-        <v>1.021025210470655</v>
+        <v>1.028670473599995</v>
       </c>
       <c r="L14">
-        <v>0.8835452246370804</v>
+        <v>0.9398721356923756</v>
       </c>
       <c r="M14">
-        <v>0.8043937304898326</v>
+        <v>0.9468411155507863</v>
       </c>
       <c r="N14">
-        <v>0.9141608124543741</v>
+        <v>0.9328273138773032</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8379798805225214</v>
+        <v>0.8996852217565314</v>
       </c>
       <c r="D15">
-        <v>1.006719526900442</v>
+        <v>1.01476071850819</v>
       </c>
       <c r="E15">
-        <v>0.8677307258953609</v>
+        <v>0.9255829673264278</v>
       </c>
       <c r="F15">
-        <v>0.7872771306413745</v>
+        <v>0.9327482616525319</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027953016710642</v>
+        <v>1.033702534753138</v>
       </c>
       <c r="J15">
-        <v>0.8758784242569141</v>
+        <v>0.9337400587475249</v>
       </c>
       <c r="K15">
-        <v>1.021444595980512</v>
+        <v>1.029339124338807</v>
       </c>
       <c r="L15">
-        <v>0.8855784939773799</v>
+        <v>0.9419786917626636</v>
       </c>
       <c r="M15">
-        <v>0.8076454403611361</v>
+        <v>0.9489808389176621</v>
       </c>
       <c r="N15">
-        <v>0.91569999654769</v>
+        <v>0.935066076732428</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8524739235184098</v>
+        <v>0.9141437697472877</v>
       </c>
       <c r="D16">
-        <v>1.009609457426774</v>
+        <v>1.019072659632064</v>
       </c>
       <c r="E16">
-        <v>0.8798058896552503</v>
+        <v>0.9381246527433913</v>
       </c>
       <c r="F16">
-        <v>0.8063345111021931</v>
+        <v>0.9454707712757975</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030140420819126</v>
+        <v>1.036996613007165</v>
       </c>
       <c r="J16">
-        <v>0.8879679546293244</v>
+        <v>0.9461433501814387</v>
       </c>
       <c r="K16">
-        <v>1.023771176396559</v>
+        <v>1.033070191102117</v>
       </c>
       <c r="L16">
-        <v>0.8967025329813303</v>
+        <v>0.953668514347046</v>
       </c>
       <c r="M16">
-        <v>0.8253236842528786</v>
+        <v>0.9608598591694183</v>
       </c>
       <c r="N16">
-        <v>0.9241182734185686</v>
+        <v>0.9474869822628554</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8608733699714971</v>
+        <v>0.9226596645710352</v>
       </c>
       <c r="D17">
-        <v>1.011331593506808</v>
+        <v>1.021646141587878</v>
       </c>
       <c r="E17">
-        <v>0.8868187877624644</v>
+        <v>0.9455232436882329</v>
       </c>
       <c r="F17">
-        <v>0.8172908278376189</v>
+        <v>0.952979915820837</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031418532246968</v>
+        <v>1.038942368482451</v>
       </c>
       <c r="J17">
-        <v>0.8949716564522643</v>
+        <v>0.9534525143480771</v>
       </c>
       <c r="K17">
-        <v>1.025143813770882</v>
+        <v>1.035284989740734</v>
       </c>
       <c r="L17">
-        <v>0.9031521913360154</v>
+        <v>0.960558986051543</v>
       </c>
       <c r="M17">
-        <v>0.8354945801670518</v>
+        <v>0.9678658620553023</v>
       </c>
       <c r="N17">
-        <v>0.9289968341346527</v>
+        <v>0.9548065262809834</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8655634558359281</v>
+        <v>0.9274531164051129</v>
       </c>
       <c r="D18">
-        <v>1.01230797703025</v>
+        <v>1.023105438109405</v>
       </c>
       <c r="E18">
-        <v>0.8907393546313053</v>
+        <v>0.9496913840396851</v>
       </c>
       <c r="F18">
-        <v>0.8233834823938121</v>
+        <v>0.9572115749046156</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03213501884946</v>
+        <v>1.040039009045534</v>
       </c>
       <c r="J18">
-        <v>0.8988815045712226</v>
+        <v>0.9575676932309446</v>
       </c>
       <c r="K18">
-        <v>1.025917587706543</v>
+        <v>1.036536913987634</v>
       </c>
       <c r="L18">
-        <v>0.9067543640873048</v>
+        <v>0.9644389464995179</v>
       </c>
       <c r="M18">
-        <v>0.8411523946530526</v>
+        <v>0.9718121615535191</v>
       </c>
       <c r="N18">
-        <v>0.9317206950831871</v>
+        <v>0.9589275491898823</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8671302425092622</v>
+        <v>0.9290601598698852</v>
       </c>
       <c r="D19">
-        <v>1.01263647959759</v>
+        <v>1.023596381936469</v>
       </c>
       <c r="E19">
-        <v>0.8920498107857199</v>
+        <v>0.9510893487186074</v>
       </c>
       <c r="F19">
-        <v>0.8254150244155176</v>
+        <v>0.9586310401526753</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032374771891295</v>
+        <v>1.040406855936067</v>
       </c>
       <c r="J19">
-        <v>0.9001874867746164</v>
+        <v>0.9589474744524135</v>
       </c>
       <c r="K19">
-        <v>1.026177205284815</v>
+        <v>1.036957444568066</v>
       </c>
       <c r="L19">
-        <v>0.907957829542179</v>
+        <v>0.9657399387543455</v>
       </c>
       <c r="M19">
-        <v>0.8430392123523324</v>
+        <v>0.9731356031972433</v>
       </c>
       <c r="N19">
-        <v>0.9326305770069862</v>
+        <v>0.9603092898589484</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8599945921783838</v>
+        <v>0.9217644705470035</v>
       </c>
       <c r="D20">
-        <v>1.011149819289802</v>
+        <v>1.02137446242482</v>
       </c>
       <c r="E20">
-        <v>0.8860845656238284</v>
+        <v>0.9447451114482024</v>
       </c>
       <c r="F20">
-        <v>0.8161473060093923</v>
+        <v>0.952190023545324</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031284496849052</v>
+        <v>1.038737669965218</v>
       </c>
       <c r="J20">
-        <v>0.8942389973202355</v>
+        <v>0.9526840622452497</v>
       </c>
       <c r="K20">
-        <v>1.024999405518911</v>
+        <v>1.035051599225282</v>
       </c>
       <c r="L20">
-        <v>0.9024773149361062</v>
+        <v>0.9598344973204882</v>
       </c>
       <c r="M20">
-        <v>0.8344328166152966</v>
+        <v>0.9671290881394224</v>
       </c>
       <c r="N20">
-        <v>0.928486441980912</v>
+        <v>0.954036982888027</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.834044065920338</v>
+        <v>0.8958179622001265</v>
       </c>
       <c r="D21">
-        <v>1.005953043888829</v>
+        <v>1.01361994425809</v>
       </c>
       <c r="E21">
-        <v>0.8644576700235</v>
+        <v>0.9222328913188228</v>
       </c>
       <c r="F21">
-        <v>0.7820655259117965</v>
+        <v>0.9293513217406555</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027363562738469</v>
+        <v>1.032823904909447</v>
       </c>
       <c r="J21">
-        <v>0.8725948095988267</v>
+        <v>0.9304241700895877</v>
       </c>
       <c r="K21">
-        <v>1.020822504957579</v>
+        <v>1.028347796642824</v>
       </c>
       <c r="L21">
-        <v>0.8825591940854367</v>
+        <v>0.9388542377368121</v>
       </c>
       <c r="M21">
-        <v>0.8028143848084192</v>
+        <v>0.9458072938039686</v>
       </c>
       <c r="N21">
-        <v>0.9134143395483793</v>
+        <v>0.9317454791322589</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8147208541427828</v>
+        <v>0.8772754561664079</v>
       </c>
       <c r="D22">
-        <v>1.002306410061939</v>
+        <v>1.008226126428603</v>
       </c>
       <c r="E22">
-        <v>0.8484265497605996</v>
+        <v>0.906198360249612</v>
       </c>
       <c r="F22">
-        <v>0.7562157356240905</v>
+        <v>0.9131011853975158</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024502188636753</v>
+        <v>1.028628583459179</v>
       </c>
       <c r="J22">
-        <v>0.8564697008756293</v>
+        <v>0.9145371723860731</v>
       </c>
       <c r="K22">
-        <v>1.017832314566522</v>
+        <v>1.023636364770399</v>
       </c>
       <c r="L22">
-        <v>0.867745853957967</v>
+        <v>0.9238890343840311</v>
       </c>
       <c r="M22">
-        <v>0.7788786793576676</v>
+        <v>0.9306158442359562</v>
       </c>
       <c r="N22">
-        <v>0.902196592618531</v>
+        <v>0.9158359200697412</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8253312851962076</v>
+        <v>0.8873596492631607</v>
       </c>
       <c r="D23">
-        <v>1.004284606156335</v>
+        <v>1.011143777991223</v>
       </c>
       <c r="E23">
-        <v>0.857221316530478</v>
+        <v>0.9149126819537845</v>
       </c>
       <c r="F23">
-        <v>0.7704667321983159</v>
+        <v>0.9219308748042891</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026066375973664</v>
+        <v>1.030906380138541</v>
       </c>
       <c r="J23">
-        <v>0.8653248289634629</v>
+        <v>0.9231746128705525</v>
       </c>
       <c r="K23">
-        <v>1.019460803613471</v>
+        <v>1.026189885406629</v>
       </c>
       <c r="L23">
-        <v>0.8758777211076814</v>
+        <v>0.9320243336967552</v>
       </c>
       <c r="M23">
-        <v>0.7920686227017579</v>
+        <v>0.9388722930144168</v>
       </c>
       <c r="N23">
-        <v>0.9083553676433496</v>
+        <v>0.9244856267104369</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8603923110246963</v>
+        <v>0.9221695009753881</v>
       </c>
       <c r="D24">
-        <v>1.011232041037161</v>
+        <v>1.021497350324656</v>
       </c>
       <c r="E24">
-        <v>0.8864168465964524</v>
+        <v>0.9450971661408409</v>
       </c>
       <c r="F24">
-        <v>0.816664920790889</v>
+        <v>0.9525473950583059</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03134515020451</v>
+        <v>1.038830281512015</v>
       </c>
       <c r="J24">
-        <v>0.8945705883047516</v>
+        <v>0.9530317453403566</v>
       </c>
       <c r="K24">
-        <v>1.025064739375895</v>
+        <v>1.035157180490723</v>
       </c>
       <c r="L24">
-        <v>0.9027827492489812</v>
+        <v>0.9601622877842639</v>
       </c>
       <c r="M24">
-        <v>0.8349134176625365</v>
+        <v>0.9674624329687193</v>
       </c>
       <c r="N24">
-        <v>0.928717436977702</v>
+        <v>0.9543851597330087</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>0.8928467849502452</v>
+        <v>0.9557961037793657</v>
       </c>
       <c r="D25">
-        <v>1.018189850893729</v>
+        <v>1.031884896510709</v>
       </c>
       <c r="E25">
-        <v>0.9136098203490576</v>
+        <v>0.9743853392844801</v>
       </c>
       <c r="F25">
-        <v>0.8585199603807768</v>
+        <v>0.9822994587329368</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036330333101018</v>
+        <v>1.046533885245472</v>
       </c>
       <c r="J25">
-        <v>0.9216093516824916</v>
+        <v>0.9819085139834285</v>
       </c>
       <c r="K25">
-        <v>1.030512205898662</v>
+        <v>1.044007612641393</v>
       </c>
       <c r="L25">
-        <v>0.9277156847001835</v>
+        <v>0.9873947457114566</v>
       </c>
       <c r="M25">
-        <v>0.8737993312807643</v>
+        <v>0.9951789115925318</v>
       </c>
       <c r="N25">
-        <v>0.9475565021526701</v>
+        <v>0.9833029366997655</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_38/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9790732240288718</v>
+        <v>0.9185951936511199</v>
       </c>
       <c r="D2">
-        <v>1.039274612518464</v>
+        <v>1.028392641258909</v>
       </c>
       <c r="E2">
-        <v>0.9947195789875395</v>
+        <v>0.9340738187317392</v>
       </c>
       <c r="F2">
-        <v>1.002979665242514</v>
+        <v>1.010885615945426</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051861451742364</v>
+        <v>1.050994066627283</v>
       </c>
       <c r="J2">
-        <v>1.001898389838439</v>
+        <v>0.943516782205724</v>
       </c>
       <c r="K2">
-        <v>1.050212618343956</v>
+        <v>1.039470100472552</v>
       </c>
       <c r="L2">
-        <v>1.006252971978393</v>
+        <v>0.9465350021140094</v>
       </c>
       <c r="M2">
-        <v>1.014397644097968</v>
+        <v>1.022195351699916</v>
       </c>
       <c r="N2">
-        <v>1.003321200471361</v>
+        <v>0.9448566842593437</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9944773680450649</v>
+        <v>0.9362957223147063</v>
       </c>
       <c r="D3">
-        <v>1.044244902343878</v>
+        <v>1.034488440507392</v>
       </c>
       <c r="E3">
-        <v>1.00819831727399</v>
+        <v>0.9492682916450947</v>
       </c>
       <c r="F3">
-        <v>1.016697922146532</v>
+        <v>1.020081427168043</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055370077186796</v>
+        <v>1.053898253125872</v>
       </c>
       <c r="J3">
-        <v>1.015119726223377</v>
+        <v>0.9586877002218031</v>
       </c>
       <c r="K3">
-        <v>1.054341310129516</v>
+        <v>1.044698262556393</v>
       </c>
       <c r="L3">
-        <v>1.018727362882569</v>
+        <v>0.9605942617056685</v>
       </c>
       <c r="M3">
-        <v>1.02712151654159</v>
+        <v>1.030463651590671</v>
       </c>
       <c r="N3">
-        <v>1.016561312670474</v>
+        <v>0.9600491467191341</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003878417772891</v>
+        <v>0.9469730403371606</v>
       </c>
       <c r="D4">
-        <v>1.047306630057578</v>
+        <v>1.038214587913001</v>
       </c>
       <c r="E4">
-        <v>1.01643163081581</v>
+        <v>0.9584463096488381</v>
       </c>
       <c r="F4">
-        <v>1.025081401199317</v>
+        <v>1.025680654174356</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057500064850259</v>
+        <v>1.055648039954484</v>
       </c>
       <c r="J4">
-        <v>1.023183430868992</v>
+        <v>0.9678378351272341</v>
       </c>
       <c r="K4">
-        <v>1.056865759169154</v>
+        <v>1.047872676941337</v>
       </c>
       <c r="L4">
-        <v>1.026335704422993</v>
+        <v>0.9690735463109833</v>
       </c>
       <c r="M4">
-        <v>1.034886254192737</v>
+        <v>1.035478709623535</v>
       </c>
       <c r="N4">
-        <v>1.024636468701606</v>
+        <v>0.9692122758656664</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007709930774499</v>
+        <v>0.9513003156322285</v>
       </c>
       <c r="D5">
-        <v>1.048560228132121</v>
+        <v>1.039734420517311</v>
       </c>
       <c r="E5">
-        <v>1.019788634652955</v>
+        <v>0.9621683484359935</v>
       </c>
       <c r="F5">
-        <v>1.028500455876275</v>
+        <v>1.027960121246679</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058365020892461</v>
+        <v>1.056355798727827</v>
       </c>
       <c r="J5">
-        <v>1.026468434007736</v>
+        <v>0.971545459464642</v>
       </c>
       <c r="K5">
-        <v>1.057895066299385</v>
+        <v>1.049162632285533</v>
       </c>
       <c r="L5">
-        <v>1.029435189884533</v>
+        <v>0.9725091881719138</v>
       </c>
       <c r="M5">
-        <v>1.038050364653071</v>
+        <v>1.037515965795078</v>
       </c>
       <c r="N5">
-        <v>1.027926136921603</v>
+        <v>0.9729251654549036</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008346564869583</v>
+        <v>0.9520180228771601</v>
       </c>
       <c r="D6">
-        <v>1.048768833310018</v>
+        <v>1.039987013445803</v>
       </c>
       <c r="E6">
-        <v>1.020346500080315</v>
+        <v>0.9627857997354232</v>
       </c>
       <c r="F6">
-        <v>1.029068678659225</v>
+        <v>1.028338729589947</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058508542861864</v>
+        <v>1.056473080108626</v>
       </c>
       <c r="J6">
-        <v>1.027014170066219</v>
+        <v>0.9721603407503167</v>
       </c>
       <c r="K6">
-        <v>1.05806610038532</v>
+        <v>1.049376742835173</v>
       </c>
       <c r="L6">
-        <v>1.029950103803075</v>
+        <v>0.9730789525226113</v>
       </c>
       <c r="M6">
-        <v>1.038576065652761</v>
+        <v>1.037854092002889</v>
       </c>
       <c r="N6">
-        <v>1.028472647987885</v>
+        <v>0.9735409199425319</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00393007116824</v>
+        <v>0.9470314679405138</v>
       </c>
       <c r="D7">
-        <v>1.047323508472255</v>
+        <v>1.038235072714866</v>
       </c>
       <c r="E7">
-        <v>1.016476882034304</v>
+        <v>0.9584965563751241</v>
       </c>
       <c r="F7">
-        <v>1.025127485690767</v>
+        <v>1.025711393882162</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057511738550885</v>
+        <v>1.055657602853202</v>
       </c>
       <c r="J7">
-        <v>1.023227722714674</v>
+        <v>0.9678878994487735</v>
       </c>
       <c r="K7">
-        <v>1.056879634585809</v>
+        <v>1.047890082269902</v>
       </c>
       <c r="L7">
-        <v>1.026377495040447</v>
+        <v>0.9691199387251891</v>
       </c>
       <c r="M7">
-        <v>1.034928912649193</v>
+        <v>1.035506200180613</v>
       </c>
       <c r="N7">
-        <v>1.024680823446788</v>
+        <v>0.9692624112842846</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9844063489490388</v>
+        <v>0.9247544480906001</v>
       </c>
       <c r="D8">
-        <v>1.040988568256461</v>
+        <v>1.030501726841738</v>
       </c>
       <c r="E8">
-        <v>0.9993842893445493</v>
+        <v>0.9393579362332816</v>
       </c>
       <c r="F8">
-        <v>1.007726368142113</v>
+        <v>1.014072580345004</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053078323912358</v>
+        <v>1.052004466180558</v>
       </c>
       <c r="J8">
-        <v>1.006476766912758</v>
+        <v>0.9487957888605804</v>
       </c>
       <c r="K8">
-        <v>1.051640535454208</v>
+        <v>1.041283794906018</v>
       </c>
       <c r="L8">
-        <v>1.010572607286305</v>
+        <v>0.9514272173561298</v>
       </c>
       <c r="M8">
-        <v>1.01880268817301</v>
+        <v>1.025065244810882</v>
       </c>
       <c r="N8">
-        <v>1.007906079366273</v>
+        <v>0.9501431877091605</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.944792865576818</v>
+        <v>0.8780248917096473</v>
       </c>
       <c r="D9">
-        <v>1.028446712531573</v>
+        <v>1.014857600593492</v>
       </c>
       <c r="E9">
-        <v>0.9647893935486658</v>
+        <v>0.8993645118798542</v>
       </c>
       <c r="F9">
-        <v>0.9725469216919618</v>
+        <v>0.9902806223945287</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044011467696491</v>
+        <v>1.044382626295986</v>
       </c>
       <c r="J9">
-        <v>0.9724579519438862</v>
+        <v>0.9087652647557481</v>
       </c>
       <c r="K9">
-        <v>1.041094525842166</v>
+        <v>1.027714136588387</v>
       </c>
       <c r="L9">
-        <v>0.978480795866559</v>
+        <v>0.9143326841072685</v>
       </c>
       <c r="M9">
-        <v>0.9861016842091206</v>
+        <v>1.003533382904745</v>
       </c>
       <c r="N9">
-        <v>0.9738389537781329</v>
+        <v>0.910055815668534</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9131561608081591</v>
+        <v>0.8384112930788936</v>
       </c>
       <c r="D10">
-        <v>1.018775807715237</v>
+        <v>1.002316707553174</v>
       </c>
       <c r="E10">
-        <v>0.9372671660941552</v>
+        <v>0.8656713123007256</v>
       </c>
       <c r="F10">
-        <v>0.944600655537076</v>
+        <v>0.970906633432193</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036771198247875</v>
+        <v>1.038081021616538</v>
       </c>
       <c r="J10">
-        <v>0.9452958520484478</v>
+        <v>0.8749135498381413</v>
       </c>
       <c r="K10">
-        <v>1.032814137045093</v>
+        <v>1.016644258735725</v>
       </c>
       <c r="L10">
-        <v>0.9528696433687774</v>
+        <v>0.882978637920674</v>
       </c>
       <c r="M10">
-        <v>0.960047784296559</v>
+        <v>0.985821826032064</v>
       </c>
       <c r="N10">
-        <v>0.9466382805853062</v>
+        <v>0.8761560274328983</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8975786919690201</v>
+        <v>0.8176819698762067</v>
       </c>
       <c r="D11">
-        <v>1.014138662557152</v>
+        <v>0.9960506857911477</v>
       </c>
       <c r="E11">
-        <v>0.9237579098613542</v>
+        <v>0.8481356845494996</v>
       </c>
       <c r="F11">
-        <v>0.9308975972891553</v>
+        <v>0.961102328828587</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033223796498619</v>
+        <v>1.034874391382591</v>
       </c>
       <c r="J11">
-        <v>0.931933770506241</v>
+        <v>0.8572507415762611</v>
       </c>
       <c r="K11">
-        <v>1.028798780808549</v>
+        <v>1.011047466695232</v>
       </c>
       <c r="L11">
-        <v>0.940276646606518</v>
+        <v>0.8666293332586789</v>
       </c>
       <c r="M11">
-        <v>0.9472519731807543</v>
+        <v>0.9767970694799395</v>
       </c>
       <c r="N11">
-        <v>0.9332572233546571</v>
+        <v>0.8584681359573337</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8914217736643781</v>
+        <v>0.8091689225079526</v>
       </c>
       <c r="D12">
-        <v>1.012329705144008</v>
+        <v>0.993540031655857</v>
       </c>
       <c r="E12">
-        <v>0.9184270214380159</v>
+        <v>0.8409559047752098</v>
       </c>
       <c r="F12">
-        <v>0.925492963434611</v>
+        <v>0.9571474404507631</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031826530380517</v>
+        <v>1.033578993302501</v>
       </c>
       <c r="J12">
-        <v>0.9266557257222975</v>
+        <v>0.8500098812650208</v>
       </c>
       <c r="K12">
-        <v>1.027224439309747</v>
+        <v>1.008792049860157</v>
       </c>
       <c r="L12">
-        <v>0.9353037397635323</v>
+        <v>0.8599296672592097</v>
       </c>
       <c r="M12">
-        <v>0.942201780146337</v>
+        <v>0.9731444041722144</v>
       </c>
       <c r="N12">
-        <v>0.9279716831417205</v>
+        <v>0.8512169927939133</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8927611508473358</v>
+        <v>0.8110389210014625</v>
       </c>
       <c r="D13">
-        <v>1.012722055916885</v>
+        <v>0.9940883350752452</v>
       </c>
       <c r="E13">
-        <v>0.9195862734430308</v>
+        <v>0.8425318952863764</v>
       </c>
       <c r="F13">
-        <v>0.9266681179478503</v>
+        <v>0.9580125171377639</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032130231793793</v>
+        <v>1.033862411270444</v>
       </c>
       <c r="J13">
-        <v>0.9278037370634253</v>
+        <v>0.8515997350455304</v>
       </c>
       <c r="K13">
-        <v>1.027566284224518</v>
+        <v>1.009285258553112</v>
       </c>
       <c r="L13">
-        <v>0.936385312045579</v>
+        <v>0.8614005424328923</v>
       </c>
       <c r="M13">
-        <v>0.9433000244658063</v>
+        <v>0.9739439885014128</v>
       </c>
       <c r="N13">
-        <v>0.9291213247906315</v>
+        <v>0.85280910434915</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8970779951497428</v>
+        <v>0.8169973155303651</v>
       </c>
       <c r="D14">
-        <v>1.013991041605764</v>
+        <v>0.9958473969246788</v>
       </c>
       <c r="E14">
-        <v>0.9233242006082173</v>
+        <v>0.8475577711181705</v>
       </c>
       <c r="F14">
-        <v>0.930457829612452</v>
+        <v>0.9607826882290009</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033110055443132</v>
+        <v>1.034769726930422</v>
       </c>
       <c r="J14">
-        <v>0.931504470683876</v>
+        <v>0.856668107764756</v>
       </c>
       <c r="K14">
-        <v>1.028670473599995</v>
+        <v>1.010865124760596</v>
       </c>
       <c r="L14">
-        <v>0.9398721356923756</v>
+        <v>0.8660901830311833</v>
       </c>
       <c r="M14">
-        <v>0.9468411155507863</v>
+        <v>0.9765021208502936</v>
       </c>
       <c r="N14">
-        <v>0.9328273138773032</v>
+        <v>0.8578846747389873</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8996852217565314</v>
+        <v>0.8205485912507228</v>
       </c>
       <c r="D15">
-        <v>1.01476071850819</v>
+        <v>0.9969044313404618</v>
       </c>
       <c r="E15">
-        <v>0.9255829673264278</v>
+        <v>0.8505562893709779</v>
       </c>
       <c r="F15">
-        <v>0.9327482616525319</v>
+        <v>0.9624436053660635</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033702534753138</v>
+        <v>1.035313515068834</v>
       </c>
       <c r="J15">
-        <v>0.9337400587475249</v>
+        <v>0.859690747575686</v>
       </c>
       <c r="K15">
-        <v>1.029339124338807</v>
+        <v>1.011812708885661</v>
       </c>
       <c r="L15">
-        <v>0.9419786917626636</v>
+        <v>0.8688873504712028</v>
       </c>
       <c r="M15">
-        <v>0.9489808389176621</v>
+        <v>0.9780342289353667</v>
       </c>
       <c r="N15">
-        <v>0.935066076732428</v>
+        <v>0.8609116070451505</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9141437697472877</v>
+        <v>0.8396926510489759</v>
       </c>
       <c r="D16">
-        <v>1.019072659632064</v>
+        <v>1.002710957174734</v>
       </c>
       <c r="E16">
-        <v>0.9381246527433913</v>
+        <v>0.8667575746920181</v>
       </c>
       <c r="F16">
-        <v>0.9454707712757975</v>
+        <v>0.9715205284296345</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036996613007165</v>
+        <v>1.038281510556014</v>
       </c>
       <c r="J16">
-        <v>0.9461433501814387</v>
+        <v>0.8760066786429068</v>
       </c>
       <c r="K16">
-        <v>1.033070191102117</v>
+        <v>1.016994901978141</v>
       </c>
       <c r="L16">
-        <v>0.953668514347046</v>
+        <v>0.8839907496638832</v>
       </c>
       <c r="M16">
-        <v>0.9608598591694183</v>
+        <v>0.9863855036732935</v>
       </c>
       <c r="N16">
-        <v>0.9474869822628554</v>
+        <v>0.8772507086059499</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9226596645710352</v>
+        <v>0.8506052261207466</v>
       </c>
       <c r="D17">
-        <v>1.021646141587878</v>
+        <v>1.006100279025172</v>
       </c>
       <c r="E17">
-        <v>0.9455232436882329</v>
+        <v>0.8760188987059608</v>
       </c>
       <c r="F17">
-        <v>0.952979915820837</v>
+        <v>0.9767844719051315</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038942368482451</v>
+        <v>1.039998821867569</v>
       </c>
       <c r="J17">
-        <v>0.9534525143480771</v>
+        <v>0.8853217953643341</v>
       </c>
       <c r="K17">
-        <v>1.035284989740734</v>
+        <v>1.020002187052251</v>
       </c>
       <c r="L17">
-        <v>0.960558986051543</v>
+        <v>0.8926165991704401</v>
       </c>
       <c r="M17">
-        <v>0.9678658620553023</v>
+        <v>0.9912121775102344</v>
       </c>
       <c r="N17">
-        <v>0.9548065262809834</v>
+        <v>0.8865790538615808</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9274531164051129</v>
+        <v>0.8566497816174594</v>
       </c>
       <c r="D18">
-        <v>1.023105438109405</v>
+        <v>1.008001672036451</v>
       </c>
       <c r="E18">
-        <v>0.9496913840396851</v>
+        <v>0.881156441860764</v>
       </c>
       <c r="F18">
-        <v>0.9572115749046156</v>
+        <v>0.9797271859487604</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040039009045534</v>
+        <v>1.040957256148622</v>
       </c>
       <c r="J18">
-        <v>0.9575676932309446</v>
+        <v>0.8904855192191469</v>
       </c>
       <c r="K18">
-        <v>1.036536913987634</v>
+        <v>1.02168370096885</v>
       </c>
       <c r="L18">
-        <v>0.9644389464995179</v>
+        <v>0.8973990285774877</v>
       </c>
       <c r="M18">
-        <v>0.9718121615535191</v>
+        <v>0.9939052772416886</v>
       </c>
       <c r="N18">
-        <v>0.9589275491898823</v>
+        <v>0.8917501107965549</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9290601598698852</v>
+        <v>0.858661898378944</v>
       </c>
       <c r="D19">
-        <v>1.023596381936469</v>
+        <v>1.008638338496171</v>
       </c>
       <c r="E19">
-        <v>0.9510893487186074</v>
+        <v>0.8828677930731124</v>
       </c>
       <c r="F19">
-        <v>0.9586310401526753</v>
+        <v>0.9807109310498749</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040406855936067</v>
+        <v>1.041277372459906</v>
       </c>
       <c r="J19">
-        <v>0.9589474744524135</v>
+        <v>0.8922050114846516</v>
       </c>
       <c r="K19">
-        <v>1.036957444568066</v>
+        <v>1.022245857830395</v>
       </c>
       <c r="L19">
-        <v>0.9657399387543455</v>
+        <v>0.8989916656841839</v>
       </c>
       <c r="M19">
-        <v>0.9731356031972433</v>
+        <v>0.9948047559268919</v>
       </c>
       <c r="N19">
-        <v>0.9603092898589484</v>
+        <v>0.893472044938305</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9217644705470035</v>
+        <v>0.8494689437678338</v>
       </c>
       <c r="D20">
-        <v>1.02137446242482</v>
+        <v>1.00574474105303</v>
       </c>
       <c r="E20">
-        <v>0.9447451114482024</v>
+        <v>0.8750537160239743</v>
       </c>
       <c r="F20">
-        <v>0.952190023545324</v>
+        <v>0.9762334105948838</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038737669965218</v>
+        <v>1.039819207347026</v>
       </c>
       <c r="J20">
-        <v>0.9526840622452497</v>
+        <v>0.8843514028593346</v>
       </c>
       <c r="K20">
-        <v>1.035051599225282</v>
+        <v>1.019687322702371</v>
       </c>
       <c r="L20">
-        <v>0.9598344973204882</v>
+        <v>0.8917179214691273</v>
       </c>
       <c r="M20">
-        <v>0.9671290881394224</v>
+        <v>0.9907074494207271</v>
       </c>
       <c r="N20">
-        <v>0.954036982888027</v>
+        <v>0.8856072832879185</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8958179622001265</v>
+        <v>0.8152685685821857</v>
       </c>
       <c r="D21">
-        <v>1.01361994425809</v>
+        <v>0.9953351569673164</v>
       </c>
       <c r="E21">
-        <v>0.9222328913188228</v>
+        <v>0.8460989181371446</v>
       </c>
       <c r="F21">
-        <v>0.9293513217406555</v>
+        <v>0.9599768148867058</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032823904909447</v>
+        <v>1.034505821747463</v>
       </c>
       <c r="J21">
-        <v>0.9304241700895877</v>
+        <v>0.8551971868317082</v>
       </c>
       <c r="K21">
-        <v>1.028347796642824</v>
+        <v>1.010405448465166</v>
       </c>
       <c r="L21">
-        <v>0.9388542377368121</v>
+        <v>0.8647290893367161</v>
       </c>
       <c r="M21">
-        <v>0.9458072938039686</v>
+        <v>0.9757582941873767</v>
       </c>
       <c r="N21">
-        <v>0.9317454791322589</v>
+        <v>0.8564116649294976</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8772754561664079</v>
+        <v>0.7886794301327413</v>
       </c>
       <c r="D22">
-        <v>1.008226126428603</v>
+        <v>0.9876525412006444</v>
       </c>
       <c r="E22">
-        <v>0.906198360249612</v>
+        <v>0.8237321761300901</v>
       </c>
       <c r="F22">
-        <v>0.9131011853975158</v>
+        <v>0.9478076214996592</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028628583459179</v>
+        <v>1.030517539480758</v>
       </c>
       <c r="J22">
-        <v>0.9145371723860731</v>
+        <v>0.8326175218212417</v>
       </c>
       <c r="K22">
-        <v>1.023636364770399</v>
+        <v>1.003472637290114</v>
       </c>
       <c r="L22">
-        <v>0.9238890343840311</v>
+        <v>0.8438450019143876</v>
       </c>
       <c r="M22">
-        <v>0.9306158442359562</v>
+        <v>0.9644891173049275</v>
       </c>
       <c r="N22">
-        <v>0.9158359200697412</v>
+        <v>0.8337999342047925</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8873596492631607</v>
+        <v>0.8034303979108245</v>
       </c>
       <c r="D23">
-        <v>1.011143777991223</v>
+        <v>0.9918687773352881</v>
       </c>
       <c r="E23">
-        <v>0.9149126819537845</v>
+        <v>0.8361237221281842</v>
       </c>
       <c r="F23">
-        <v>0.9219308748042891</v>
+        <v>0.9545058037754953</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030906380138541</v>
+        <v>1.032713344451338</v>
       </c>
       <c r="J23">
-        <v>0.9231746128705525</v>
+        <v>0.8451335762474733</v>
       </c>
       <c r="K23">
-        <v>1.026189885406629</v>
+        <v>1.007286463563788</v>
       </c>
       <c r="L23">
-        <v>0.9320243336967552</v>
+        <v>0.8554188410367535</v>
       </c>
       <c r="M23">
-        <v>0.9388722930144168</v>
+        <v>0.9707005985962781</v>
       </c>
       <c r="N23">
-        <v>0.9244856267104369</v>
+        <v>0.8463337628639211</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9221695009753881</v>
+        <v>0.8499833542922922</v>
       </c>
       <c r="D24">
-        <v>1.021497350324656</v>
+        <v>1.005905623188051</v>
       </c>
       <c r="E24">
-        <v>0.9450971661408409</v>
+        <v>0.8754906437361845</v>
       </c>
       <c r="F24">
-        <v>0.9525473950583059</v>
+        <v>0.9764827996727929</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038830281512015</v>
+        <v>1.039900499017134</v>
       </c>
       <c r="J24">
-        <v>0.9530317453403566</v>
+        <v>0.8847907004153919</v>
       </c>
       <c r="K24">
-        <v>1.035157180490723</v>
+        <v>1.01982981715773</v>
       </c>
       <c r="L24">
-        <v>0.9601622877842639</v>
+        <v>0.8921247512344875</v>
       </c>
       <c r="M24">
-        <v>0.9674624329687193</v>
+        <v>0.9909358859425853</v>
       </c>
       <c r="N24">
-        <v>0.9543851597330087</v>
+        <v>0.8860472046968935</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9557961037793657</v>
+        <v>0.89125720239872</v>
       </c>
       <c r="D25">
-        <v>1.031884896510709</v>
+        <v>1.019200367835458</v>
       </c>
       <c r="E25">
-        <v>0.9743853392844801</v>
+        <v>0.9106652541740867</v>
       </c>
       <c r="F25">
-        <v>0.9822994587329368</v>
+        <v>0.9969227399721861</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046533885245472</v>
+        <v>1.046526694279446</v>
       </c>
       <c r="J25">
-        <v>0.9819085139834285</v>
+        <v>0.920093684346957</v>
       </c>
       <c r="K25">
-        <v>1.044007612641393</v>
+        <v>1.031507759151274</v>
       </c>
       <c r="L25">
-        <v>0.9873947457114566</v>
+        <v>0.9248291259920158</v>
       </c>
       <c r="M25">
-        <v>0.9951789115925318</v>
+        <v>1.009569015009503</v>
       </c>
       <c r="N25">
-        <v>0.9833029366997655</v>
+        <v>0.9214003229149506</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_38/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9185951936511199</v>
+        <v>1.034611238139842</v>
       </c>
       <c r="D2">
-        <v>1.028392641258909</v>
+        <v>1.049632132427115</v>
       </c>
       <c r="E2">
-        <v>0.9340738187317392</v>
+        <v>1.03353711852611</v>
       </c>
       <c r="F2">
-        <v>1.010885615945426</v>
+        <v>1.056232926522912</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050994066627283</v>
+        <v>1.041589144272035</v>
       </c>
       <c r="J2">
-        <v>0.943516782205724</v>
+        <v>1.039729534889943</v>
       </c>
       <c r="K2">
-        <v>1.039470100472552</v>
+        <v>1.052388650759266</v>
       </c>
       <c r="L2">
-        <v>0.9465350021140094</v>
+        <v>1.036339182953833</v>
       </c>
       <c r="M2">
-        <v>1.022195351699916</v>
+        <v>1.058971200727039</v>
       </c>
       <c r="N2">
-        <v>0.9448566842593437</v>
+        <v>1.041206070088131</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9362957223147063</v>
+        <v>1.037385856187176</v>
       </c>
       <c r="D3">
-        <v>1.034488440507392</v>
+        <v>1.050594487172144</v>
       </c>
       <c r="E3">
-        <v>0.9492682916450947</v>
+        <v>1.035960197764183</v>
       </c>
       <c r="F3">
-        <v>1.020081427168043</v>
+        <v>1.057705768819247</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053898253125872</v>
+        <v>1.041917424593009</v>
       </c>
       <c r="J3">
-        <v>0.9586877002218031</v>
+        <v>1.042138146417881</v>
       </c>
       <c r="K3">
-        <v>1.044698262556393</v>
+        <v>1.053162903096879</v>
       </c>
       <c r="L3">
-        <v>0.9605942617056685</v>
+        <v>1.038566961628376</v>
       </c>
       <c r="M3">
-        <v>1.030463651590671</v>
+        <v>1.060255963414404</v>
       </c>
       <c r="N3">
-        <v>0.9600491467191341</v>
+        <v>1.043618102120711</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9469730403371606</v>
+        <v>1.039170298156628</v>
       </c>
       <c r="D4">
-        <v>1.038214587913001</v>
+        <v>1.051212606778709</v>
       </c>
       <c r="E4">
-        <v>0.9584463096488381</v>
+        <v>1.037518240930108</v>
       </c>
       <c r="F4">
-        <v>1.025680654174356</v>
+        <v>1.058651968009541</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055648039954484</v>
+        <v>1.042125867074013</v>
       </c>
       <c r="J4">
-        <v>0.9678378351272341</v>
+        <v>1.043686020991715</v>
       </c>
       <c r="K4">
-        <v>1.047872676941337</v>
+        <v>1.053658699461481</v>
       </c>
       <c r="L4">
-        <v>0.9690735463109833</v>
+        <v>1.039998372205912</v>
       </c>
       <c r="M4">
-        <v>1.035478709623535</v>
+        <v>1.061079966342351</v>
       </c>
       <c r="N4">
-        <v>0.9692122758656664</v>
+        <v>1.045168174853983</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9513003156322285</v>
+        <v>1.039917933717811</v>
       </c>
       <c r="D5">
-        <v>1.039734420517311</v>
+        <v>1.051471380249789</v>
       </c>
       <c r="E5">
-        <v>0.9621683484359935</v>
+        <v>1.038170944648037</v>
       </c>
       <c r="F5">
-        <v>1.027960121246679</v>
+        <v>1.059048142669023</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056355798727827</v>
+        <v>1.042212551523705</v>
       </c>
       <c r="J5">
-        <v>0.971545459464642</v>
+        <v>1.044334257741408</v>
       </c>
       <c r="K5">
-        <v>1.049162632285533</v>
+        <v>1.053865902210756</v>
       </c>
       <c r="L5">
-        <v>0.9725091881719138</v>
+        <v>1.040597774245022</v>
       </c>
       <c r="M5">
-        <v>1.037515965795078</v>
+        <v>1.061424649704589</v>
       </c>
       <c r="N5">
-        <v>0.9729251654549036</v>
+        <v>1.045817332174215</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9520180228771601</v>
+        <v>1.040043317881144</v>
       </c>
       <c r="D6">
-        <v>1.039987013445803</v>
+        <v>1.05151476630122</v>
       </c>
       <c r="E6">
-        <v>0.9627857997354232</v>
+        <v>1.038280403487227</v>
       </c>
       <c r="F6">
-        <v>1.028338729589947</v>
+        <v>1.059114568656077</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056473080108626</v>
+        <v>1.042227051031581</v>
       </c>
       <c r="J6">
-        <v>0.9721603407503167</v>
+        <v>1.044442955324237</v>
       </c>
       <c r="K6">
-        <v>1.049376742835173</v>
+        <v>1.05390062073692</v>
       </c>
       <c r="L6">
-        <v>0.9730789525226113</v>
+        <v>1.040698279577637</v>
       </c>
       <c r="M6">
-        <v>1.037854092002889</v>
+        <v>1.061482423005363</v>
       </c>
       <c r="N6">
-        <v>0.9735409199425319</v>
+        <v>1.045926184120078</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9470314679405138</v>
+        <v>1.039180298001321</v>
       </c>
       <c r="D7">
-        <v>1.038235072714866</v>
+        <v>1.05121606876255</v>
       </c>
       <c r="E7">
-        <v>0.9584965563751241</v>
+        <v>1.037526971336654</v>
       </c>
       <c r="F7">
-        <v>1.025711393882162</v>
+        <v>1.05865726799468</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055657602853202</v>
+        <v>1.042127029058372</v>
       </c>
       <c r="J7">
-        <v>0.9678878994487735</v>
+        <v>1.043694692463737</v>
       </c>
       <c r="K7">
-        <v>1.047890082269902</v>
+        <v>1.053661472929154</v>
       </c>
       <c r="L7">
-        <v>0.9691199387251891</v>
+        <v>1.040006390653637</v>
       </c>
       <c r="M7">
-        <v>1.035506200180613</v>
+        <v>1.061084578771354</v>
       </c>
       <c r="N7">
-        <v>0.9692624112842846</v>
+        <v>1.04517685864049</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9247544480906001</v>
+        <v>1.035551237685792</v>
       </c>
       <c r="D8">
-        <v>1.030501726841738</v>
+        <v>1.049958323541126</v>
       </c>
       <c r="E8">
-        <v>0.9393579362332816</v>
+        <v>1.034358086175638</v>
       </c>
       <c r="F8">
-        <v>1.014072580345004</v>
+        <v>1.056732110876182</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052004466180558</v>
+        <v>1.041700916021763</v>
       </c>
       <c r="J8">
-        <v>0.9487957888605804</v>
+        <v>1.040545780885899</v>
       </c>
       <c r="K8">
-        <v>1.041283794906018</v>
+        <v>1.052651397528439</v>
       </c>
       <c r="L8">
-        <v>0.9514272173561298</v>
+        <v>1.03709419984215</v>
       </c>
       <c r="M8">
-        <v>1.025065244810882</v>
+        <v>1.05940692470392</v>
       </c>
       <c r="N8">
-        <v>0.9501431877091605</v>
+        <v>1.042023475247026</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.8780248917096473</v>
+        <v>1.029069491965422</v>
       </c>
       <c r="D9">
-        <v>1.014857600593492</v>
+        <v>1.047706212346415</v>
       </c>
       <c r="E9">
-        <v>0.8993645118798542</v>
+        <v>1.028695883184464</v>
       </c>
       <c r="F9">
-        <v>0.9902806223945287</v>
+        <v>1.053286195082025</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044382626295986</v>
+        <v>1.040919256915294</v>
       </c>
       <c r="J9">
-        <v>0.9087652647557481</v>
+        <v>1.034912541661665</v>
       </c>
       <c r="K9">
-        <v>1.027714136588387</v>
+        <v>1.050831069944601</v>
       </c>
       <c r="L9">
-        <v>0.9143326841072685</v>
+        <v>1.031882473489659</v>
       </c>
       <c r="M9">
-        <v>1.003533382904745</v>
+        <v>1.056393395356999</v>
       </c>
       <c r="N9">
-        <v>0.910055815668534</v>
+        <v>1.036382236176952</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8384112930788936</v>
+        <v>1.024685320151746</v>
       </c>
       <c r="D10">
-        <v>1.002316707553174</v>
+        <v>1.046179783280677</v>
       </c>
       <c r="E10">
-        <v>0.8656713123007256</v>
+        <v>1.024864544014617</v>
       </c>
       <c r="F10">
-        <v>0.970906633432193</v>
+        <v>1.050951139628743</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038081021616538</v>
+        <v>1.040376965241682</v>
       </c>
       <c r="J10">
-        <v>0.8749135498381413</v>
+        <v>1.031096247068501</v>
       </c>
       <c r="K10">
-        <v>1.016644258735725</v>
+        <v>1.049589400662865</v>
       </c>
       <c r="L10">
-        <v>0.882978637920674</v>
+        <v>1.028350405815758</v>
       </c>
       <c r="M10">
-        <v>0.985821826032064</v>
+        <v>1.054344156473794</v>
       </c>
       <c r="N10">
-        <v>0.8761560274328983</v>
+        <v>1.032560522007731</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8176819698762067</v>
+        <v>1.022770934997472</v>
       </c>
       <c r="D11">
-        <v>0.9960506857911477</v>
+        <v>1.045512669818372</v>
       </c>
       <c r="E11">
-        <v>0.8481356845494996</v>
+        <v>1.023191224607576</v>
       </c>
       <c r="F11">
-        <v>0.961102328828587</v>
+        <v>1.049930667763367</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034874391382591</v>
+        <v>1.040137011075652</v>
       </c>
       <c r="J11">
-        <v>0.8572507415762611</v>
+        <v>1.029428413336057</v>
       </c>
       <c r="K11">
-        <v>1.011047466695232</v>
+        <v>1.049044862891133</v>
       </c>
       <c r="L11">
-        <v>0.8666293332586789</v>
+        <v>1.026806471111656</v>
       </c>
       <c r="M11">
-        <v>0.9767970694799395</v>
+        <v>1.053446884807793</v>
       </c>
       <c r="N11">
-        <v>0.8584681359573337</v>
+        <v>1.030890319760083</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8091689225079526</v>
+        <v>1.022057350309824</v>
       </c>
       <c r="D12">
-        <v>0.993540031655857</v>
+        <v>1.045263929496042</v>
       </c>
       <c r="E12">
-        <v>0.8409559047752098</v>
+        <v>1.022567448686394</v>
       </c>
       <c r="F12">
-        <v>0.9571474404507631</v>
+        <v>1.04955017446352</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033578993302501</v>
+        <v>1.040047099600238</v>
       </c>
       <c r="J12">
-        <v>0.8500098812650208</v>
+        <v>1.028806518939806</v>
       </c>
       <c r="K12">
-        <v>1.008792049860157</v>
+        <v>1.048841543908645</v>
       </c>
       <c r="L12">
-        <v>0.8599296672592097</v>
+        <v>1.026230728024197</v>
       </c>
       <c r="M12">
-        <v>0.9731444041722144</v>
+        <v>1.05311207088931</v>
       </c>
       <c r="N12">
-        <v>0.8512169927939133</v>
+        <v>1.030267542202458</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8110389210014625</v>
+        <v>1.022210531130234</v>
       </c>
       <c r="D13">
-        <v>0.9940883350752452</v>
+        <v>1.04531732820411</v>
       </c>
       <c r="E13">
-        <v>0.8425318952863764</v>
+        <v>1.022701352962323</v>
       </c>
       <c r="F13">
-        <v>0.9580125171377639</v>
+        <v>1.049631857525134</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033862411270444</v>
+        <v>1.040066421457113</v>
       </c>
       <c r="J13">
-        <v>0.8515997350455304</v>
+        <v>1.028940026711483</v>
       </c>
       <c r="K13">
-        <v>1.009285258553112</v>
+        <v>1.048885204496806</v>
       </c>
       <c r="L13">
-        <v>0.8614005424328923</v>
+        <v>1.026354330225155</v>
       </c>
       <c r="M13">
-        <v>0.9739439885014128</v>
+        <v>1.053183959284314</v>
       </c>
       <c r="N13">
-        <v>0.85280910434915</v>
+        <v>1.030401239570484</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8169973155303651</v>
+        <v>1.022712001336975</v>
       </c>
       <c r="D14">
-        <v>0.9958473969246788</v>
+        <v>1.045492128250458</v>
       </c>
       <c r="E14">
-        <v>0.8475577711181705</v>
+        <v>1.023139709060631</v>
       </c>
       <c r="F14">
-        <v>0.9607826882290009</v>
+        <v>1.049899245748671</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034769726930422</v>
+        <v>1.040129594971866</v>
       </c>
       <c r="J14">
-        <v>0.856668107764756</v>
+        <v>1.02937705651007</v>
       </c>
       <c r="K14">
-        <v>1.010865124760596</v>
+        <v>1.049028078080314</v>
       </c>
       <c r="L14">
-        <v>0.8660901830311833</v>
+        <v>1.026758926489387</v>
       </c>
       <c r="M14">
-        <v>0.9765021208502936</v>
+        <v>1.053419240342333</v>
       </c>
       <c r="N14">
-        <v>0.8578846747389873</v>
+        <v>1.030838890001513</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8205485912507228</v>
+        <v>1.023020640052837</v>
       </c>
       <c r="D15">
-        <v>0.9969044313404618</v>
+        <v>1.045599702563054</v>
       </c>
       <c r="E15">
-        <v>0.8505562893709779</v>
+        <v>1.023409496761555</v>
       </c>
       <c r="F15">
-        <v>0.9624436053660635</v>
+        <v>1.05006379994662</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035313515068834</v>
+        <v>1.040168414361838</v>
       </c>
       <c r="J15">
-        <v>0.859690747575686</v>
+        <v>1.029646006302177</v>
       </c>
       <c r="K15">
-        <v>1.011812708885661</v>
+        <v>1.049115967053606</v>
       </c>
       <c r="L15">
-        <v>0.8688873504712028</v>
+        <v>1.027007910262099</v>
       </c>
       <c r="M15">
-        <v>0.9780342289353667</v>
+        <v>1.053564001348772</v>
       </c>
       <c r="N15">
-        <v>0.8609116070451505</v>
+        <v>1.031108221733174</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8396926510489759</v>
+        <v>1.024812026524752</v>
       </c>
       <c r="D16">
-        <v>1.002710957174734</v>
+        <v>1.04622392599634</v>
       </c>
       <c r="E16">
-        <v>0.8667575746920181</v>
+        <v>1.024975288260458</v>
       </c>
       <c r="F16">
-        <v>0.9715205284296345</v>
+        <v>1.051018664383699</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038281510556014</v>
+        <v>1.040392781117946</v>
       </c>
       <c r="J16">
-        <v>0.8760066786429068</v>
+        <v>1.031206605443556</v>
       </c>
       <c r="K16">
-        <v>1.016994901978141</v>
+        <v>1.049625393156946</v>
       </c>
       <c r="L16">
-        <v>0.8839907496638832</v>
+        <v>1.028452559304804</v>
       </c>
       <c r="M16">
-        <v>0.9863855036732935</v>
+        <v>1.054403493161776</v>
       </c>
       <c r="N16">
-        <v>0.8772507086059499</v>
+        <v>1.032671037104337</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.8506052261207466</v>
+        <v>1.025931365794907</v>
       </c>
       <c r="D17">
-        <v>1.006100279025172</v>
+        <v>1.046613822335002</v>
       </c>
       <c r="E17">
-        <v>0.8760188987059608</v>
+        <v>1.025953578088348</v>
       </c>
       <c r="F17">
-        <v>0.9767844719051315</v>
+        <v>1.051615090071054</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039998821867569</v>
+        <v>1.040532137931939</v>
       </c>
       <c r="J17">
-        <v>0.8853217953643341</v>
+        <v>1.032181361750759</v>
       </c>
       <c r="K17">
-        <v>1.020002187052251</v>
+        <v>1.049943085840382</v>
       </c>
       <c r="L17">
-        <v>0.8926165991704401</v>
+        <v>1.029354808370051</v>
       </c>
       <c r="M17">
-        <v>0.9912121775102344</v>
+        <v>1.054927399711763</v>
       </c>
       <c r="N17">
-        <v>0.8865790538615808</v>
+        <v>1.033647177677302</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.8566497816174594</v>
+        <v>1.02658271903533</v>
       </c>
       <c r="D18">
-        <v>1.008001672036451</v>
+        <v>1.046840649290535</v>
       </c>
       <c r="E18">
-        <v>0.881156441860764</v>
+        <v>1.026522821314141</v>
       </c>
       <c r="F18">
-        <v>0.9797271859487604</v>
+        <v>1.051962072760561</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040957256148622</v>
+        <v>1.040612927313162</v>
       </c>
       <c r="J18">
-        <v>0.8904855192191469</v>
+        <v>1.032748444783746</v>
       </c>
       <c r="K18">
-        <v>1.02168370096885</v>
+        <v>1.050127727427439</v>
       </c>
       <c r="L18">
-        <v>0.8973990285774877</v>
+        <v>1.029879678562693</v>
       </c>
       <c r="M18">
-        <v>0.9939052772416886</v>
+        <v>1.055232029054373</v>
       </c>
       <c r="N18">
-        <v>0.8917501107965549</v>
+        <v>1.034215066033241</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.858661898378944</v>
+        <v>1.026804555453368</v>
       </c>
       <c r="D19">
-        <v>1.008638338496171</v>
+        <v>1.046917891415959</v>
       </c>
       <c r="E19">
-        <v>0.8828677930731124</v>
+        <v>1.02671668738469</v>
       </c>
       <c r="F19">
-        <v>0.9807109310498749</v>
+        <v>1.052080232910168</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041277372459906</v>
+        <v>1.040640390722227</v>
       </c>
       <c r="J19">
-        <v>0.8922050114846516</v>
+        <v>1.03294155751277</v>
       </c>
       <c r="K19">
-        <v>1.022245857830395</v>
+        <v>1.0501905735101</v>
       </c>
       <c r="L19">
-        <v>0.8989916656841839</v>
+        <v>1.030058411109613</v>
       </c>
       <c r="M19">
-        <v>0.9948047559268919</v>
+        <v>1.055335738575124</v>
       </c>
       <c r="N19">
-        <v>0.893472044938305</v>
+        <v>1.034408453004491</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.8494689437678338</v>
+        <v>1.025811431064613</v>
       </c>
       <c r="D20">
-        <v>1.00574474105303</v>
+        <v>1.046572051620493</v>
       </c>
       <c r="E20">
-        <v>0.8750537160239743</v>
+        <v>1.02584875980622</v>
       </c>
       <c r="F20">
-        <v>0.9762334105948838</v>
+        <v>1.051551192826538</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039819207347026</v>
+        <v>1.040517237544548</v>
       </c>
       <c r="J20">
-        <v>0.8843514028593346</v>
+        <v>1.032076932848499</v>
       </c>
       <c r="K20">
-        <v>1.019687322702371</v>
+        <v>1.049909069151916</v>
       </c>
       <c r="L20">
-        <v>0.8917179214691273</v>
+        <v>1.029258150556176</v>
       </c>
       <c r="M20">
-        <v>0.9907074494207271</v>
+        <v>1.054871288675624</v>
       </c>
       <c r="N20">
-        <v>0.8856072832879185</v>
+        <v>1.033542600474023</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8152685685821857</v>
+        <v>1.022564400530429</v>
       </c>
       <c r="D21">
-        <v>0.9953351569673164</v>
+        <v>1.0454406802288</v>
       </c>
       <c r="E21">
-        <v>0.8460989181371446</v>
+        <v>1.023010686331178</v>
       </c>
       <c r="F21">
-        <v>0.9599768148867058</v>
+        <v>1.049820546751582</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034505821747463</v>
+        <v>1.040111013608704</v>
       </c>
       <c r="J21">
-        <v>0.8551971868317082</v>
+        <v>1.029248428664589</v>
       </c>
       <c r="K21">
-        <v>1.010405448465166</v>
+        <v>1.048986034603416</v>
       </c>
       <c r="L21">
-        <v>0.8647290893367161</v>
+        <v>1.026639845886631</v>
       </c>
       <c r="M21">
-        <v>0.9757582941873767</v>
+        <v>1.053349998374689</v>
       </c>
       <c r="N21">
-        <v>0.8564116649294976</v>
+        <v>1.030710079489737</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.7886794301327413</v>
+        <v>1.020508370761497</v>
       </c>
       <c r="D22">
-        <v>0.9876525412006444</v>
+        <v>1.044723866561316</v>
       </c>
       <c r="E22">
-        <v>0.8237321761300901</v>
+        <v>1.021213331017096</v>
       </c>
       <c r="F22">
-        <v>0.9478076214996592</v>
+        <v>1.048724044376404</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030517539480758</v>
+        <v>1.03985107607353</v>
       </c>
       <c r="J22">
-        <v>0.8326175218212417</v>
+        <v>1.027456185998229</v>
       </c>
       <c r="K22">
-        <v>1.003472637290114</v>
+        <v>1.048399581773544</v>
       </c>
       <c r="L22">
-        <v>0.8438450019143876</v>
+        <v>1.024980517177038</v>
       </c>
       <c r="M22">
-        <v>0.9644891173049275</v>
+        <v>1.052384648822325</v>
       </c>
       <c r="N22">
-        <v>0.8337999342047925</v>
+        <v>1.028915291633219</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8034303979108245</v>
+        <v>1.021599715975566</v>
       </c>
       <c r="D23">
-        <v>0.9918687773352881</v>
+        <v>1.045104388648751</v>
       </c>
       <c r="E23">
-        <v>0.8361237221281842</v>
+        <v>1.022167396952022</v>
       </c>
       <c r="F23">
-        <v>0.9545058037754953</v>
+        <v>1.049306127221053</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032713344451338</v>
+        <v>1.039989306484678</v>
       </c>
       <c r="J23">
-        <v>0.8451335762474733</v>
+        <v>1.028407627835758</v>
       </c>
       <c r="K23">
-        <v>1.007286463563788</v>
+        <v>1.048711056539813</v>
       </c>
       <c r="L23">
-        <v>0.8554188410367535</v>
+        <v>1.025861425555287</v>
       </c>
       <c r="M23">
-        <v>0.9707005985962781</v>
+        <v>1.052897249817965</v>
       </c>
       <c r="N23">
-        <v>0.8463337628639211</v>
+        <v>1.029868084627289</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.8499833542922922</v>
+        <v>1.025865629155432</v>
       </c>
       <c r="D24">
-        <v>1.005905623188051</v>
+        <v>1.046590927839947</v>
       </c>
       <c r="E24">
-        <v>0.8754906437361845</v>
+        <v>1.025896126925768</v>
       </c>
       <c r="F24">
-        <v>0.9764827996727929</v>
+        <v>1.051580068027459</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039900499017134</v>
+        <v>1.040523971917644</v>
       </c>
       <c r="J24">
-        <v>0.8847907004153919</v>
+        <v>1.032124124330322</v>
       </c>
       <c r="K24">
-        <v>1.01982981715773</v>
+        <v>1.049924441877635</v>
       </c>
       <c r="L24">
-        <v>0.8921247512344875</v>
+        <v>1.029301830372585</v>
       </c>
       <c r="M24">
-        <v>0.9909358859425853</v>
+        <v>1.054896645791516</v>
       </c>
       <c r="N24">
-        <v>0.8860472046968935</v>
+        <v>1.033589858973163</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.89125720239872</v>
+        <v>1.03075594031525</v>
       </c>
       <c r="D25">
-        <v>1.019200367835458</v>
+        <v>1.048292776036759</v>
       </c>
       <c r="E25">
-        <v>0.9106652541740867</v>
+        <v>1.030169368341855</v>
       </c>
       <c r="F25">
-        <v>0.9969227399721861</v>
+        <v>1.05418357229829</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046526694279446</v>
+        <v>1.041125032434374</v>
       </c>
       <c r="J25">
-        <v>0.920093684346957</v>
+        <v>1.036379285032658</v>
       </c>
       <c r="K25">
-        <v>1.031507759151274</v>
+        <v>1.051306554804023</v>
       </c>
       <c r="L25">
-        <v>0.9248291259920158</v>
+        <v>1.033239698882017</v>
       </c>
       <c r="M25">
-        <v>1.009569015009503</v>
+        <v>1.057179426317301</v>
       </c>
       <c r="N25">
-        <v>0.9214003229149506</v>
+        <v>1.037851062491769</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_38/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034611238139842</v>
+        <v>0.9185951936511197</v>
       </c>
       <c r="D2">
-        <v>1.049632132427115</v>
+        <v>1.028392641258908</v>
       </c>
       <c r="E2">
-        <v>1.03353711852611</v>
+        <v>0.9340738187317393</v>
       </c>
       <c r="F2">
-        <v>1.056232926522912</v>
+        <v>1.010885615945425</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041589144272035</v>
+        <v>1.050994066627282</v>
       </c>
       <c r="J2">
-        <v>1.039729534889943</v>
+        <v>0.943516782205724</v>
       </c>
       <c r="K2">
-        <v>1.052388650759266</v>
+        <v>1.039470100472551</v>
       </c>
       <c r="L2">
-        <v>1.036339182953833</v>
+        <v>0.9465350021140093</v>
       </c>
       <c r="M2">
-        <v>1.058971200727039</v>
+        <v>1.022195351699916</v>
       </c>
       <c r="N2">
-        <v>1.041206070088131</v>
+        <v>0.9448566842593435</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.037385856187176</v>
+        <v>0.9362957223147047</v>
       </c>
       <c r="D3">
-        <v>1.050594487172144</v>
+        <v>1.034488440507391</v>
       </c>
       <c r="E3">
-        <v>1.035960197764183</v>
+        <v>0.9492682916450931</v>
       </c>
       <c r="F3">
-        <v>1.057705768819247</v>
+        <v>1.020081427168041</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041917424593009</v>
+        <v>1.053898253125871</v>
       </c>
       <c r="J3">
-        <v>1.042138146417881</v>
+        <v>0.9586877002218015</v>
       </c>
       <c r="K3">
-        <v>1.053162903096879</v>
+        <v>1.044698262556391</v>
       </c>
       <c r="L3">
-        <v>1.038566961628376</v>
+        <v>0.960594261705667</v>
       </c>
       <c r="M3">
-        <v>1.060255963414404</v>
+        <v>1.030463651590669</v>
       </c>
       <c r="N3">
-        <v>1.043618102120711</v>
+        <v>0.9600491467191324</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C4">
-        <v>1.039170298156628</v>
+        <v>0.9469730403371589</v>
       </c>
       <c r="D4">
-        <v>1.051212606778709</v>
+        <v>1.038214587913</v>
       </c>
       <c r="E4">
-        <v>1.037518240930108</v>
+        <v>0.9584463096488365</v>
       </c>
       <c r="F4">
-        <v>1.058651968009541</v>
+        <v>1.025680654174356</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042125867074013</v>
+        <v>1.055648039954483</v>
       </c>
       <c r="J4">
-        <v>1.043686020991715</v>
+        <v>0.9678378351272328</v>
       </c>
       <c r="K4">
-        <v>1.053658699461481</v>
+        <v>1.047872676941336</v>
       </c>
       <c r="L4">
-        <v>1.039998372205912</v>
+        <v>0.9690735463109816</v>
       </c>
       <c r="M4">
-        <v>1.061079966342351</v>
+        <v>1.035478709623534</v>
       </c>
       <c r="N4">
-        <v>1.045168174853983</v>
+        <v>0.9692122758656648</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.039917933717811</v>
+        <v>0.9513003156322294</v>
       </c>
       <c r="D5">
-        <v>1.051471380249789</v>
+        <v>1.039734420517312</v>
       </c>
       <c r="E5">
-        <v>1.038170944648037</v>
+        <v>0.9621683484359942</v>
       </c>
       <c r="F5">
-        <v>1.059048142669023</v>
+        <v>1.027960121246679</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042212551523705</v>
+        <v>1.056355798727827</v>
       </c>
       <c r="J5">
-        <v>1.044334257741408</v>
+        <v>0.9715454594646429</v>
       </c>
       <c r="K5">
-        <v>1.053865902210756</v>
+        <v>1.049162632285533</v>
       </c>
       <c r="L5">
-        <v>1.040597774245022</v>
+        <v>0.9725091881719146</v>
       </c>
       <c r="M5">
-        <v>1.061424649704589</v>
+        <v>1.037515965795078</v>
       </c>
       <c r="N5">
-        <v>1.045817332174215</v>
+        <v>0.9729251654549043</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040043317881144</v>
+        <v>0.9520180228771601</v>
       </c>
       <c r="D6">
-        <v>1.05151476630122</v>
+        <v>1.039987013445803</v>
       </c>
       <c r="E6">
-        <v>1.038280403487227</v>
+        <v>0.9627857997354229</v>
       </c>
       <c r="F6">
-        <v>1.059114568656077</v>
+        <v>1.028338729589947</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042227051031581</v>
+        <v>1.056473080108626</v>
       </c>
       <c r="J6">
-        <v>1.044442955324237</v>
+        <v>0.9721603407503164</v>
       </c>
       <c r="K6">
-        <v>1.05390062073692</v>
+        <v>1.049376742835173</v>
       </c>
       <c r="L6">
-        <v>1.040698279577637</v>
+        <v>0.9730789525226111</v>
       </c>
       <c r="M6">
-        <v>1.061482423005363</v>
+        <v>1.037854092002888</v>
       </c>
       <c r="N6">
-        <v>1.045926184120078</v>
+        <v>0.9735409199425316</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.039180298001321</v>
+        <v>0.9470314679405124</v>
       </c>
       <c r="D7">
-        <v>1.05121606876255</v>
+        <v>1.038235072714865</v>
       </c>
       <c r="E7">
-        <v>1.037526971336654</v>
+        <v>0.9584965563751231</v>
       </c>
       <c r="F7">
-        <v>1.05865726799468</v>
+        <v>1.025711393882161</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042127029058372</v>
+        <v>1.055657602853201</v>
       </c>
       <c r="J7">
-        <v>1.043694692463737</v>
+        <v>0.9678878994487723</v>
       </c>
       <c r="K7">
-        <v>1.053661472929154</v>
+        <v>1.047890082269902</v>
       </c>
       <c r="L7">
-        <v>1.040006390653637</v>
+        <v>0.9691199387251881</v>
       </c>
       <c r="M7">
-        <v>1.061084578771354</v>
+        <v>1.035506200180612</v>
       </c>
       <c r="N7">
-        <v>1.04517685864049</v>
+        <v>0.9692624112842833</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035551237685792</v>
+        <v>0.9247544480906015</v>
       </c>
       <c r="D8">
-        <v>1.049958323541126</v>
+        <v>1.030501726841739</v>
       </c>
       <c r="E8">
-        <v>1.034358086175638</v>
+        <v>0.9393579362332828</v>
       </c>
       <c r="F8">
-        <v>1.056732110876182</v>
+        <v>1.014072580345005</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041700916021763</v>
+        <v>1.052004466180559</v>
       </c>
       <c r="J8">
-        <v>1.040545780885899</v>
+        <v>0.9487957888605816</v>
       </c>
       <c r="K8">
-        <v>1.052651397528439</v>
+        <v>1.041283794906019</v>
       </c>
       <c r="L8">
-        <v>1.03709419984215</v>
+        <v>0.951427217356131</v>
       </c>
       <c r="M8">
-        <v>1.05940692470392</v>
+        <v>1.025065244810883</v>
       </c>
       <c r="N8">
-        <v>1.042023475247026</v>
+        <v>0.9501431877091615</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029069491965422</v>
+        <v>0.8780248917096487</v>
       </c>
       <c r="D9">
-        <v>1.047706212346415</v>
+        <v>1.014857600593492</v>
       </c>
       <c r="E9">
-        <v>1.028695883184464</v>
+        <v>0.8993645118798554</v>
       </c>
       <c r="F9">
-        <v>1.053286195082025</v>
+        <v>0.99028062239453</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040919256915294</v>
+        <v>1.044382626295987</v>
       </c>
       <c r="J9">
-        <v>1.034912541661665</v>
+        <v>0.9087652647557494</v>
       </c>
       <c r="K9">
-        <v>1.050831069944601</v>
+        <v>1.027714136588388</v>
       </c>
       <c r="L9">
-        <v>1.031882473489659</v>
+        <v>0.9143326841072699</v>
       </c>
       <c r="M9">
-        <v>1.056393395356999</v>
+        <v>1.003533382904746</v>
       </c>
       <c r="N9">
-        <v>1.036382236176952</v>
+        <v>0.9100558156685354</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.024685320151746</v>
+        <v>0.8384112930788957</v>
       </c>
       <c r="D10">
-        <v>1.046179783280677</v>
+        <v>1.002316707553174</v>
       </c>
       <c r="E10">
-        <v>1.024864544014617</v>
+        <v>0.8656713123007272</v>
       </c>
       <c r="F10">
-        <v>1.050951139628743</v>
+        <v>0.9709066334321934</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040376965241682</v>
+        <v>1.038081021616538</v>
       </c>
       <c r="J10">
-        <v>1.031096247068501</v>
+        <v>0.8749135498381431</v>
       </c>
       <c r="K10">
-        <v>1.049589400662865</v>
+        <v>1.016644258735725</v>
       </c>
       <c r="L10">
-        <v>1.028350405815758</v>
+        <v>0.8829786379206755</v>
       </c>
       <c r="M10">
-        <v>1.054344156473794</v>
+        <v>0.9858218260320646</v>
       </c>
       <c r="N10">
-        <v>1.032560522007731</v>
+        <v>0.8761560274329</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022770934997472</v>
+        <v>0.8176819698762062</v>
       </c>
       <c r="D11">
-        <v>1.045512669818372</v>
+        <v>0.9960506857911475</v>
       </c>
       <c r="E11">
-        <v>1.023191224607576</v>
+        <v>0.8481356845494993</v>
       </c>
       <c r="F11">
-        <v>1.049930667763367</v>
+        <v>0.9611023288285867</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040137011075652</v>
+        <v>1.034874391382591</v>
       </c>
       <c r="J11">
-        <v>1.029428413336057</v>
+        <v>0.8572507415762605</v>
       </c>
       <c r="K11">
-        <v>1.049044862891133</v>
+        <v>1.011047466695231</v>
       </c>
       <c r="L11">
-        <v>1.026806471111656</v>
+        <v>0.8666293332586786</v>
       </c>
       <c r="M11">
-        <v>1.053446884807793</v>
+        <v>0.9767970694799393</v>
       </c>
       <c r="N11">
-        <v>1.030890319760083</v>
+        <v>0.8584681359573335</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022057350309824</v>
+        <v>0.8091689225079539</v>
       </c>
       <c r="D12">
-        <v>1.045263929496042</v>
+        <v>0.9935400316558571</v>
       </c>
       <c r="E12">
-        <v>1.022567448686394</v>
+        <v>0.8409559047752113</v>
       </c>
       <c r="F12">
-        <v>1.04955017446352</v>
+        <v>0.9571474404507635</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040047099600238</v>
+        <v>1.033578993302501</v>
       </c>
       <c r="J12">
-        <v>1.028806518939806</v>
+        <v>0.850009881265022</v>
       </c>
       <c r="K12">
-        <v>1.048841543908645</v>
+        <v>1.008792049860157</v>
       </c>
       <c r="L12">
-        <v>1.026230728024197</v>
+        <v>0.8599296672592109</v>
       </c>
       <c r="M12">
-        <v>1.05311207088931</v>
+        <v>0.9731444041722146</v>
       </c>
       <c r="N12">
-        <v>1.030267542202458</v>
+        <v>0.8512169927939145</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022210531130234</v>
+        <v>0.8110389210014648</v>
       </c>
       <c r="D13">
-        <v>1.04531732820411</v>
+        <v>0.9940883350752462</v>
       </c>
       <c r="E13">
-        <v>1.022701352962323</v>
+        <v>0.8425318952863785</v>
       </c>
       <c r="F13">
-        <v>1.049631857525134</v>
+        <v>0.9580125171377653</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040066421457113</v>
+        <v>1.033862411270444</v>
       </c>
       <c r="J13">
-        <v>1.028940026711483</v>
+        <v>0.8515997350455327</v>
       </c>
       <c r="K13">
-        <v>1.048885204496806</v>
+        <v>1.009285258553112</v>
       </c>
       <c r="L13">
-        <v>1.026354330225155</v>
+        <v>0.8614005424328945</v>
       </c>
       <c r="M13">
-        <v>1.053183959284314</v>
+        <v>0.9739439885014141</v>
       </c>
       <c r="N13">
-        <v>1.030401239570484</v>
+        <v>0.8528091043491522</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022712001336975</v>
+        <v>0.8169973155303645</v>
       </c>
       <c r="D14">
-        <v>1.045492128250458</v>
+        <v>0.9958473969246784</v>
       </c>
       <c r="E14">
-        <v>1.023139709060631</v>
+        <v>0.8475577711181697</v>
       </c>
       <c r="F14">
-        <v>1.049899245748671</v>
+        <v>0.9607826882290003</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040129594971866</v>
+        <v>1.034769726930422</v>
       </c>
       <c r="J14">
-        <v>1.02937705651007</v>
+        <v>0.8566681077647555</v>
       </c>
       <c r="K14">
-        <v>1.049028078080314</v>
+        <v>1.010865124760596</v>
       </c>
       <c r="L14">
-        <v>1.026758926489387</v>
+        <v>0.8660901830311827</v>
       </c>
       <c r="M14">
-        <v>1.053419240342333</v>
+        <v>0.976502120850293</v>
       </c>
       <c r="N14">
-        <v>1.030838890001513</v>
+        <v>0.8578846747389868</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.023020640052837</v>
+        <v>0.820548591250721</v>
       </c>
       <c r="D15">
-        <v>1.045599702563054</v>
+        <v>0.9969044313404615</v>
       </c>
       <c r="E15">
-        <v>1.023409496761555</v>
+        <v>0.8505562893709763</v>
       </c>
       <c r="F15">
-        <v>1.05006379994662</v>
+        <v>0.9624436053660629</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040168414361838</v>
+        <v>1.035313515068834</v>
       </c>
       <c r="J15">
-        <v>1.029646006302177</v>
+        <v>0.8596907475756843</v>
       </c>
       <c r="K15">
-        <v>1.049115967053606</v>
+        <v>1.011812708885661</v>
       </c>
       <c r="L15">
-        <v>1.027007910262099</v>
+        <v>0.8688873504712012</v>
       </c>
       <c r="M15">
-        <v>1.053564001348772</v>
+        <v>0.9780342289353661</v>
       </c>
       <c r="N15">
-        <v>1.031108221733174</v>
+        <v>0.8609116070451487</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.024812026524752</v>
+        <v>0.8396926510489808</v>
       </c>
       <c r="D16">
-        <v>1.04622392599634</v>
+        <v>1.002710957174735</v>
       </c>
       <c r="E16">
-        <v>1.024975288260458</v>
+        <v>0.8667575746920225</v>
       </c>
       <c r="F16">
-        <v>1.051018664383699</v>
+        <v>0.9715205284296368</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040392781117946</v>
+        <v>1.038281510556015</v>
       </c>
       <c r="J16">
-        <v>1.031206605443556</v>
+        <v>0.8760066786429114</v>
       </c>
       <c r="K16">
-        <v>1.049625393156946</v>
+        <v>1.016994901978142</v>
       </c>
       <c r="L16">
-        <v>1.028452559304804</v>
+        <v>0.8839907496638878</v>
       </c>
       <c r="M16">
-        <v>1.054403493161776</v>
+        <v>0.9863855036732956</v>
       </c>
       <c r="N16">
-        <v>1.032671037104337</v>
+        <v>0.8772507086059548</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.025931365794907</v>
+        <v>0.8506052261207457</v>
       </c>
       <c r="D17">
-        <v>1.046613822335002</v>
+        <v>1.006100279025172</v>
       </c>
       <c r="E17">
-        <v>1.025953578088348</v>
+        <v>0.8760188987059599</v>
       </c>
       <c r="F17">
-        <v>1.051615090071054</v>
+        <v>0.9767844719051313</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040532137931939</v>
+        <v>1.039998821867569</v>
       </c>
       <c r="J17">
-        <v>1.032181361750759</v>
+        <v>0.8853217953643332</v>
       </c>
       <c r="K17">
-        <v>1.049943085840382</v>
+        <v>1.020002187052251</v>
       </c>
       <c r="L17">
-        <v>1.029354808370051</v>
+        <v>0.8926165991704391</v>
       </c>
       <c r="M17">
-        <v>1.054927399711763</v>
+        <v>0.9912121775102344</v>
       </c>
       <c r="N17">
-        <v>1.033647177677302</v>
+        <v>0.8865790538615801</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.02658271903533</v>
+        <v>0.8566497816174582</v>
       </c>
       <c r="D18">
-        <v>1.046840649290535</v>
+        <v>1.008001672036451</v>
       </c>
       <c r="E18">
-        <v>1.026522821314141</v>
+        <v>0.8811564418607628</v>
       </c>
       <c r="F18">
-        <v>1.051962072760561</v>
+        <v>0.9797271859487603</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040612927313162</v>
+        <v>1.040957256148622</v>
       </c>
       <c r="J18">
-        <v>1.032748444783746</v>
+        <v>0.8904855192191454</v>
       </c>
       <c r="K18">
-        <v>1.050127727427439</v>
+        <v>1.021683700968849</v>
       </c>
       <c r="L18">
-        <v>1.029879678562693</v>
+        <v>0.8973990285774861</v>
       </c>
       <c r="M18">
-        <v>1.055232029054373</v>
+        <v>0.9939052772416883</v>
       </c>
       <c r="N18">
-        <v>1.034215066033241</v>
+        <v>0.8917501107965535</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026804555453368</v>
+        <v>0.8586618983789445</v>
       </c>
       <c r="D19">
-        <v>1.046917891415959</v>
+        <v>1.008638338496171</v>
       </c>
       <c r="E19">
-        <v>1.02671668738469</v>
+        <v>0.882867793073113</v>
       </c>
       <c r="F19">
-        <v>1.052080232910168</v>
+        <v>0.9807109310498747</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040640390722227</v>
+        <v>1.041277372459906</v>
       </c>
       <c r="J19">
-        <v>1.03294155751277</v>
+        <v>0.892205011484652</v>
       </c>
       <c r="K19">
-        <v>1.0501905735101</v>
+        <v>1.022245857830395</v>
       </c>
       <c r="L19">
-        <v>1.030058411109613</v>
+        <v>0.8989916656841844</v>
       </c>
       <c r="M19">
-        <v>1.055335738575124</v>
+        <v>0.9948047559268917</v>
       </c>
       <c r="N19">
-        <v>1.034408453004491</v>
+        <v>0.8934720449383056</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.025811431064613</v>
+        <v>0.8494689437678341</v>
       </c>
       <c r="D20">
-        <v>1.046572051620493</v>
+        <v>1.00574474105303</v>
       </c>
       <c r="E20">
-        <v>1.02584875980622</v>
+        <v>0.8750537160239747</v>
       </c>
       <c r="F20">
-        <v>1.051551192826538</v>
+        <v>0.9762334105948837</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040517237544548</v>
+        <v>1.039819207347026</v>
       </c>
       <c r="J20">
-        <v>1.032076932848499</v>
+        <v>0.8843514028593351</v>
       </c>
       <c r="K20">
-        <v>1.049909069151916</v>
+        <v>1.019687322702371</v>
       </c>
       <c r="L20">
-        <v>1.029258150556176</v>
+        <v>0.8917179214691277</v>
       </c>
       <c r="M20">
-        <v>1.054871288675624</v>
+        <v>0.9907074494207273</v>
       </c>
       <c r="N20">
-        <v>1.033542600474023</v>
+        <v>0.885607283287919</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022564400530429</v>
+        <v>0.815268568582183</v>
       </c>
       <c r="D21">
-        <v>1.0454406802288</v>
+        <v>0.9953351569673161</v>
       </c>
       <c r="E21">
-        <v>1.023010686331178</v>
+        <v>0.8460989181371423</v>
       </c>
       <c r="F21">
-        <v>1.049820546751582</v>
+        <v>0.9599768148867052</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040111013608704</v>
+        <v>1.034505821747463</v>
       </c>
       <c r="J21">
-        <v>1.029248428664589</v>
+        <v>0.8551971868317058</v>
       </c>
       <c r="K21">
-        <v>1.048986034603416</v>
+        <v>1.010405448465166</v>
       </c>
       <c r="L21">
-        <v>1.026639845886631</v>
+        <v>0.8647290893367138</v>
       </c>
       <c r="M21">
-        <v>1.053349998374689</v>
+        <v>0.9757582941873759</v>
       </c>
       <c r="N21">
-        <v>1.030710079489737</v>
+        <v>0.8564116649294953</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.020508370761497</v>
+        <v>0.7886794301327376</v>
       </c>
       <c r="D22">
-        <v>1.044723866561316</v>
+        <v>0.9876525412006434</v>
       </c>
       <c r="E22">
-        <v>1.021213331017096</v>
+        <v>0.823732176130087</v>
       </c>
       <c r="F22">
-        <v>1.048724044376404</v>
+        <v>0.9478076214996575</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03985107607353</v>
+        <v>1.030517539480758</v>
       </c>
       <c r="J22">
-        <v>1.027456185998229</v>
+        <v>0.8326175218212386</v>
       </c>
       <c r="K22">
-        <v>1.048399581773544</v>
+        <v>1.003472637290113</v>
       </c>
       <c r="L22">
-        <v>1.024980517177038</v>
+        <v>0.8438450019143845</v>
       </c>
       <c r="M22">
-        <v>1.052384648822325</v>
+        <v>0.9644891173049256</v>
       </c>
       <c r="N22">
-        <v>1.028915291633219</v>
+        <v>0.8337999342047894</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.021599715975566</v>
+        <v>0.8034303979108245</v>
       </c>
       <c r="D23">
-        <v>1.045104388648751</v>
+        <v>0.9918687773352882</v>
       </c>
       <c r="E23">
-        <v>1.022167396952022</v>
+        <v>0.8361237221281841</v>
       </c>
       <c r="F23">
-        <v>1.049306127221053</v>
+        <v>0.9545058037754953</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039989306484678</v>
+        <v>1.032713344451338</v>
       </c>
       <c r="J23">
-        <v>1.028407627835758</v>
+        <v>0.8451335762474733</v>
       </c>
       <c r="K23">
-        <v>1.048711056539813</v>
+        <v>1.007286463563788</v>
       </c>
       <c r="L23">
-        <v>1.025861425555287</v>
+        <v>0.8554188410367537</v>
       </c>
       <c r="M23">
-        <v>1.052897249817965</v>
+        <v>0.970700598596278</v>
       </c>
       <c r="N23">
-        <v>1.029868084627289</v>
+        <v>0.8463337628639208</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.025865629155432</v>
+        <v>0.8499833542922927</v>
       </c>
       <c r="D24">
-        <v>1.046590927839947</v>
+        <v>1.005905623188051</v>
       </c>
       <c r="E24">
-        <v>1.025896126925768</v>
+        <v>0.8754906437361848</v>
       </c>
       <c r="F24">
-        <v>1.051580068027459</v>
+        <v>0.9764827996727922</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040523971917644</v>
+        <v>1.039900499017133</v>
       </c>
       <c r="J24">
-        <v>1.032124124330322</v>
+        <v>0.8847907004153922</v>
       </c>
       <c r="K24">
-        <v>1.049924441877635</v>
+        <v>1.01982981715773</v>
       </c>
       <c r="L24">
-        <v>1.029301830372585</v>
+        <v>0.8921247512344879</v>
       </c>
       <c r="M24">
-        <v>1.054896645791516</v>
+        <v>0.9909358859425847</v>
       </c>
       <c r="N24">
-        <v>1.033589858973163</v>
+        <v>0.8860472046968939</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03075594031525</v>
+        <v>0.8912572023987219</v>
       </c>
       <c r="D25">
-        <v>1.048292776036759</v>
+        <v>1.019200367835458</v>
       </c>
       <c r="E25">
-        <v>1.030169368341855</v>
+        <v>0.9106652541740889</v>
       </c>
       <c r="F25">
-        <v>1.05418357229829</v>
+        <v>0.9969227399721869</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041125032434374</v>
+        <v>1.046526694279446</v>
       </c>
       <c r="J25">
-        <v>1.036379285032658</v>
+        <v>0.920093684346959</v>
       </c>
       <c r="K25">
-        <v>1.051306554804023</v>
+        <v>1.031507759151274</v>
       </c>
       <c r="L25">
-        <v>1.033239698882017</v>
+        <v>0.9248291259920178</v>
       </c>
       <c r="M25">
-        <v>1.057179426317301</v>
+        <v>1.009569015009504</v>
       </c>
       <c r="N25">
-        <v>1.037851062491769</v>
+        <v>0.9214003229149523</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_38/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9185951936511197</v>
+        <v>1.016135225277567</v>
       </c>
       <c r="D2">
-        <v>1.028392641258908</v>
+        <v>1.041709695077562</v>
       </c>
       <c r="E2">
-        <v>0.9340738187317393</v>
+        <v>1.029435028789355</v>
       </c>
       <c r="F2">
-        <v>1.010885615945425</v>
+        <v>1.038561857753201</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050994066627282</v>
+        <v>1.057131706165987</v>
       </c>
       <c r="J2">
-        <v>0.943516782205724</v>
+        <v>1.037843816665511</v>
       </c>
       <c r="K2">
-        <v>1.039470100472551</v>
+        <v>1.052616992778656</v>
       </c>
       <c r="L2">
-        <v>0.9465350021140093</v>
+        <v>1.040498969941559</v>
       </c>
       <c r="M2">
-        <v>1.022195351699916</v>
+        <v>1.049508885931295</v>
       </c>
       <c r="N2">
-        <v>0.9448566842593435</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.015979083893603</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.047755316866483</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.048274985233814</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,81 +486,105 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9362957223147047</v>
+        <v>1.020685200952029</v>
       </c>
       <c r="D3">
-        <v>1.034488440507391</v>
+        <v>1.043750072079416</v>
       </c>
       <c r="E3">
-        <v>0.9492682916450931</v>
+        <v>1.033010383705447</v>
       </c>
       <c r="F3">
-        <v>1.020081427168041</v>
+        <v>1.041878104133406</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053898253125871</v>
+        <v>1.058295469458538</v>
       </c>
       <c r="J3">
-        <v>0.9586877002218015</v>
+        <v>1.040627421507754</v>
       </c>
       <c r="K3">
-        <v>1.044698262556391</v>
+        <v>1.053852168999521</v>
       </c>
       <c r="L3">
-        <v>0.960594261705667</v>
+        <v>1.04323761882927</v>
       </c>
       <c r="M3">
-        <v>1.030463651590669</v>
+        <v>1.052001783735333</v>
       </c>
       <c r="N3">
-        <v>0.9600491467191324</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.016954924789268</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.049728256111221</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.049145707302623</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9469730403371589</v>
+        <v>1.023569261524593</v>
       </c>
       <c r="D4">
-        <v>1.038214587913</v>
+        <v>1.045050463393594</v>
       </c>
       <c r="E4">
-        <v>0.9584463096488365</v>
+        <v>1.035282786080349</v>
       </c>
       <c r="F4">
-        <v>1.025680654174356</v>
+        <v>1.043988000470784</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055648039954483</v>
+        <v>1.059023812517769</v>
       </c>
       <c r="J4">
-        <v>0.9678378351272328</v>
+        <v>1.042388692392255</v>
       </c>
       <c r="K4">
-        <v>1.047872676941336</v>
+        <v>1.054633952136297</v>
       </c>
       <c r="L4">
-        <v>0.9690735463109816</v>
+        <v>1.044973241126804</v>
       </c>
       <c r="M4">
-        <v>1.035478709623534</v>
+        <v>1.053583005262811</v>
       </c>
       <c r="N4">
-        <v>0.9692122758656648</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.017572084608612</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.050979670127163</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.04969936385814</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9513003156322294</v>
+        <v>1.024769137102519</v>
       </c>
       <c r="D5">
-        <v>1.039734420517312</v>
+        <v>1.045598387903471</v>
       </c>
       <c r="E5">
-        <v>0.9621683484359942</v>
+        <v>1.036229985714029</v>
       </c>
       <c r="F5">
-        <v>1.027960121246679</v>
+        <v>1.044867645498175</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056355798727827</v>
+        <v>1.059326263231683</v>
       </c>
       <c r="J5">
-        <v>0.9715454594646429</v>
+        <v>1.043121129801889</v>
       </c>
       <c r="K5">
-        <v>1.049162632285533</v>
+        <v>1.054964346279479</v>
       </c>
       <c r="L5">
-        <v>0.9725091881719146</v>
+        <v>1.045695813704198</v>
       </c>
       <c r="M5">
-        <v>1.037515965795078</v>
+        <v>1.054241315007074</v>
       </c>
       <c r="N5">
-        <v>0.9729251654549043</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.017829544643112</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.0515006705376</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.049940049601083</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9520180228771601</v>
+        <v>1.024971377758258</v>
       </c>
       <c r="D6">
-        <v>1.039987013445803</v>
+        <v>1.045697258363797</v>
       </c>
       <c r="E6">
-        <v>0.9627857997354229</v>
+        <v>1.036390176016213</v>
       </c>
       <c r="F6">
-        <v>1.028338729589947</v>
+        <v>1.045016038007695</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056473080108626</v>
+        <v>1.059379186954011</v>
       </c>
       <c r="J6">
-        <v>0.9721603407503164</v>
+        <v>1.043245113605747</v>
       </c>
       <c r="K6">
-        <v>1.049376742835173</v>
+        <v>1.055026649684201</v>
       </c>
       <c r="L6">
-        <v>0.9730789525226111</v>
+        <v>1.045818329961008</v>
       </c>
       <c r="M6">
-        <v>1.037854092002888</v>
+        <v>1.054352585185313</v>
       </c>
       <c r="N6">
-        <v>0.9735409199425316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.017874202093677</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.051588732100547</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.04999273117866</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9470314679405124</v>
+        <v>1.023589556700397</v>
       </c>
       <c r="D7">
-        <v>1.038235072714865</v>
+        <v>1.045076896680899</v>
       </c>
       <c r="E7">
-        <v>0.9584965563751231</v>
+        <v>1.035300045122607</v>
       </c>
       <c r="F7">
-        <v>1.025711393882161</v>
+        <v>1.044002922735913</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055657602853201</v>
+        <v>1.059034458783164</v>
       </c>
       <c r="J7">
-        <v>0.9678878994487723</v>
+        <v>1.042402622715893</v>
       </c>
       <c r="K7">
-        <v>1.047890082269902</v>
+        <v>1.054657269977969</v>
       </c>
       <c r="L7">
-        <v>0.9691199387251881</v>
+        <v>1.0449874440735</v>
       </c>
       <c r="M7">
-        <v>1.035506200180612</v>
+        <v>1.053594932418874</v>
       </c>
       <c r="N7">
-        <v>0.9692624112842833</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.017579927570847</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.050989109536773</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.04973569702383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9247544480906015</v>
+        <v>1.017690750093417</v>
       </c>
       <c r="D8">
-        <v>1.030501726841739</v>
+        <v>1.042426803583006</v>
       </c>
       <c r="E8">
-        <v>0.9393579362332828</v>
+        <v>1.030657683743963</v>
       </c>
       <c r="F8">
-        <v>1.014072580345005</v>
+        <v>1.039693980600938</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052004466180559</v>
+        <v>1.057538051286596</v>
       </c>
       <c r="J8">
-        <v>0.9487957888605816</v>
+        <v>1.038797937501135</v>
       </c>
       <c r="K8">
-        <v>1.041283794906019</v>
+        <v>1.053061181664449</v>
       </c>
       <c r="L8">
-        <v>0.951427217356131</v>
+        <v>1.041437792807082</v>
       </c>
       <c r="M8">
-        <v>1.025065244810883</v>
+        <v>1.050361831922338</v>
       </c>
       <c r="N8">
-        <v>0.9501431877091615</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.016317489276062</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.04843035941642</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.048611661941167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8780248917096487</v>
+        <v>1.006806025829106</v>
       </c>
       <c r="D9">
-        <v>1.014857600593492</v>
+        <v>1.037569124713343</v>
       </c>
       <c r="E9">
-        <v>0.8993645118798554</v>
+        <v>1.022140275652544</v>
       </c>
       <c r="F9">
-        <v>0.99028062239453</v>
+        <v>1.031807982799774</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044382626295987</v>
+        <v>1.054696239367134</v>
       </c>
       <c r="J9">
-        <v>0.9087652647557494</v>
+        <v>1.032120713967537</v>
       </c>
       <c r="K9">
-        <v>1.027714136588388</v>
+        <v>1.050080718934499</v>
       </c>
       <c r="L9">
-        <v>0.9143326841072699</v>
+        <v>1.034884072406914</v>
       </c>
       <c r="M9">
-        <v>1.003533382904746</v>
+        <v>1.044405247837284</v>
       </c>
       <c r="N9">
-        <v>0.9100558156685354</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.0139719796127</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.043716158552633</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.046501201975383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8384112930788957</v>
+        <v>0.9992979451868197</v>
       </c>
       <c r="D10">
-        <v>1.002316707553174</v>
+        <v>1.034256752383249</v>
       </c>
       <c r="E10">
-        <v>0.8656713123007272</v>
+        <v>1.016342008029758</v>
       </c>
       <c r="F10">
-        <v>0.9709066334321934</v>
+        <v>1.026495227872185</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038081021616538</v>
+        <v>1.052710937843113</v>
       </c>
       <c r="J10">
-        <v>0.8749135498381431</v>
+        <v>1.027539445223154</v>
       </c>
       <c r="K10">
-        <v>1.016644258735725</v>
+        <v>1.048033862303383</v>
       </c>
       <c r="L10">
-        <v>0.8829786379206755</v>
+        <v>1.030422340876689</v>
       </c>
       <c r="M10">
-        <v>0.9858218260320646</v>
+        <v>1.040402032226144</v>
       </c>
       <c r="N10">
-        <v>0.8761560274329</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012378130219403</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.0405991952964</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.045070580680568</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8176819698762062</v>
+        <v>0.9968334838669617</v>
       </c>
       <c r="D11">
-        <v>0.9960506857911475</v>
+        <v>1.033098617715181</v>
       </c>
       <c r="E11">
-        <v>0.8481356845494993</v>
+        <v>1.014764433391293</v>
       </c>
       <c r="F11">
-        <v>0.9611023288285867</v>
+        <v>1.025400409054474</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034874391382591</v>
+        <v>1.052206545345023</v>
       </c>
       <c r="J11">
-        <v>0.8572507415762605</v>
+        <v>1.026338589522872</v>
       </c>
       <c r="K11">
-        <v>1.011047466695231</v>
+        <v>1.047422218563134</v>
       </c>
       <c r="L11">
-        <v>0.8666293332586786</v>
+        <v>1.029413183883578</v>
       </c>
       <c r="M11">
-        <v>0.9767970694799393</v>
+        <v>1.039858698199771</v>
       </c>
       <c r="N11">
-        <v>0.8584681359573335</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.01209300563573</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.040604349298661</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.044670555037107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8091689225079539</v>
+        <v>0.9962395397504172</v>
       </c>
       <c r="D12">
-        <v>0.9935400316558571</v>
+        <v>1.03275709809901</v>
       </c>
       <c r="E12">
-        <v>0.8409559047752113</v>
+        <v>1.014543141265827</v>
       </c>
       <c r="F12">
-        <v>0.9571474404507635</v>
+        <v>1.025453881015232</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033578993302501</v>
+        <v>1.052157484327047</v>
       </c>
       <c r="J12">
-        <v>0.850009881265022</v>
+        <v>1.02620390610122</v>
       </c>
       <c r="K12">
-        <v>1.008792049860157</v>
+        <v>1.047282527750674</v>
       </c>
       <c r="L12">
-        <v>0.8599296672592109</v>
+        <v>1.029396922655223</v>
       </c>
       <c r="M12">
-        <v>0.9731444041722146</v>
+        <v>1.040109149384835</v>
       </c>
       <c r="N12">
-        <v>0.8512169927939145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.012149547492511</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.041128048859506</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.044571791477317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8110389210014648</v>
+        <v>0.9970533545965269</v>
       </c>
       <c r="D13">
-        <v>0.9940883350752462</v>
+        <v>1.033042544354112</v>
       </c>
       <c r="E13">
-        <v>0.8425318952863785</v>
+        <v>1.015359293816828</v>
       </c>
       <c r="F13">
-        <v>0.9580125171377653</v>
+        <v>1.026410722094655</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033862411270444</v>
+        <v>1.052467620495257</v>
       </c>
       <c r="J13">
-        <v>0.8515997350455327</v>
+        <v>1.026889868083409</v>
       </c>
       <c r="K13">
-        <v>1.009285258553112</v>
+        <v>1.047520943475572</v>
       </c>
       <c r="L13">
-        <v>0.8614005424328945</v>
+        <v>1.030154967010482</v>
       </c>
       <c r="M13">
-        <v>0.9739439885014141</v>
+        <v>1.041006446515223</v>
       </c>
       <c r="N13">
-        <v>0.8528091043491522</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012479541639152</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.042113519354355</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.044737894494405</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8169973155303645</v>
+        <v>0.9982544681971055</v>
       </c>
       <c r="D14">
-        <v>0.9958473969246784</v>
+        <v>1.033528259656463</v>
       </c>
       <c r="E14">
-        <v>0.8475577711181697</v>
+        <v>1.016393906346509</v>
       </c>
       <c r="F14">
-        <v>0.9607826882290003</v>
+        <v>1.027483700989591</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034769726930422</v>
+        <v>1.052845493781893</v>
       </c>
       <c r="J14">
-        <v>0.8566681077647555</v>
+        <v>1.027735802187858</v>
       </c>
       <c r="K14">
-        <v>1.010865124760596</v>
+        <v>1.047860597437896</v>
       </c>
       <c r="L14">
-        <v>0.8660901830311827</v>
+        <v>1.031029713676873</v>
       </c>
       <c r="M14">
-        <v>0.976502120850293</v>
+        <v>1.041921597238895</v>
       </c>
       <c r="N14">
-        <v>0.8578846747389868</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.012832116869493</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.043009835838578</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.044979441473759</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.820548591250721</v>
+        <v>0.9988593848730201</v>
       </c>
       <c r="D15">
-        <v>0.9969044313404615</v>
+        <v>1.033790494765361</v>
       </c>
       <c r="E15">
-        <v>0.8505562893709763</v>
+        <v>1.016881920477646</v>
       </c>
       <c r="F15">
-        <v>0.9624436053660629</v>
+        <v>1.027957954139085</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035313515068834</v>
+        <v>1.053020525817315</v>
       </c>
       <c r="J15">
-        <v>0.8596907475756843</v>
+        <v>1.028128315252255</v>
       </c>
       <c r="K15">
-        <v>1.011812708885661</v>
+        <v>1.048033567493738</v>
       </c>
       <c r="L15">
-        <v>0.8688873504712012</v>
+        <v>1.031422140049843</v>
       </c>
       <c r="M15">
-        <v>0.9780342289353661</v>
+        <v>1.042302096136692</v>
       </c>
       <c r="N15">
-        <v>0.8609116070451487</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012981579563514</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.043348031634719</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.04510752941507</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8396926510489808</v>
+        <v>1.001883882428591</v>
       </c>
       <c r="D16">
-        <v>1.002710957174735</v>
+        <v>1.035140326969164</v>
       </c>
       <c r="E16">
-        <v>0.8667575746920225</v>
+        <v>1.019183795763887</v>
       </c>
       <c r="F16">
-        <v>0.9715205284296368</v>
+        <v>1.030053688302485</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038281510556015</v>
+        <v>1.053817541927597</v>
       </c>
       <c r="J16">
-        <v>0.8760066786429114</v>
+        <v>1.029946408536503</v>
       </c>
       <c r="K16">
-        <v>1.016994901978142</v>
+        <v>1.048867928456127</v>
       </c>
       <c r="L16">
-        <v>0.8839907496638878</v>
+        <v>1.033179422420133</v>
       </c>
       <c r="M16">
-        <v>0.9863855036732956</v>
+        <v>1.043865569561625</v>
       </c>
       <c r="N16">
-        <v>0.8772507086059548</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.013596208628672</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.044545188536321</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.045700566154542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8506052261207457</v>
+        <v>1.003575872120437</v>
       </c>
       <c r="D17">
-        <v>1.006100279025172</v>
+        <v>1.035924513176097</v>
       </c>
       <c r="E17">
-        <v>0.8760188987059599</v>
+        <v>1.020409013058362</v>
       </c>
       <c r="F17">
-        <v>0.9767844719051313</v>
+        <v>1.031095170523724</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039998821867569</v>
+        <v>1.054228912740076</v>
       </c>
       <c r="J17">
-        <v>0.8853217953643332</v>
+        <v>1.030897325009735</v>
       </c>
       <c r="K17">
-        <v>1.020002187052251</v>
+        <v>1.049330669854206</v>
       </c>
       <c r="L17">
-        <v>0.8926165991704391</v>
+        <v>1.034068417233764</v>
       </c>
       <c r="M17">
-        <v>0.9912121775102344</v>
+        <v>1.044579103849342</v>
       </c>
       <c r="N17">
-        <v>0.8865790538615801</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.013882973051063</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.044980543969444</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.046030289959417</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8566497816174582</v>
+        <v>1.004261127349071</v>
       </c>
       <c r="D18">
-        <v>1.008001672036451</v>
+        <v>1.036276021826642</v>
       </c>
       <c r="E18">
-        <v>0.8811564418607628</v>
+        <v>1.020786534213119</v>
       </c>
       <c r="F18">
-        <v>0.9797271859487603</v>
+        <v>1.031271903316846</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040957256148622</v>
+        <v>1.05433362767331</v>
       </c>
       <c r="J18">
-        <v>0.8904855192191454</v>
+        <v>1.031164115371241</v>
       </c>
       <c r="K18">
-        <v>1.021683700968849</v>
+        <v>1.04949664437339</v>
       </c>
       <c r="L18">
-        <v>0.8973990285774861</v>
+        <v>1.034255858506704</v>
       </c>
       <c r="M18">
-        <v>0.9939052772416883</v>
+        <v>1.044571825779039</v>
       </c>
       <c r="N18">
-        <v>0.8917501107965535</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.013899753707245</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.044737924247623</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.046136150896906</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8586618983789445</v>
+        <v>1.004031823829471</v>
       </c>
       <c r="D19">
-        <v>1.008638338496171</v>
+        <v>1.036257234545899</v>
       </c>
       <c r="E19">
-        <v>0.882867793073113</v>
+        <v>1.020390443145029</v>
       </c>
       <c r="F19">
-        <v>0.9807109310498747</v>
+        <v>1.030654933975119</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041277372459906</v>
+        <v>1.054167604830462</v>
       </c>
       <c r="J19">
-        <v>0.892205011484652</v>
+        <v>1.030809632311733</v>
       </c>
       <c r="K19">
-        <v>1.022245857830395</v>
+        <v>1.049416802792563</v>
       </c>
       <c r="L19">
-        <v>0.8989916656841844</v>
+        <v>1.033803546827106</v>
       </c>
       <c r="M19">
-        <v>0.9948047559268917</v>
+        <v>1.043902879210319</v>
       </c>
       <c r="N19">
-        <v>0.8934720449383056</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.01368064838541</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.04388469712115</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.046086013708648</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8494689437678341</v>
+        <v>1.001260025230674</v>
       </c>
       <c r="D20">
-        <v>1.00574474105303</v>
+        <v>1.035159860250908</v>
       </c>
       <c r="E20">
-        <v>0.8750537160239747</v>
+        <v>1.017859960350411</v>
       </c>
       <c r="F20">
-        <v>0.9762334105948837</v>
+        <v>1.027884120879665</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039819207347026</v>
+        <v>1.053245492806045</v>
       </c>
       <c r="J20">
-        <v>0.8843514028593351</v>
+        <v>1.02874246127868</v>
       </c>
       <c r="K20">
-        <v>1.019687322702371</v>
+        <v>1.048611411216924</v>
       </c>
       <c r="L20">
-        <v>0.8917179214691277</v>
+        <v>1.031595869110327</v>
       </c>
       <c r="M20">
-        <v>0.9907074494207273</v>
+        <v>1.041453763510539</v>
       </c>
       <c r="N20">
-        <v>0.885607283287919</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.01280620043352</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.041421005591872</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.045520451436659</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.815268568582183</v>
+        <v>0.9954368348374154</v>
       </c>
       <c r="D21">
-        <v>0.9953351569673161</v>
+        <v>1.032615259949109</v>
       </c>
       <c r="E21">
-        <v>0.8460989181371423</v>
+        <v>1.013315633217389</v>
       </c>
       <c r="F21">
-        <v>0.9599768148867052</v>
+        <v>1.023656761821852</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034505821747463</v>
+        <v>1.051658191075185</v>
       </c>
       <c r="J21">
-        <v>0.8551971868317058</v>
+        <v>1.025126586818709</v>
       </c>
       <c r="K21">
-        <v>1.010405448465166</v>
+        <v>1.04700399573721</v>
       </c>
       <c r="L21">
-        <v>0.8647290893367138</v>
+        <v>1.028049053092179</v>
       </c>
       <c r="M21">
-        <v>0.9757582941873759</v>
+        <v>1.038203394803855</v>
       </c>
       <c r="N21">
-        <v>0.8564116649294953</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011522851791762</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.038807812855657</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.04438715637703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7886794301327376</v>
+        <v>0.9917380897325324</v>
       </c>
       <c r="D22">
-        <v>0.9876525412006434</v>
+        <v>1.030988303328116</v>
       </c>
       <c r="E22">
-        <v>0.823732176130087</v>
+        <v>1.010456222613493</v>
       </c>
       <c r="F22">
-        <v>0.9478076214996575</v>
+        <v>1.021023077050769</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030517539480758</v>
+        <v>1.050646286938395</v>
       </c>
       <c r="J22">
-        <v>0.8326175218212386</v>
+        <v>1.022845238683922</v>
       </c>
       <c r="K22">
-        <v>1.003472637290113</v>
+        <v>1.045969896111522</v>
       </c>
       <c r="L22">
-        <v>0.8438450019143845</v>
+        <v>1.02582334712162</v>
       </c>
       <c r="M22">
-        <v>0.9644891173049256</v>
+        <v>1.036189258615034</v>
       </c>
       <c r="N22">
-        <v>0.8337999342047894</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010716732174152</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.037213753575257</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.043642683593682</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8034303979108245</v>
+        <v>0.9937040703141753</v>
       </c>
       <c r="D23">
-        <v>0.9918687773352882</v>
+        <v>1.03183729741253</v>
       </c>
       <c r="E23">
-        <v>0.8361237221281841</v>
+        <v>1.011973749992958</v>
       </c>
       <c r="F23">
-        <v>0.9545058037754953</v>
+        <v>1.022421826883998</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032713344451338</v>
+        <v>1.051180955243303</v>
       </c>
       <c r="J23">
-        <v>0.8451335762474733</v>
+        <v>1.024056869897086</v>
       </c>
       <c r="K23">
-        <v>1.007286463563788</v>
+        <v>1.046504539165697</v>
       </c>
       <c r="L23">
-        <v>0.8554188410367537</v>
+        <v>1.027004272453536</v>
       </c>
       <c r="M23">
-        <v>0.970700598596278</v>
+        <v>1.03725897572517</v>
       </c>
       <c r="N23">
-        <v>0.8463337628639208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011141522218109</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.03806036632588</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.044011177620157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8499833542922927</v>
+        <v>1.001265284977482</v>
       </c>
       <c r="D24">
-        <v>1.005905623188051</v>
+        <v>1.035147620561452</v>
       </c>
       <c r="E24">
-        <v>0.8754906437361848</v>
+        <v>1.017831244000196</v>
       </c>
       <c r="F24">
-        <v>0.9764827996727922</v>
+        <v>1.027824850665343</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039900499017133</v>
+        <v>1.053225706999006</v>
       </c>
       <c r="J24">
-        <v>0.8847907004153922</v>
+        <v>1.028714715639225</v>
       </c>
       <c r="K24">
-        <v>1.01982981715773</v>
+        <v>1.048584392982744</v>
       </c>
       <c r="L24">
-        <v>0.8921247512344879</v>
+        <v>1.031552295499196</v>
       </c>
       <c r="M24">
-        <v>0.9909358859425847</v>
+        <v>1.041380336839713</v>
       </c>
       <c r="N24">
-        <v>0.8860472046968939</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012779762725661</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.041322150991265</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.045474293771189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.8912572023987219</v>
+        <v>1.009686980223323</v>
       </c>
       <c r="D25">
-        <v>1.019200367835458</v>
+        <v>1.038873546993577</v>
       </c>
       <c r="E25">
-        <v>0.9106652541740889</v>
+        <v>1.024390586101417</v>
       </c>
       <c r="F25">
-        <v>0.9969227399721869</v>
+        <v>1.03388731489769</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046526694279446</v>
+        <v>1.055464267735538</v>
       </c>
       <c r="J25">
-        <v>0.920093684346959</v>
+        <v>1.033892679545696</v>
       </c>
       <c r="K25">
-        <v>1.031507759151274</v>
+        <v>1.050896949932865</v>
       </c>
       <c r="L25">
-        <v>0.9248291259920178</v>
+        <v>1.036621711190471</v>
       </c>
       <c r="M25">
-        <v>1.009569015009504</v>
+        <v>1.04598140173667</v>
       </c>
       <c r="N25">
-        <v>0.9214003229149523</v>
+        <v>1.014599821665138</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.044963572087289</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.047106526456535</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_38/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_38/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016135225277567</v>
+        <v>1.015598467092041</v>
       </c>
       <c r="D2">
-        <v>1.041709695077562</v>
+        <v>1.038056875775744</v>
       </c>
       <c r="E2">
-        <v>1.029435028789355</v>
+        <v>1.028978881143217</v>
       </c>
       <c r="F2">
-        <v>1.038561857753201</v>
+        <v>1.038093366496755</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.057131706165987</v>
+        <v>1.055633624067681</v>
       </c>
       <c r="J2">
-        <v>1.037843816665511</v>
+        <v>1.037322433975264</v>
       </c>
       <c r="K2">
-        <v>1.052616992778656</v>
+        <v>1.049010305592377</v>
       </c>
       <c r="L2">
-        <v>1.040498969941559</v>
+        <v>1.040048733566024</v>
       </c>
       <c r="M2">
-        <v>1.049508885931295</v>
+        <v>1.049046333461171</v>
       </c>
       <c r="N2">
-        <v>1.015979083893603</v>
+        <v>1.016685187038616</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.047755316866483</v>
+        <v>1.047389241145687</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.048274985233814</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.045733473478819</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025049322826777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020685200952029</v>
+        <v>1.020019589362574</v>
       </c>
       <c r="D3">
-        <v>1.043750072079416</v>
+        <v>1.039889180903395</v>
       </c>
       <c r="E3">
-        <v>1.033010383705447</v>
+        <v>1.032446921415733</v>
       </c>
       <c r="F3">
-        <v>1.041878104133406</v>
+        <v>1.041323607100193</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.058295469458538</v>
+        <v>1.05668936838427</v>
       </c>
       <c r="J3">
-        <v>1.040627421507754</v>
+        <v>1.039978989133554</v>
       </c>
       <c r="K3">
-        <v>1.053852168999521</v>
+        <v>1.050035896841753</v>
       </c>
       <c r="L3">
-        <v>1.04323761882927</v>
+        <v>1.042680810979028</v>
       </c>
       <c r="M3">
-        <v>1.052001783735333</v>
+        <v>1.051453698130418</v>
       </c>
       <c r="N3">
-        <v>1.016954924789268</v>
+        <v>1.017423729948428</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.049728256111221</v>
+        <v>1.049294488438163</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.049145707302623</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.04645573019524</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.025224010961505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023569261524593</v>
+        <v>1.022822791380278</v>
       </c>
       <c r="D4">
-        <v>1.045050463393594</v>
+        <v>1.041057899130895</v>
       </c>
       <c r="E4">
-        <v>1.035282786080349</v>
+        <v>1.034651931042329</v>
       </c>
       <c r="F4">
-        <v>1.043988000470784</v>
+        <v>1.043379433952076</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.059023812517769</v>
+        <v>1.057349210881407</v>
       </c>
       <c r="J4">
-        <v>1.042388692392255</v>
+        <v>1.041660172604585</v>
       </c>
       <c r="K4">
-        <v>1.054633952136297</v>
+        <v>1.050684812850792</v>
       </c>
       <c r="L4">
-        <v>1.044973241126804</v>
+        <v>1.044349379987139</v>
       </c>
       <c r="M4">
-        <v>1.053583005262811</v>
+        <v>1.052981047966072</v>
       </c>
       <c r="N4">
-        <v>1.017572084608612</v>
+        <v>1.017890986173581</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.050979670127163</v>
+        <v>1.050503267931554</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.04969936385814</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.046915528257014</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025332104378876</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024769137102519</v>
+        <v>1.023989020105867</v>
       </c>
       <c r="D5">
-        <v>1.045598387903471</v>
+        <v>1.041550771038565</v>
       </c>
       <c r="E5">
-        <v>1.036229985714029</v>
+        <v>1.03557103324661</v>
       </c>
       <c r="F5">
-        <v>1.044867645498175</v>
+        <v>1.044236555354301</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.059326263231683</v>
+        <v>1.057623035083671</v>
       </c>
       <c r="J5">
-        <v>1.043121129801889</v>
+        <v>1.042359207004606</v>
       </c>
       <c r="K5">
-        <v>1.054964346279479</v>
+        <v>1.050959608232443</v>
       </c>
       <c r="L5">
-        <v>1.045695813704198</v>
+        <v>1.045043969223122</v>
       </c>
       <c r="M5">
-        <v>1.054241315007074</v>
+        <v>1.053616895042994</v>
       </c>
       <c r="N5">
-        <v>1.017829544643112</v>
+        <v>1.01808583226763</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.0515006705376</v>
+        <v>1.051006491232824</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.049940049601083</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.04711762668637</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025378122001288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024971377758258</v>
+        <v>1.024185372960152</v>
       </c>
       <c r="D6">
-        <v>1.045697258363797</v>
+        <v>1.041639972636219</v>
       </c>
       <c r="E6">
-        <v>1.036390176016213</v>
+        <v>1.035726251455502</v>
       </c>
       <c r="F6">
-        <v>1.045016038007695</v>
+        <v>1.044381002913096</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.059379186954011</v>
+        <v>1.057670991393767</v>
       </c>
       <c r="J6">
-        <v>1.043245113605747</v>
+        <v>1.042477345375345</v>
       </c>
       <c r="K6">
-        <v>1.055026649684201</v>
+        <v>1.051012152574494</v>
       </c>
       <c r="L6">
-        <v>1.045818329961008</v>
+        <v>1.0451615337737</v>
       </c>
       <c r="M6">
-        <v>1.054352585185313</v>
+        <v>1.053724231075105</v>
       </c>
       <c r="N6">
-        <v>1.017874202093677</v>
+        <v>1.018119487421904</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.051588732100547</v>
+        <v>1.051091439285837</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.04999273117866</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.047164291806997</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025387892779378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023589556700397</v>
+        <v>1.022854854163976</v>
       </c>
       <c r="D7">
-        <v>1.045076896680899</v>
+        <v>1.041085635234957</v>
       </c>
       <c r="E7">
-        <v>1.035300045122607</v>
+        <v>1.034679223051617</v>
       </c>
       <c r="F7">
-        <v>1.044002922735913</v>
+        <v>1.043402168873813</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.059034458783164</v>
+        <v>1.057364018269228</v>
       </c>
       <c r="J7">
-        <v>1.042402622715893</v>
+        <v>1.041685579921779</v>
       </c>
       <c r="K7">
-        <v>1.054657269977969</v>
+        <v>1.050709402149127</v>
       </c>
       <c r="L7">
-        <v>1.0449874440735</v>
+        <v>1.044373502015508</v>
       </c>
       <c r="M7">
-        <v>1.053594932418874</v>
+        <v>1.053000700474567</v>
       </c>
       <c r="N7">
-        <v>1.017579927570847</v>
+        <v>1.017926932969207</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.050989109536773</v>
+        <v>1.050518821362224</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.04973569702383</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.046954792780274</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025339495581576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017690750093417</v>
+        <v>1.017149059533883</v>
       </c>
       <c r="D8">
-        <v>1.042426803583006</v>
+        <v>1.038711727623499</v>
       </c>
       <c r="E8">
-        <v>1.030657683743963</v>
+        <v>1.03019858400695</v>
       </c>
       <c r="F8">
-        <v>1.039693980600938</v>
+        <v>1.039222226310725</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.057538051286596</v>
+        <v>1.056018213648456</v>
       </c>
       <c r="J8">
-        <v>1.038797937501135</v>
+        <v>1.038271235335812</v>
       </c>
       <c r="K8">
-        <v>1.053061181664449</v>
+        <v>1.049391663706578</v>
       </c>
       <c r="L8">
-        <v>1.041437792807082</v>
+        <v>1.040984462016411</v>
       </c>
       <c r="M8">
-        <v>1.050361831922338</v>
+        <v>1.049895878127404</v>
       </c>
       <c r="N8">
-        <v>1.016317489276062</v>
+        <v>1.017033659574186</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.04843035941642</v>
+        <v>1.04806159213669</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.048611661941167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.046028029748701</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02511980472128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.006806025829106</v>
+        <v>1.006585243864733</v>
       </c>
       <c r="D9">
-        <v>1.037569124713343</v>
+        <v>1.034356170947914</v>
       </c>
       <c r="E9">
-        <v>1.022140275652544</v>
+        <v>1.021948637110501</v>
       </c>
       <c r="F9">
-        <v>1.031807982799774</v>
+        <v>1.031549992331329</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.054696239367134</v>
+        <v>1.053437936090907</v>
       </c>
       <c r="J9">
-        <v>1.032120713967537</v>
+        <v>1.03190758424698</v>
       </c>
       <c r="K9">
-        <v>1.050080718934499</v>
+        <v>1.046915393598143</v>
       </c>
       <c r="L9">
-        <v>1.034884072406914</v>
+        <v>1.034695374251898</v>
       </c>
       <c r="M9">
-        <v>1.044405247837284</v>
+        <v>1.04415112229082</v>
       </c>
       <c r="N9">
-        <v>1.0139719796127</v>
+        <v>1.015272294517513</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.043716158552633</v>
+        <v>1.043515036085654</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.046501201975383</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.044273759866696</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024681477752098</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9992979451868197</v>
+        <v>0.9993613347897072</v>
       </c>
       <c r="D10">
-        <v>1.034256752383249</v>
+        <v>1.031405684821169</v>
       </c>
       <c r="E10">
-        <v>1.016342008029758</v>
+        <v>1.016388346247902</v>
       </c>
       <c r="F10">
-        <v>1.026495227872185</v>
+        <v>1.026426480922495</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.019999999999999</v>
+      </c>
       <c r="I10">
-        <v>1.052710937843113</v>
+        <v>1.051656630956553</v>
       </c>
       <c r="J10">
-        <v>1.027539445223154</v>
+        <v>1.02760031502928</v>
       </c>
       <c r="K10">
-        <v>1.048033862303383</v>
+        <v>1.04523014366264</v>
       </c>
       <c r="L10">
-        <v>1.030422340876689</v>
+        <v>1.030467876940357</v>
       </c>
       <c r="M10">
-        <v>1.040402032226144</v>
+        <v>1.040334445337269</v>
       </c>
       <c r="N10">
-        <v>1.012378130219403</v>
+        <v>1.014208161527878</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.0405991952964</v>
+        <v>1.040545708128517</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.045070580680568</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.04310050262285</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024377990458849</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9968334838669617</v>
+        <v>0.9970703576179283</v>
       </c>
       <c r="D11">
-        <v>1.033098617715181</v>
+        <v>1.030382851202699</v>
       </c>
       <c r="E11">
-        <v>1.014764433391293</v>
+        <v>1.014953164120123</v>
       </c>
       <c r="F11">
-        <v>1.025400409054474</v>
+        <v>1.025448540866543</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.052206545345023</v>
+        <v>1.051258278029083</v>
       </c>
       <c r="J11">
-        <v>1.026338589522872</v>
+        <v>1.026565523062011</v>
       </c>
       <c r="K11">
-        <v>1.047422218563134</v>
+        <v>1.044753669724011</v>
       </c>
       <c r="L11">
-        <v>1.029413183883578</v>
+        <v>1.029598489707094</v>
       </c>
       <c r="M11">
-        <v>1.039858698199771</v>
+        <v>1.039905979747866</v>
       </c>
       <c r="N11">
-        <v>1.01209300563573</v>
+        <v>1.014256323433624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.040604349298661</v>
+        <v>1.040641748429715</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.044670555037107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.042799299770975</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024326607339743</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9962395397504172</v>
+        <v>0.9965337454537707</v>
       </c>
       <c r="D12">
-        <v>1.03275709809901</v>
+        <v>1.030075811667847</v>
       </c>
       <c r="E12">
-        <v>1.014543141265827</v>
+        <v>1.014776003388316</v>
       </c>
       <c r="F12">
-        <v>1.025453881015232</v>
+        <v>1.02554072681818</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.052157484327047</v>
+        <v>1.05124496270226</v>
       </c>
       <c r="J12">
-        <v>1.02620390610122</v>
+        <v>1.026485531329181</v>
       </c>
       <c r="K12">
-        <v>1.047282527750674</v>
+        <v>1.04464863250991</v>
       </c>
       <c r="L12">
-        <v>1.029396922655223</v>
+        <v>1.029625489920976</v>
       </c>
       <c r="M12">
-        <v>1.040109149384835</v>
+        <v>1.04019443710379</v>
       </c>
       <c r="N12">
-        <v>1.012149547492511</v>
+        <v>1.014412456579654</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.041128048859506</v>
+        <v>1.041195487687798</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.044571791477317</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.042725038024867</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024328576532723</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9970533545965269</v>
+        <v>0.9972986452160851</v>
       </c>
       <c r="D13">
-        <v>1.033042544354112</v>
+        <v>1.030315002568446</v>
       </c>
       <c r="E13">
-        <v>1.015359293816828</v>
+        <v>1.015546435880726</v>
       </c>
       <c r="F13">
-        <v>1.026410722094655</v>
+        <v>1.026465381376652</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.052467620495257</v>
+        <v>1.051531143700159</v>
       </c>
       <c r="J13">
-        <v>1.026889868083409</v>
+        <v>1.027124731850633</v>
       </c>
       <c r="K13">
-        <v>1.047520943475572</v>
+        <v>1.044841418217237</v>
       </c>
       <c r="L13">
-        <v>1.030154967010482</v>
+        <v>1.03033867601641</v>
       </c>
       <c r="M13">
-        <v>1.041006446515223</v>
+        <v>1.041060130761445</v>
       </c>
       <c r="N13">
-        <v>1.012479541639152</v>
+        <v>1.0146270684624</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.042113519354355</v>
+        <v>1.04215595802813</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.044737894494405</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.042858632146459</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024379586238917</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9982544681971055</v>
+        <v>0.9984191269789656</v>
       </c>
       <c r="D14">
-        <v>1.033528259656463</v>
+        <v>1.030732825674501</v>
       </c>
       <c r="E14">
-        <v>1.016393906346509</v>
+        <v>1.016510481124749</v>
       </c>
       <c r="F14">
-        <v>1.027483700989591</v>
+        <v>1.027485274222584</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.052845493781893</v>
+        <v>1.051866152701316</v>
       </c>
       <c r="J14">
-        <v>1.027735802187858</v>
+        <v>1.027893568608615</v>
       </c>
       <c r="K14">
-        <v>1.047860597437896</v>
+        <v>1.045113781915916</v>
       </c>
       <c r="L14">
-        <v>1.031029713676873</v>
+        <v>1.031144178829666</v>
       </c>
       <c r="M14">
-        <v>1.041921597238895</v>
+        <v>1.04192314278846</v>
       </c>
       <c r="N14">
-        <v>1.012832116869493</v>
+        <v>1.014804449403023</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.043009835838578</v>
+        <v>1.043011057468314</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.044979441473759</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.043052741181979</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024438358569564</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,105 +1245,123 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9988593848730201</v>
+        <v>0.9989823283680684</v>
       </c>
       <c r="D15">
-        <v>1.033790494765361</v>
+        <v>1.030960942962571</v>
       </c>
       <c r="E15">
-        <v>1.016881920477646</v>
+        <v>1.01696289441037</v>
       </c>
       <c r="F15">
-        <v>1.027957954139085</v>
+        <v>1.027932049321759</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.053020525817315</v>
+        <v>1.052018231120567</v>
       </c>
       <c r="J15">
-        <v>1.028128315252255</v>
+        <v>1.028246159480998</v>
       </c>
       <c r="K15">
-        <v>1.048033567493738</v>
+        <v>1.045252862823483</v>
       </c>
       <c r="L15">
-        <v>1.031422140049843</v>
+        <v>1.031501660376333</v>
       </c>
       <c r="M15">
-        <v>1.042302096136692</v>
+        <v>1.042276643524581</v>
       </c>
       <c r="N15">
-        <v>1.012981579563514</v>
+        <v>1.014867014974429</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.043348031634719</v>
+        <v>1.043327913965054</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.04510752941507</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.043157446095779</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024466031950714</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C16">
-        <v>1.001883882428591</v>
+        <v>1.001807378046416</v>
       </c>
       <c r="D16">
-        <v>1.035140326969164</v>
+        <v>1.032145709977724</v>
       </c>
       <c r="E16">
-        <v>1.019183795763887</v>
+        <v>1.019098307347087</v>
       </c>
       <c r="F16">
-        <v>1.030053688302485</v>
+        <v>1.029895889571596</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.053817541927597</v>
+        <v>1.052699616315737</v>
       </c>
       <c r="J16">
-        <v>1.029946408536503</v>
+        <v>1.029872914038579</v>
       </c>
       <c r="K16">
-        <v>1.048867928456127</v>
+        <v>1.045922799357224</v>
       </c>
       <c r="L16">
-        <v>1.033179422420133</v>
+        <v>1.03309539918138</v>
       </c>
       <c r="M16">
-        <v>1.043865569561625</v>
+        <v>1.043710402526864</v>
       </c>
       <c r="N16">
-        <v>1.013596208628672</v>
+        <v>1.015088098941016</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.044545188536321</v>
+        <v>1.044422541432053</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.045700566154542</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.043634538792041</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024586870342167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.003575872120437</v>
+        <v>1.003403227223089</v>
       </c>
       <c r="D17">
-        <v>1.035924513176097</v>
+        <v>1.032841415765041</v>
       </c>
       <c r="E17">
-        <v>1.020409013058362</v>
+        <v>1.020244527381665</v>
       </c>
       <c r="F17">
-        <v>1.031095170523724</v>
+        <v>1.030873239269014</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.054228912740076</v>
+        <v>1.053049946523121</v>
       </c>
       <c r="J17">
-        <v>1.030897325009735</v>
+        <v>1.030731249713137</v>
       </c>
       <c r="K17">
-        <v>1.049330669854206</v>
+        <v>1.046297118043118</v>
       </c>
       <c r="L17">
-        <v>1.034068417233764</v>
+        <v>1.033906669473238</v>
       </c>
       <c r="M17">
-        <v>1.044579103849342</v>
+        <v>1.044360769289855</v>
       </c>
       <c r="N17">
-        <v>1.013882973051063</v>
+        <v>1.015195864919856</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.044980543969444</v>
+        <v>1.04480795086422</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.046030289959417</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.043901999022131</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024648688616657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.004261127349071</v>
+        <v>1.004054638497958</v>
       </c>
       <c r="D18">
-        <v>1.036276021826642</v>
+        <v>1.033159524395191</v>
       </c>
       <c r="E18">
-        <v>1.020786534213119</v>
+        <v>1.020596027612223</v>
       </c>
       <c r="F18">
-        <v>1.031271903316846</v>
+        <v>1.031026412757649</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.05433362767331</v>
+        <v>1.053128322690715</v>
       </c>
       <c r="J18">
-        <v>1.031164115371241</v>
+        <v>1.030965336788516</v>
       </c>
       <c r="K18">
-        <v>1.04949664437339</v>
+        <v>1.046429418275682</v>
       </c>
       <c r="L18">
-        <v>1.034255858506704</v>
+        <v>1.034068471122857</v>
       </c>
       <c r="M18">
-        <v>1.044571825779039</v>
+        <v>1.04433025087946</v>
       </c>
       <c r="N18">
-        <v>1.013899753707245</v>
+        <v>1.015163755453478</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.044737924247623</v>
+        <v>1.044546920142502</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.046136150896906</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.043982901299867</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.024658295374907</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.004031823829471</v>
+        <v>1.003839042949453</v>
       </c>
       <c r="D19">
-        <v>1.036257234545899</v>
+        <v>1.033153850157847</v>
       </c>
       <c r="E19">
-        <v>1.020390443145029</v>
+        <v>1.020214336801783</v>
       </c>
       <c r="F19">
-        <v>1.030654933975119</v>
+        <v>1.030417123375855</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.054167604830462</v>
+        <v>1.052964239776578</v>
       </c>
       <c r="J19">
-        <v>1.030809632311733</v>
+        <v>1.030624012258872</v>
       </c>
       <c r="K19">
-        <v>1.049416802792563</v>
+        <v>1.046362223091533</v>
       </c>
       <c r="L19">
-        <v>1.033803546827106</v>
+        <v>1.033630311342514</v>
       </c>
       <c r="M19">
-        <v>1.043902879210319</v>
+        <v>1.043668847343025</v>
       </c>
       <c r="N19">
-        <v>1.01368064838541</v>
+        <v>1.014989400006148</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.04388469712115</v>
+        <v>1.043699596991014</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.046086013708648</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.04394233798542</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024626058437162</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.001260025230674</v>
+        <v>1.001209530087246</v>
       </c>
       <c r="D20">
-        <v>1.035159860250908</v>
+        <v>1.032201405528772</v>
       </c>
       <c r="E20">
-        <v>1.017859960350411</v>
+        <v>1.01780901781439</v>
       </c>
       <c r="F20">
-        <v>1.027884120879665</v>
+        <v>1.027739194661287</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.053245492806045</v>
+        <v>1.052122032471898</v>
       </c>
       <c r="J20">
-        <v>1.02874246127868</v>
+        <v>1.028693905868664</v>
       </c>
       <c r="K20">
-        <v>1.048611411216924</v>
+        <v>1.04570071693886</v>
       </c>
       <c r="L20">
-        <v>1.031595869110327</v>
+        <v>1.031545782318714</v>
       </c>
       <c r="M20">
-        <v>1.041453763510539</v>
+        <v>1.041311211407985</v>
       </c>
       <c r="N20">
-        <v>1.01280620043352</v>
+        <v>1.01441197324342</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.041421005591872</v>
+        <v>1.041308190852629</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.045520451436659</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.04347889655907</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024468214318976</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9954368348374154</v>
+        <v>0.9957949579116472</v>
       </c>
       <c r="D21">
-        <v>1.032615259949109</v>
+        <v>1.029987522920447</v>
       </c>
       <c r="E21">
-        <v>1.013315633217389</v>
+        <v>1.013615573826839</v>
       </c>
       <c r="F21">
-        <v>1.023656761821852</v>
+        <v>1.02378598741344</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.051658191075185</v>
+        <v>1.050765881135995</v>
       </c>
       <c r="J21">
-        <v>1.025126586818709</v>
+        <v>1.025469548383381</v>
       </c>
       <c r="K21">
-        <v>1.04700399573721</v>
+        <v>1.044422204773446</v>
       </c>
       <c r="L21">
-        <v>1.028049053092179</v>
+        <v>1.028343506139524</v>
       </c>
       <c r="M21">
-        <v>1.038203394803855</v>
+        <v>1.03833031724287</v>
       </c>
       <c r="N21">
-        <v>1.011522851791762</v>
+        <v>1.01394889390995</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.038807812855657</v>
+        <v>1.038908263685745</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.04438715637703</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.042578467632296</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024233346532438</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9917380897325324</v>
+        <v>0.9923576269082889</v>
       </c>
       <c r="D22">
-        <v>1.030988303328116</v>
+        <v>1.028572372533336</v>
       </c>
       <c r="E22">
-        <v>1.010456222613493</v>
+        <v>1.010981763459992</v>
       </c>
       <c r="F22">
-        <v>1.021023077050769</v>
+        <v>1.021328667086743</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.050646286938395</v>
+        <v>1.049902445413579</v>
       </c>
       <c r="J22">
-        <v>1.022845238683922</v>
+        <v>1.023436955165648</v>
       </c>
       <c r="K22">
-        <v>1.045969896111522</v>
+        <v>1.043598288360846</v>
       </c>
       <c r="L22">
-        <v>1.02582334712162</v>
+        <v>1.026338764100534</v>
       </c>
       <c r="M22">
-        <v>1.036189258615034</v>
+        <v>1.036489118215375</v>
       </c>
       <c r="N22">
-        <v>1.010716732174152</v>
+        <v>1.013657209839546</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.037213753575257</v>
+        <v>1.037451073392887</v>
       </c>
       <c r="Q22">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R22">
-        <v>1.043642683593682</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.041981278680378</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.024079355580419</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9937040703141753</v>
+        <v>0.9941631743361992</v>
       </c>
       <c r="D23">
-        <v>1.03183729741253</v>
+        <v>1.029304098500099</v>
       </c>
       <c r="E23">
-        <v>1.011973749992958</v>
+        <v>1.012360419499678</v>
       </c>
       <c r="F23">
-        <v>1.022421826883998</v>
+        <v>1.022618920707734</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.051180955243303</v>
+        <v>1.050349626958328</v>
       </c>
       <c r="J23">
-        <v>1.024056869897086</v>
+        <v>1.024495987091141</v>
       </c>
       <c r="K23">
-        <v>1.046504539165697</v>
+        <v>1.044016656059445</v>
       </c>
       <c r="L23">
-        <v>1.027004272453536</v>
+        <v>1.02738369259379</v>
       </c>
       <c r="M23">
-        <v>1.03725897572517</v>
+        <v>1.037452471153219</v>
       </c>
       <c r="N23">
-        <v>1.011141522218109</v>
+        <v>1.013762014854096</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.03806036632588</v>
+        <v>1.03821350548791</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.044011177620157</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.042266611039473</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.024154943077542</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001265284977482</v>
+        <v>1.001216146947796</v>
       </c>
       <c r="D24">
-        <v>1.035147620561452</v>
+        <v>1.032190919906516</v>
       </c>
       <c r="E24">
-        <v>1.017831244000196</v>
+        <v>1.017782168753644</v>
       </c>
       <c r="F24">
-        <v>1.027824850665343</v>
+        <v>1.027680741547842</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.053225706999006</v>
+        <v>1.052102174048371</v>
       </c>
       <c r="J24">
-        <v>1.028714715639225</v>
+        <v>1.028667462528605</v>
       </c>
       <c r="K24">
-        <v>1.048584392982744</v>
+        <v>1.04567536485119</v>
       </c>
       <c r="L24">
-        <v>1.031552295499196</v>
+        <v>1.031504043630394</v>
       </c>
       <c r="M24">
-        <v>1.041380336839713</v>
+        <v>1.041238585780386</v>
       </c>
       <c r="N24">
-        <v>1.012779762725661</v>
+        <v>1.014388943520834</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.041322150991265</v>
+        <v>1.041209964651005</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.045474293771189</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.043431208357962</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.024457101749227</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.009686980223323</v>
+        <v>1.009363049061404</v>
       </c>
       <c r="D25">
-        <v>1.038873546993577</v>
+        <v>1.035521500312784</v>
       </c>
       <c r="E25">
-        <v>1.024390586101417</v>
+        <v>1.02411216106935</v>
       </c>
       <c r="F25">
-        <v>1.03388731489769</v>
+        <v>1.033560613953503</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.055464267735538</v>
+        <v>1.054129719620429</v>
       </c>
       <c r="J25">
-        <v>1.033892679545696</v>
+        <v>1.033579366271352</v>
       </c>
       <c r="K25">
-        <v>1.050896949932865</v>
+        <v>1.047592326400382</v>
       </c>
       <c r="L25">
-        <v>1.036621711190471</v>
+        <v>1.036347352499798</v>
       </c>
       <c r="M25">
-        <v>1.04598140173667</v>
+        <v>1.04565936216922</v>
       </c>
       <c r="N25">
-        <v>1.014599821665138</v>
+        <v>1.015706599591077</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.044963572087289</v>
+        <v>1.044708700882983</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.047106526456535</v>
+        <v>1.044783442545479</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024806679006575</v>
       </c>
     </row>
   </sheetData>
